--- a/Statistics/BVH_Performance.xlsx
+++ b/Statistics/BVH_Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Projects\Radiance\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8159A8-1958-4572-953A-89CF668510B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AEA530-301D-4C67-BA3E-2CA5053C0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>SAH v1</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>SAH v1 Closest Child</t>
+  </si>
+  <si>
+    <t>Box tests</t>
+  </si>
+  <si>
+    <t>Triangle tests</t>
+  </si>
+  <si>
+    <t>Average depth</t>
+  </si>
+  <si>
+    <t>Branches</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +2919,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5437,7 +5449,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5604,7 +5616,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> box tests</a:t>
+              <a:t> box tests comparison</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -5635,7 +5647,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5650,7 +5662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BVH Metrics'!$B$1:$E$1</c:f>
+              <c:f>'BVH Metrics'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5673,7 +5685,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BVH Metrics'!$A$2:$A$121</c:f>
+              <c:f>'BVH Metrics'!$A$3:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
@@ -6042,7 +6054,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BVH Metrics'!$B$2:$B$121</c:f>
+              <c:f>'BVH Metrics'!$B$3:$B$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
@@ -6421,7 +6433,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BVH Metrics'!$H$1:$K$1</c:f>
+              <c:f>'BVH Metrics'!$H$2:$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6444,7 +6456,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BVH Metrics'!$G$2:$G$121</c:f>
+              <c:f>'BVH Metrics'!$G$3:$G$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
@@ -6813,7 +6825,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BVH Metrics'!$H$2:$H$121</c:f>
+              <c:f>'BVH Metrics'!$H$3:$H$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
@@ -7192,7 +7204,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BVH Metrics'!$N$1:$Q$1</c:f>
+              <c:f>'BVH Metrics'!$N$2:$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7215,7 +7227,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'BVH Metrics'!$M$2:$M$121</c:f>
+              <c:f>'BVH Metrics'!$M$3:$M$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
@@ -7584,369 +7596,369 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'BVH Metrics'!$N$2:$N$121</c:f>
+              <c:f>'BVH Metrics'!$N$3:$N$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>22.969100000000001</c:v>
+                  <c:v>34.089199999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.437200000000001</c:v>
+                  <c:v>34.632199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.922599999999999</c:v>
+                  <c:v>34.691299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.655200000000001</c:v>
+                  <c:v>33.826599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.1752</c:v>
+                  <c:v>33.094700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.0517</c:v>
+                  <c:v>32.565100000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.860600000000002</c:v>
+                  <c:v>32.195799999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.913799999999998</c:v>
+                  <c:v>32.2684</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.286999999999999</c:v>
+                  <c:v>32.739100000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.159500000000001</c:v>
+                  <c:v>32.906999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.7728</c:v>
+                  <c:v>33.767000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.476400000000002</c:v>
+                  <c:v>35.177599999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.451500000000003</c:v>
+                  <c:v>37.193199999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.470999999999997</c:v>
+                  <c:v>39.644300000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.515000000000001</c:v>
+                  <c:v>41.384599999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.631599999999999</c:v>
+                  <c:v>41.522300000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.612299999999998</c:v>
+                  <c:v>41.2639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.364400000000003</c:v>
+                  <c:v>40.950200000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.149900000000002</c:v>
+                  <c:v>40.425600000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.736199999999997</c:v>
+                  <c:v>39.769799999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.310899999999997</c:v>
+                  <c:v>39.137599999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>39.436999999999998</c:v>
+                  <c:v>39.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.476700000000001</c:v>
+                  <c:v>39.272199999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>39.1068</c:v>
+                  <c:v>38.9283</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39.464599999999997</c:v>
+                  <c:v>39.247700000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.826700000000002</c:v>
+                  <c:v>39.619100000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.097099999999998</c:v>
+                  <c:v>39.868899999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>40.311900000000001</c:v>
+                  <c:v>40.154899999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>40.773099999999999</c:v>
+                  <c:v>40.556399999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>41.075600000000001</c:v>
+                  <c:v>40.9651</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41.438699999999997</c:v>
+                  <c:v>41.208599999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>41.553699999999999</c:v>
+                  <c:v>41.383800000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41.912199999999999</c:v>
+                  <c:v>41.632899999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42.334600000000002</c:v>
+                  <c:v>42.0914</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43.071899999999999</c:v>
+                  <c:v>42.817700000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.788800000000002</c:v>
+                  <c:v>43.515700000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43.995600000000003</c:v>
+                  <c:v>43.778799999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43.856699999999996</c:v>
+                  <c:v>43.630699999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43.330599999999997</c:v>
+                  <c:v>43.126399999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42.466900000000003</c:v>
+                  <c:v>42.363300000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41.417099999999998</c:v>
+                  <c:v>41.258099999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40.1877</c:v>
+                  <c:v>41.005699999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>38.713500000000003</c:v>
+                  <c:v>40.929600000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.392899999999997</c:v>
+                  <c:v>40.764899999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>35.818300000000001</c:v>
+                  <c:v>40.497500000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.503399999999999</c:v>
+                  <c:v>40.302999999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>33.139499999999998</c:v>
+                  <c:v>39.887799999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>32.028500000000001</c:v>
+                  <c:v>38.120100000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30.9437</c:v>
+                  <c:v>35.848300000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>29.914300000000001</c:v>
+                  <c:v>34.040399999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>28.9572</c:v>
+                  <c:v>32.580100000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.721</c:v>
+                  <c:v>31.886099999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.618099999999998</c:v>
+                  <c:v>31.245200000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>25.367000000000001</c:v>
+                  <c:v>30.792300000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24.554099999999998</c:v>
+                  <c:v>30.835100000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>23.838200000000001</c:v>
+                  <c:v>30.9193</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.829699999999999</c:v>
+                  <c:v>31.074000000000002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>22.0364</c:v>
+                  <c:v>31.5273</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21.4133</c:v>
+                  <c:v>32.111400000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.983899999999998</c:v>
+                  <c:v>31.9527</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20.6036</c:v>
+                  <c:v>31.411899999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20.184100000000001</c:v>
+                  <c:v>30.968399999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19.879799999999999</c:v>
+                  <c:v>30.6221</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19.611999999999998</c:v>
+                  <c:v>30.406700000000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19.493500000000001</c:v>
+                  <c:v>30.2667</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19.1065</c:v>
+                  <c:v>30.113</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.747699999999998</c:v>
+                  <c:v>29.901199999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18.4057</c:v>
+                  <c:v>29.739899999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>17.974</c:v>
+                  <c:v>29.575700000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>17.604700000000001</c:v>
+                  <c:v>29.359100000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>17.176600000000001</c:v>
+                  <c:v>29.094000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>16.831600000000002</c:v>
+                  <c:v>28.889099999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16.590699999999998</c:v>
+                  <c:v>28.7484</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>16.247299999999999</c:v>
+                  <c:v>28.674299999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>15.8797</c:v>
+                  <c:v>28.6084</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>15.743499999999999</c:v>
+                  <c:v>28.601400000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>15.3809</c:v>
+                  <c:v>28.614699999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>15.1206</c:v>
+                  <c:v>28.504300000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>14.8893</c:v>
+                  <c:v>28.409800000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.506600000000001</c:v>
+                  <c:v>28.339300000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.2479</c:v>
+                  <c:v>28.198699999999999</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>13.8927</c:v>
+                  <c:v>27.99</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>13.622999999999999</c:v>
+                  <c:v>27.871300000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.416700000000001</c:v>
+                  <c:v>27.770499999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.183999999999999</c:v>
+                  <c:v>27.366599999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.984</c:v>
+                  <c:v>26.752099999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>12.789099999999999</c:v>
+                  <c:v>26.167899999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>12.5548</c:v>
+                  <c:v>25.689399999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.5039</c:v>
+                  <c:v>25.369800000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12.324</c:v>
+                  <c:v>25.133800000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.327199999999999</c:v>
+                  <c:v>25.006799999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.3681</c:v>
+                  <c:v>24.959599999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>12.4397</c:v>
+                  <c:v>25.038799999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.540800000000001</c:v>
+                  <c:v>25.2958</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>12.654299999999999</c:v>
+                  <c:v>25.648099999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>12.865500000000001</c:v>
+                  <c:v>26.163799999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>13.0847</c:v>
+                  <c:v>26.842199999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>13.4679</c:v>
+                  <c:v>27.642499999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>13.8376</c:v>
+                  <c:v>28.017600000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>14.274900000000001</c:v>
+                  <c:v>28.327000000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14.6518</c:v>
+                  <c:v>28.580100000000002</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>15.041700000000001</c:v>
+                  <c:v>28.829000000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>15.473000000000001</c:v>
+                  <c:v>29.0642</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>15.8682</c:v>
+                  <c:v>29.3367</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>16.2927</c:v>
+                  <c:v>29.614100000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>16.768899999999999</c:v>
+                  <c:v>29.9099</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>17.187799999999999</c:v>
+                  <c:v>30.169</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>17.676500000000001</c:v>
+                  <c:v>30.4224</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>17.9983</c:v>
+                  <c:v>30.629200000000001</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>18.393799999999999</c:v>
+                  <c:v>30.7667</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>18.786799999999999</c:v>
+                  <c:v>30.940200000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>19.245699999999999</c:v>
+                  <c:v>31.0716</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>19.612100000000002</c:v>
+                  <c:v>31.217700000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>19.943999999999999</c:v>
+                  <c:v>31.354099999999999</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>20.271000000000001</c:v>
+                  <c:v>31.5413</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>20.778600000000001</c:v>
+                  <c:v>31.8065</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>21.2209</c:v>
+                  <c:v>32.146599999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>21.728999999999999</c:v>
+                  <c:v>32.531700000000001</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>21.9741</c:v>
+                  <c:v>32.993899999999996</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>22.6008</c:v>
+                  <c:v>33.550899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +7971,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8111,6 +8122,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average box test</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8189,6 +8225,594 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Relative Metrics</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> to "Middle split"</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BVH Metrics'!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Middle split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BVH Metrics'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Box tests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Triangle tests</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Average depth</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Branches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BVH Metrics'!$B$124:$E$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1695-4115-84ED-102F4B5F77C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BVH Metrics'!$H$2:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BVH Metrics'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Box tests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Triangle tests</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Average depth</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Branches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BVH Metrics'!$H$124:$K$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.99147952155635666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7791700181085249E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98530073435864818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75264907949325532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1695-4115-84ED-102F4B5F77C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BVH Metrics'!$N$2:$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1 Closest child</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BVH Metrics'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Box tests</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Triangle tests</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Average depth</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Branches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BVH Metrics'!$N$124:$Q$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3884192885841609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3004170880390035E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1605376768512257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83201372659009654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1695-4115-84ED-102F4B5F77C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="492455951"/>
+        <c:axId val="492456911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492455951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492456911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492456911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Relative to Middle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> split metric</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492455951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8314,6 +8938,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9901,6 +10565,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9989,13 +11156,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10016,6 +11183,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FFADAC-0809-6F6B-2BD7-4E21B10FCCB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13773,5689 +14976,5833 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EE598-2E14-47E1-B379-A1F674457C79}">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>23.7257</v>
-      </c>
-      <c r="C2">
-        <v>20.422899999999998</v>
-      </c>
-      <c r="D2">
-        <v>4.7180900000000001</v>
-      </c>
-      <c r="E2">
-        <v>80.911100000000005</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>20.902899999999999</v>
-      </c>
-      <c r="I2">
-        <v>1.59006</v>
-      </c>
-      <c r="J2">
-        <v>4.6094799999999996</v>
-      </c>
-      <c r="K2">
-        <v>54.937399999999997</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>22.969100000000001</v>
-      </c>
-      <c r="O2">
-        <v>0.85259300000000005</v>
-      </c>
-      <c r="P2">
-        <v>4.0273500000000002</v>
-      </c>
-      <c r="Q2">
-        <v>47.643500000000003</v>
-      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>24.397300000000001</v>
+        <v>23.7257</v>
       </c>
       <c r="C3">
-        <v>21.0669</v>
+        <v>20.422899999999998</v>
       </c>
       <c r="D3">
-        <v>4.8123800000000001</v>
+        <v>4.7180900000000001</v>
       </c>
       <c r="E3">
-        <v>83.295000000000002</v>
+        <v>80.911100000000005</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>21.764900000000001</v>
+        <v>20.902899999999999</v>
       </c>
       <c r="I3">
-        <v>1.69642</v>
+        <v>1.59006</v>
       </c>
       <c r="J3">
-        <v>4.7050599999999996</v>
+        <v>4.6094799999999996</v>
       </c>
       <c r="K3">
-        <v>57.305199999999999</v>
+        <v>54.937399999999997</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>23.437200000000001</v>
+        <v>34.089199999999998</v>
       </c>
       <c r="O3">
-        <v>0.88509300000000002</v>
+        <v>1.28007</v>
       </c>
       <c r="P3">
-        <v>4.1120999999999999</v>
+        <v>6.0616599999999998</v>
       </c>
       <c r="Q3">
-        <v>48.644500000000001</v>
+        <v>70.738500000000002</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>24.963200000000001</v>
+        <v>24.397300000000001</v>
       </c>
       <c r="C4">
-        <v>21.521000000000001</v>
+        <v>21.0669</v>
       </c>
       <c r="D4">
-        <v>4.9234</v>
+        <v>4.8123800000000001</v>
       </c>
       <c r="E4">
-        <v>85.231399999999994</v>
+        <v>83.295000000000002</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>22.6219</v>
+        <v>21.764900000000001</v>
       </c>
       <c r="I4">
-        <v>1.81762</v>
+        <v>1.69642</v>
       </c>
       <c r="J4">
-        <v>4.8164199999999999</v>
+        <v>4.7050599999999996</v>
       </c>
       <c r="K4">
-        <v>59.69</v>
+        <v>57.305199999999999</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>23.922599999999999</v>
+        <v>34.632199999999997</v>
       </c>
       <c r="O4">
-        <v>0.92629600000000001</v>
+        <v>1.3291900000000001</v>
       </c>
       <c r="P4">
-        <v>4.2059300000000004</v>
+        <v>6.1594100000000003</v>
       </c>
       <c r="Q4">
-        <v>49.697800000000001</v>
+        <v>71.922899999999998</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>25.8627</v>
+        <v>24.963200000000001</v>
       </c>
       <c r="C5">
-        <v>22.512699999999999</v>
+        <v>21.521000000000001</v>
       </c>
       <c r="D5">
-        <v>5.1283000000000003</v>
+        <v>4.9234</v>
       </c>
       <c r="E5">
-        <v>88.546300000000002</v>
+        <v>85.231399999999994</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>23.6828</v>
+        <v>22.6219</v>
       </c>
       <c r="I5">
-        <v>1.925</v>
+        <v>1.81762</v>
       </c>
       <c r="J5">
-        <v>5.0106200000000003</v>
+        <v>4.8164199999999999</v>
       </c>
       <c r="K5">
-        <v>62.557099999999998</v>
+        <v>59.69</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>24.655200000000001</v>
+        <v>34.691299999999998</v>
       </c>
       <c r="O5">
-        <v>0.96428999999999998</v>
+        <v>1.35887</v>
       </c>
       <c r="P5">
-        <v>4.3600300000000001</v>
+        <v>6.1849699999999999</v>
       </c>
       <c r="Q5">
-        <v>51.239100000000001</v>
+        <v>72.100399999999993</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>26.819299999999998</v>
+        <v>25.8627</v>
       </c>
       <c r="C6">
-        <v>23.398499999999999</v>
+        <v>22.512699999999999</v>
       </c>
       <c r="D6">
-        <v>5.3875900000000003</v>
+        <v>5.1283000000000003</v>
       </c>
       <c r="E6">
-        <v>91.897300000000001</v>
+        <v>88.546300000000002</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>24.737500000000001</v>
+        <v>23.6828</v>
       </c>
       <c r="I6">
-        <v>2.0337299999999998</v>
+        <v>1.925</v>
       </c>
       <c r="J6">
-        <v>5.2291699999999999</v>
+        <v>5.0106200000000003</v>
       </c>
       <c r="K6">
-        <v>65.411100000000005</v>
+        <v>62.557099999999998</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>25.1752</v>
+        <v>33.826599999999999</v>
       </c>
       <c r="O6">
-        <v>0.97833300000000001</v>
+        <v>1.33342</v>
       </c>
       <c r="P6">
-        <v>4.5403099999999998</v>
+        <v>6.0709</v>
       </c>
       <c r="Q6">
-        <v>52.307200000000002</v>
+        <v>70.319999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>27.834099999999999</v>
+        <v>26.819299999999998</v>
       </c>
       <c r="C7">
-        <v>24.314599999999999</v>
+        <v>23.398499999999999</v>
       </c>
       <c r="D7">
-        <v>5.6487299999999996</v>
+        <v>5.3875900000000003</v>
       </c>
       <c r="E7">
-        <v>95.425399999999996</v>
+        <v>91.897300000000001</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>25.9297</v>
+        <v>24.737500000000001</v>
       </c>
       <c r="I7">
-        <v>2.1619100000000002</v>
+        <v>2.0337299999999998</v>
       </c>
       <c r="J7">
-        <v>5.4476199999999997</v>
+        <v>5.2291699999999999</v>
       </c>
       <c r="K7">
-        <v>68.648099999999999</v>
+        <v>65.411100000000005</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>26.0517</v>
+        <v>33.094700000000003</v>
       </c>
       <c r="O7">
-        <v>1.0194399999999999</v>
+        <v>1.30355</v>
       </c>
       <c r="P7">
-        <v>4.7229599999999996</v>
+        <v>6.0025000000000004</v>
       </c>
       <c r="Q7">
-        <v>54.142299999999999</v>
+        <v>68.796499999999995</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>28.861599999999999</v>
+        <v>27.834099999999999</v>
       </c>
       <c r="C8">
-        <v>25.8597</v>
+        <v>24.314599999999999</v>
       </c>
       <c r="D8">
-        <v>5.9024999999999999</v>
+        <v>5.6487299999999996</v>
       </c>
       <c r="E8">
-        <v>99.632000000000005</v>
+        <v>95.425399999999996</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>27.1279</v>
+        <v>25.9297</v>
       </c>
       <c r="I8">
-        <v>2.2823099999999998</v>
+        <v>2.1619100000000002</v>
       </c>
       <c r="J8">
-        <v>5.6696900000000001</v>
+        <v>5.4476199999999997</v>
       </c>
       <c r="K8">
-        <v>71.884399999999999</v>
+        <v>68.648099999999999</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>26.860600000000002</v>
+        <v>32.565100000000001</v>
       </c>
       <c r="O8">
-        <v>1.05043</v>
+        <v>1.2801100000000001</v>
       </c>
       <c r="P8">
-        <v>4.8993500000000001</v>
+        <v>5.9508400000000004</v>
       </c>
       <c r="Q8">
-        <v>55.822000000000003</v>
+        <v>67.6905</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>30.037700000000001</v>
+        <v>28.861599999999999</v>
       </c>
       <c r="C9">
-        <v>27.178699999999999</v>
+        <v>25.8597</v>
       </c>
       <c r="D9">
-        <v>6.1451500000000001</v>
+        <v>5.9024999999999999</v>
       </c>
       <c r="E9">
-        <v>103.99299999999999</v>
+        <v>99.632000000000005</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>28.479199999999999</v>
+        <v>27.1279</v>
       </c>
       <c r="I9">
-        <v>2.41472</v>
+        <v>2.2823099999999998</v>
       </c>
       <c r="J9">
-        <v>5.8857999999999997</v>
+        <v>5.6696900000000001</v>
       </c>
       <c r="K9">
-        <v>75.5274</v>
+        <v>71.884399999999999</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>27.913799999999998</v>
+        <v>32.195799999999998</v>
       </c>
       <c r="O9">
-        <v>1.10083</v>
+        <v>1.2663500000000001</v>
       </c>
       <c r="P9">
-        <v>5.0839499999999997</v>
+        <v>5.9181400000000002</v>
       </c>
       <c r="Q9">
-        <v>58.029299999999999</v>
+        <v>66.924300000000002</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>31.38</v>
+        <v>30.037700000000001</v>
       </c>
       <c r="C10">
-        <v>29.035499999999999</v>
+        <v>27.178699999999999</v>
       </c>
       <c r="D10">
-        <v>6.3693200000000001</v>
+        <v>6.1451500000000001</v>
       </c>
       <c r="E10">
-        <v>109.327</v>
+        <v>103.99299999999999</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>30.017499999999998</v>
+        <v>28.479199999999999</v>
       </c>
       <c r="I10">
-        <v>2.5414500000000002</v>
+        <v>2.41472</v>
       </c>
       <c r="J10">
-        <v>6.1005900000000004</v>
+        <v>5.8857999999999997</v>
       </c>
       <c r="K10">
-        <v>79.6267</v>
+        <v>75.5274</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>29.286999999999999</v>
+        <v>32.2684</v>
       </c>
       <c r="O10">
-        <v>1.17136</v>
+        <v>1.27712</v>
       </c>
       <c r="P10">
-        <v>5.2702799999999996</v>
+        <v>5.8994799999999996</v>
       </c>
       <c r="Q10">
-        <v>60.916800000000002</v>
+        <v>67.090900000000005</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>32.820500000000003</v>
+        <v>31.38</v>
       </c>
       <c r="C11">
-        <v>30.8675</v>
+        <v>29.035499999999999</v>
       </c>
       <c r="D11">
-        <v>6.5735799999999998</v>
+        <v>6.3693200000000001</v>
       </c>
       <c r="E11">
-        <v>114.875</v>
+        <v>109.327</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>31.667300000000001</v>
+        <v>30.017499999999998</v>
       </c>
       <c r="I11">
-        <v>2.6615700000000002</v>
+        <v>2.5414500000000002</v>
       </c>
       <c r="J11">
-        <v>6.2920999999999996</v>
+        <v>6.1005900000000004</v>
       </c>
       <c r="K11">
-        <v>83.991500000000002</v>
+        <v>79.6267</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>30.159500000000001</v>
+        <v>32.739100000000001</v>
       </c>
       <c r="O11">
-        <v>1.1777200000000001</v>
+        <v>1.3093399999999999</v>
       </c>
       <c r="P11">
-        <v>5.4320399999999998</v>
+        <v>5.9211499999999999</v>
       </c>
       <c r="Q11">
-        <v>62.674399999999999</v>
+        <v>68.096800000000002</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>34.338299999999997</v>
+        <v>32.820500000000003</v>
       </c>
       <c r="C12">
-        <v>33.163600000000002</v>
+        <v>30.8675</v>
       </c>
       <c r="D12">
-        <v>6.7079899999999997</v>
+        <v>6.5735799999999998</v>
       </c>
       <c r="E12">
-        <v>121.107</v>
+        <v>114.875</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>33.247900000000001</v>
+        <v>31.667300000000001</v>
       </c>
       <c r="I12">
-        <v>2.8113299999999999</v>
+        <v>2.6615700000000002</v>
       </c>
       <c r="J12">
-        <v>6.40707</v>
+        <v>6.2920999999999996</v>
       </c>
       <c r="K12">
-        <v>88.242400000000004</v>
+        <v>83.991500000000002</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>30.7728</v>
+        <v>32.906999999999996</v>
       </c>
       <c r="O12">
-        <v>1.20469</v>
+        <v>1.2942199999999999</v>
       </c>
       <c r="P12">
-        <v>5.5530600000000003</v>
+        <v>5.9448800000000004</v>
       </c>
       <c r="Q12">
-        <v>63.954999999999998</v>
+        <v>68.4024</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>35.9131</v>
+        <v>34.338299999999997</v>
       </c>
       <c r="C13">
-        <v>35.321800000000003</v>
+        <v>33.163600000000002</v>
       </c>
       <c r="D13">
-        <v>6.7525300000000001</v>
+        <v>6.7079899999999997</v>
       </c>
       <c r="E13">
-        <v>127.374</v>
+        <v>121.107</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>35.019599999999997</v>
+        <v>33.247900000000001</v>
       </c>
       <c r="I13">
-        <v>2.9763899999999999</v>
+        <v>2.8113299999999999</v>
       </c>
       <c r="J13">
-        <v>6.4853699999999996</v>
+        <v>6.40707</v>
       </c>
       <c r="K13">
-        <v>93.0017</v>
+        <v>88.242400000000004</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N13">
-        <v>31.476400000000002</v>
+        <v>33.767000000000003</v>
       </c>
       <c r="O13">
-        <v>1.2260500000000001</v>
+        <v>1.3126199999999999</v>
       </c>
       <c r="P13">
-        <v>5.64377</v>
+        <v>6.1153500000000003</v>
       </c>
       <c r="Q13">
-        <v>65.405000000000001</v>
+        <v>70.159199999999998</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>37.7258</v>
+        <v>35.9131</v>
       </c>
       <c r="C14">
-        <v>38.1068</v>
+        <v>35.321800000000003</v>
       </c>
       <c r="D14">
-        <v>6.8079299999999998</v>
+        <v>6.7525300000000001</v>
       </c>
       <c r="E14">
-        <v>134.86799999999999</v>
+        <v>127.374</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>36.9602</v>
+        <v>35.019599999999997</v>
       </c>
       <c r="I14">
-        <v>3.1658900000000001</v>
+        <v>2.9763899999999999</v>
       </c>
       <c r="J14">
-        <v>6.5808600000000004</v>
+        <v>6.4853699999999996</v>
       </c>
       <c r="K14">
-        <v>98.232399999999998</v>
+        <v>93.0017</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14">
-        <v>32.451500000000003</v>
+        <v>35.177599999999998</v>
       </c>
       <c r="O14">
-        <v>1.26318</v>
+        <v>1.36768</v>
       </c>
       <c r="P14">
-        <v>5.7535800000000004</v>
+        <v>6.32578</v>
       </c>
       <c r="Q14">
-        <v>67.429299999999998</v>
+        <v>73.090599999999995</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>39.582799999999999</v>
+        <v>37.7258</v>
       </c>
       <c r="C15">
-        <v>40.823999999999998</v>
+        <v>38.1068</v>
       </c>
       <c r="D15">
-        <v>6.84</v>
+        <v>6.8079299999999998</v>
       </c>
       <c r="E15">
-        <v>142.40199999999999</v>
+        <v>134.86799999999999</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>39.019799999999996</v>
+        <v>36.9602</v>
       </c>
       <c r="I15">
-        <v>3.37222</v>
+        <v>3.1658900000000001</v>
       </c>
       <c r="J15">
-        <v>6.6633300000000002</v>
+        <v>6.5808600000000004</v>
       </c>
       <c r="K15">
-        <v>103.794</v>
+        <v>98.232399999999998</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15">
-        <v>33.470999999999997</v>
+        <v>37.193199999999997</v>
       </c>
       <c r="O15">
-        <v>1.3083</v>
+        <v>1.45031</v>
       </c>
       <c r="P15">
-        <v>5.8623500000000002</v>
+        <v>6.6206300000000002</v>
       </c>
       <c r="Q15">
-        <v>69.558499999999995</v>
+        <v>77.287000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>41.409599999999998</v>
+        <v>39.582799999999999</v>
       </c>
       <c r="C16">
-        <v>43.405999999999999</v>
+        <v>40.823999999999998</v>
       </c>
       <c r="D16">
-        <v>6.9201199999999998</v>
+        <v>6.84</v>
       </c>
       <c r="E16">
-        <v>149.71100000000001</v>
+        <v>142.40199999999999</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16">
-        <v>41.006399999999999</v>
+        <v>39.019799999999996</v>
       </c>
       <c r="I16">
-        <v>3.5383599999999999</v>
+        <v>3.37222</v>
       </c>
       <c r="J16">
-        <v>6.7779299999999996</v>
+        <v>6.6633300000000002</v>
       </c>
       <c r="K16">
-        <v>109.093</v>
+        <v>103.794</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N16">
-        <v>34.515000000000001</v>
+        <v>39.644300000000001</v>
       </c>
       <c r="O16">
-        <v>1.3468199999999999</v>
+        <v>1.55142</v>
       </c>
       <c r="P16">
-        <v>5.9851200000000002</v>
+        <v>6.9866599999999996</v>
       </c>
       <c r="Q16">
-        <v>71.723699999999994</v>
+        <v>82.391499999999994</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>43.389499999999998</v>
+        <v>41.409599999999998</v>
       </c>
       <c r="C17">
-        <v>45.589599999999997</v>
+        <v>43.405999999999999</v>
       </c>
       <c r="D17">
-        <v>7.0823499999999999</v>
+        <v>6.9201199999999998</v>
       </c>
       <c r="E17">
-        <v>157.00399999999999</v>
+        <v>149.71100000000001</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>42.965400000000002</v>
+        <v>41.006399999999999</v>
       </c>
       <c r="I17">
-        <v>3.6889799999999999</v>
+        <v>3.5383599999999999</v>
       </c>
       <c r="J17">
-        <v>6.9286700000000003</v>
+        <v>6.7779299999999996</v>
       </c>
       <c r="K17">
-        <v>114.292</v>
+        <v>109.093</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17">
-        <v>35.631599999999999</v>
+        <v>41.384599999999999</v>
       </c>
       <c r="O17">
-        <v>1.3731199999999999</v>
+        <v>1.61734</v>
       </c>
       <c r="P17">
-        <v>6.1050599999999999</v>
+        <v>7.2166399999999999</v>
       </c>
       <c r="Q17">
-        <v>74.009399999999999</v>
+        <v>86.003900000000002</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>45.235100000000003</v>
+        <v>43.389499999999998</v>
       </c>
       <c r="C18">
-        <v>47.359699999999997</v>
+        <v>45.589599999999997</v>
       </c>
       <c r="D18">
-        <v>7.2264799999999996</v>
+        <v>7.0823499999999999</v>
       </c>
       <c r="E18">
-        <v>163.542</v>
+        <v>157.00399999999999</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18">
-        <v>44.792999999999999</v>
+        <v>42.965400000000002</v>
       </c>
       <c r="I18">
-        <v>3.8285800000000001</v>
+        <v>3.6889799999999999</v>
       </c>
       <c r="J18">
-        <v>7.0647200000000003</v>
+        <v>6.9286700000000003</v>
       </c>
       <c r="K18">
-        <v>119.14</v>
+        <v>114.292</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18">
-        <v>36.612299999999998</v>
+        <v>41.522300000000001</v>
       </c>
       <c r="O18">
-        <v>1.39781</v>
+        <v>1.6059699999999999</v>
       </c>
       <c r="P18">
-        <v>6.2184600000000003</v>
+        <v>7.1462599999999998</v>
       </c>
       <c r="Q18">
-        <v>76.020099999999999</v>
+        <v>86.256600000000006</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>46.975900000000003</v>
+        <v>45.235100000000003</v>
       </c>
       <c r="C19">
-        <v>48.909599999999998</v>
+        <v>47.359699999999997</v>
       </c>
       <c r="D19">
-        <v>7.3653399999999998</v>
+        <v>7.2264799999999996</v>
       </c>
       <c r="E19">
-        <v>169.58699999999999</v>
+        <v>163.542</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>46.464799999999997</v>
+        <v>44.792999999999999</v>
       </c>
       <c r="I19">
-        <v>3.9502799999999998</v>
+        <v>3.8285800000000001</v>
       </c>
       <c r="J19">
-        <v>7.1855599999999997</v>
+        <v>7.0647200000000003</v>
       </c>
       <c r="K19">
-        <v>123.562</v>
+        <v>119.14</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>37.364400000000003</v>
+        <v>41.2639</v>
       </c>
       <c r="O19">
-        <v>1.3955599999999999</v>
+        <v>1.56629</v>
       </c>
       <c r="P19">
-        <v>6.3065100000000003</v>
+        <v>7.0525399999999996</v>
       </c>
       <c r="Q19">
-        <v>77.52</v>
+        <v>85.660399999999996</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>48.653599999999997</v>
+        <v>46.975900000000003</v>
       </c>
       <c r="C20">
-        <v>50.043199999999999</v>
+        <v>48.909599999999998</v>
       </c>
       <c r="D20">
-        <v>7.4890100000000004</v>
+        <v>7.3653399999999998</v>
       </c>
       <c r="E20">
-        <v>175.05799999999999</v>
+        <v>169.58699999999999</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>48.137900000000002</v>
+        <v>46.464799999999997</v>
       </c>
       <c r="I20">
-        <v>4.0615399999999999</v>
+        <v>3.9502799999999998</v>
       </c>
       <c r="J20">
-        <v>7.3015699999999999</v>
+        <v>7.1855599999999997</v>
       </c>
       <c r="K20">
-        <v>127.968</v>
+        <v>123.562</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>38.149900000000002</v>
+        <v>40.950200000000002</v>
       </c>
       <c r="O20">
-        <v>1.3969400000000001</v>
+        <v>1.5299499999999999</v>
       </c>
       <c r="P20">
-        <v>6.3879000000000001</v>
+        <v>6.9319600000000001</v>
       </c>
       <c r="Q20">
-        <v>79.093800000000002</v>
+        <v>84.960300000000004</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>50.085599999999999</v>
+        <v>48.653599999999997</v>
       </c>
       <c r="C21">
-        <v>50.881399999999999</v>
+        <v>50.043199999999999</v>
       </c>
       <c r="D21">
-        <v>7.6213600000000001</v>
+        <v>7.4890100000000004</v>
       </c>
       <c r="E21">
-        <v>179.57499999999999</v>
+        <v>175.05799999999999</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>49.6389</v>
+        <v>48.137900000000002</v>
       </c>
       <c r="I21">
-        <v>4.1483299999999996</v>
+        <v>4.0615399999999999</v>
       </c>
       <c r="J21">
-        <v>7.4063600000000003</v>
+        <v>7.3015699999999999</v>
       </c>
       <c r="K21">
-        <v>131.89400000000001</v>
+        <v>127.968</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21">
-        <v>38.736199999999997</v>
+        <v>40.425600000000003</v>
       </c>
       <c r="O21">
-        <v>1.3906499999999999</v>
+        <v>1.47994</v>
       </c>
       <c r="P21">
-        <v>6.45892</v>
+        <v>6.79399</v>
       </c>
       <c r="Q21">
-        <v>80.253699999999995</v>
+        <v>83.811000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>51.351199999999999</v>
+        <v>50.085599999999999</v>
       </c>
       <c r="C22">
-        <v>51.232999999999997</v>
+        <v>50.881399999999999</v>
       </c>
       <c r="D22">
-        <v>7.7588900000000001</v>
+        <v>7.6213600000000001</v>
       </c>
       <c r="E22">
-        <v>183.18600000000001</v>
+        <v>179.57499999999999</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>50.965400000000002</v>
+        <v>49.6389</v>
       </c>
       <c r="I22">
-        <v>4.2462</v>
+        <v>4.1483299999999996</v>
       </c>
       <c r="J22">
-        <v>7.5157699999999998</v>
+        <v>7.4063600000000003</v>
       </c>
       <c r="K22">
-        <v>135.40600000000001</v>
+        <v>131.89400000000001</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>39.310899999999997</v>
+        <v>39.769799999999996</v>
       </c>
       <c r="O22">
-        <v>1.38123</v>
+        <v>1.4215100000000001</v>
       </c>
       <c r="P22">
-        <v>6.5320099999999996</v>
+        <v>6.65177</v>
       </c>
       <c r="Q22">
-        <v>81.384200000000007</v>
+        <v>82.3827</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>52.329900000000002</v>
+        <v>51.351199999999999</v>
       </c>
       <c r="C23">
-        <v>51.416699999999999</v>
+        <v>51.232999999999997</v>
       </c>
       <c r="D23">
-        <v>7.8430600000000004</v>
+        <v>7.7588900000000001</v>
       </c>
       <c r="E23">
-        <v>185.87799999999999</v>
+        <v>183.18600000000001</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>51.844000000000001</v>
+        <v>50.965400000000002</v>
       </c>
       <c r="I23">
-        <v>4.27074</v>
+        <v>4.2462</v>
       </c>
       <c r="J23">
-        <v>7.5686999999999998</v>
+        <v>7.5157699999999998</v>
       </c>
       <c r="K23">
-        <v>137.65100000000001</v>
+        <v>135.40600000000001</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23">
-        <v>39.436999999999998</v>
+        <v>39.137599999999999</v>
       </c>
       <c r="O23">
-        <v>1.3463000000000001</v>
+        <v>1.36388</v>
       </c>
       <c r="P23">
-        <v>6.5823499999999999</v>
+        <v>6.5128199999999996</v>
       </c>
       <c r="Q23">
-        <v>81.566500000000005</v>
+        <v>81.002899999999997</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>52.874299999999998</v>
+        <v>52.329900000000002</v>
       </c>
       <c r="C24">
-        <v>51.127000000000002</v>
+        <v>51.416699999999999</v>
       </c>
       <c r="D24">
-        <v>7.9093799999999996</v>
+        <v>7.8430600000000004</v>
       </c>
       <c r="E24">
-        <v>186.995</v>
+        <v>185.87799999999999</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>52.341900000000003</v>
+        <v>51.844000000000001</v>
       </c>
       <c r="I24">
-        <v>4.27494</v>
+        <v>4.27074</v>
       </c>
       <c r="J24">
-        <v>7.6392600000000002</v>
+        <v>7.5686999999999998</v>
       </c>
       <c r="K24">
-        <v>138.905</v>
+        <v>137.65100000000001</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N24">
-        <v>39.476700000000001</v>
+        <v>39.326999999999998</v>
       </c>
       <c r="O24">
-        <v>1.3108</v>
+        <v>1.3373699999999999</v>
       </c>
       <c r="P24">
-        <v>6.6493500000000001</v>
+        <v>6.5648799999999996</v>
       </c>
       <c r="Q24">
-        <v>81.575000000000003</v>
+        <v>81.328800000000001</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>53.107799999999997</v>
+        <v>52.874299999999998</v>
       </c>
       <c r="C25">
-        <v>50.419400000000003</v>
+        <v>51.127000000000002</v>
       </c>
       <c r="D25">
-        <v>7.9980900000000004</v>
+        <v>7.9093799999999996</v>
       </c>
       <c r="E25">
-        <v>186.874</v>
+        <v>186.995</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25">
-        <v>52.642299999999999</v>
+        <v>52.341900000000003</v>
       </c>
       <c r="I25">
-        <v>4.2801900000000002</v>
+        <v>4.27494</v>
       </c>
       <c r="J25">
-        <v>7.7205199999999996</v>
+        <v>7.6392600000000002</v>
       </c>
       <c r="K25">
-        <v>139.666</v>
+        <v>138.905</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>39.1068</v>
+        <v>39.272199999999998</v>
       </c>
       <c r="O25">
-        <v>1.2486999999999999</v>
+        <v>1.2930299999999999</v>
       </c>
       <c r="P25">
-        <v>6.7239500000000003</v>
+        <v>6.62277</v>
       </c>
       <c r="Q25">
-        <v>80.710899999999995</v>
+        <v>81.130399999999995</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>52.694600000000001</v>
+        <v>53.107799999999997</v>
       </c>
       <c r="C26">
-        <v>49.223700000000001</v>
+        <v>50.419400000000003</v>
       </c>
       <c r="D26">
-        <v>8.0400899999999993</v>
+        <v>7.9980900000000004</v>
       </c>
       <c r="E26">
-        <v>184.607</v>
+        <v>186.874</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>52.658200000000001</v>
+        <v>52.642299999999999</v>
       </c>
       <c r="I26">
-        <v>4.2601899999999997</v>
+        <v>4.2801900000000002</v>
       </c>
       <c r="J26">
-        <v>7.7883899999999997</v>
+        <v>7.7205199999999996</v>
       </c>
       <c r="K26">
         <v>139.666</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N26">
-        <v>39.464599999999997</v>
+        <v>38.9283</v>
       </c>
       <c r="O26">
-        <v>1.2581199999999999</v>
+        <v>1.2335799999999999</v>
       </c>
       <c r="P26">
-        <v>6.80213</v>
+        <v>6.7019000000000002</v>
       </c>
       <c r="Q26">
-        <v>81.445400000000006</v>
+        <v>80.323800000000006</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>51.841099999999997</v>
+        <v>52.694600000000001</v>
       </c>
       <c r="C27">
-        <v>47.894300000000001</v>
+        <v>49.223700000000001</v>
       </c>
       <c r="D27">
-        <v>8.0983000000000001</v>
+        <v>8.0400899999999993</v>
       </c>
       <c r="E27">
-        <v>181.07300000000001</v>
+        <v>184.607</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27">
-        <v>52.223399999999998</v>
+        <v>52.658200000000001</v>
       </c>
       <c r="I27">
-        <v>4.1973099999999999</v>
+        <v>4.2601899999999997</v>
       </c>
       <c r="J27">
-        <v>7.8621299999999996</v>
+        <v>7.7883899999999997</v>
       </c>
       <c r="K27">
-        <v>138.453</v>
+        <v>139.666</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27">
-        <v>39.826700000000002</v>
+        <v>39.247700000000002</v>
       </c>
       <c r="O27">
-        <v>1.2875000000000001</v>
+        <v>1.2407600000000001</v>
       </c>
       <c r="P27">
-        <v>6.8888600000000002</v>
+        <v>6.7750700000000004</v>
       </c>
       <c r="Q27">
-        <v>82.228499999999997</v>
+        <v>80.977000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>50.7746</v>
+        <v>51.841099999999997</v>
       </c>
       <c r="C28">
-        <v>46.532499999999999</v>
+        <v>47.894300000000001</v>
       </c>
       <c r="D28">
-        <v>8.1514500000000005</v>
+        <v>8.0983000000000001</v>
       </c>
       <c r="E28">
-        <v>176.95500000000001</v>
+        <v>181.07300000000001</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28">
-        <v>51.505200000000002</v>
+        <v>52.223399999999998</v>
       </c>
       <c r="I28">
-        <v>4.10222</v>
+        <v>4.1973099999999999</v>
       </c>
       <c r="J28">
-        <v>7.9501200000000001</v>
+        <v>7.8621299999999996</v>
       </c>
       <c r="K28">
-        <v>136.46700000000001</v>
+        <v>138.453</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28">
-        <v>40.097099999999998</v>
+        <v>39.619100000000003</v>
       </c>
       <c r="O28">
-        <v>1.29111</v>
+        <v>1.2770900000000001</v>
       </c>
       <c r="P28">
-        <v>6.9811100000000001</v>
+        <v>6.8598699999999999</v>
       </c>
       <c r="Q28">
-        <v>82.776399999999995</v>
+        <v>81.792400000000001</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>49.548200000000001</v>
+        <v>50.7746</v>
       </c>
       <c r="C29">
-        <v>44.828499999999998</v>
+        <v>46.532499999999999</v>
       </c>
       <c r="D29">
-        <v>8.2158599999999993</v>
+        <v>8.1514500000000005</v>
       </c>
       <c r="E29">
-        <v>172.065</v>
+        <v>176.95500000000001</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29">
-        <v>50.644500000000001</v>
+        <v>51.505200000000002</v>
       </c>
       <c r="I29">
-        <v>3.9659</v>
+        <v>4.10222</v>
       </c>
       <c r="J29">
-        <v>8.0693800000000007</v>
+        <v>7.9501200000000001</v>
       </c>
       <c r="K29">
-        <v>134.04300000000001</v>
+        <v>136.46700000000001</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29">
-        <v>40.311900000000001</v>
+        <v>39.868899999999996</v>
       </c>
       <c r="O29">
-        <v>1.26546</v>
+        <v>1.2778799999999999</v>
       </c>
       <c r="P29">
-        <v>7.1137699999999997</v>
+        <v>6.95932</v>
       </c>
       <c r="Q29">
-        <v>83.154799999999994</v>
+        <v>82.293499999999995</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>48.4482</v>
+        <v>49.548200000000001</v>
       </c>
       <c r="C30">
-        <v>43.1295</v>
+        <v>44.828499999999998</v>
       </c>
       <c r="D30">
-        <v>8.2961399999999994</v>
+        <v>8.2158599999999993</v>
       </c>
       <c r="E30">
-        <v>167.511</v>
+        <v>172.065</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H30">
-        <v>49.817</v>
+        <v>50.644500000000001</v>
       </c>
       <c r="I30">
-        <v>3.8648099999999999</v>
+        <v>3.9659</v>
       </c>
       <c r="J30">
-        <v>8.1968499999999995</v>
+        <v>8.0693800000000007</v>
       </c>
       <c r="K30">
-        <v>131.77199999999999</v>
+        <v>134.04300000000001</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>40.773099999999999</v>
+        <v>40.154899999999998</v>
       </c>
       <c r="O30">
-        <v>1.2747200000000001</v>
+        <v>1.2553700000000001</v>
       </c>
       <c r="P30">
-        <v>7.2487700000000004</v>
+        <v>7.0867800000000001</v>
       </c>
       <c r="Q30">
-        <v>84.095699999999994</v>
+        <v>82.820499999999996</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>47.467199999999998</v>
+        <v>48.4482</v>
       </c>
       <c r="C31">
-        <v>42.462299999999999</v>
+        <v>43.1295</v>
       </c>
       <c r="D31">
-        <v>8.3775899999999996</v>
+        <v>8.2961399999999994</v>
       </c>
       <c r="E31">
-        <v>164.321</v>
+        <v>167.511</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>49.3568</v>
+        <v>49.817</v>
       </c>
       <c r="I31">
-        <v>3.7988599999999999</v>
+        <v>3.8648099999999999</v>
       </c>
       <c r="J31">
-        <v>8.3280200000000004</v>
+        <v>8.1968499999999995</v>
       </c>
       <c r="K31">
-        <v>130.49</v>
+        <v>131.77199999999999</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31">
-        <v>41.075600000000001</v>
+        <v>40.556399999999996</v>
       </c>
       <c r="O31">
-        <v>1.2743800000000001</v>
+        <v>1.25545</v>
       </c>
       <c r="P31">
-        <v>7.3857999999999997</v>
+        <v>7.2225099999999998</v>
       </c>
       <c r="Q31">
-        <v>84.7</v>
+        <v>83.623800000000003</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>46.548999999999999</v>
+        <v>47.467199999999998</v>
       </c>
       <c r="C32">
-        <v>41.530200000000001</v>
+        <v>42.462299999999999</v>
       </c>
       <c r="D32">
-        <v>8.4546600000000005</v>
+        <v>8.3775899999999996</v>
       </c>
       <c r="E32">
-        <v>160.982</v>
+        <v>164.321</v>
       </c>
       <c r="G32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>48.981299999999997</v>
+        <v>49.3568</v>
       </c>
       <c r="I32">
-        <v>3.7390099999999999</v>
+        <v>3.7988599999999999</v>
       </c>
       <c r="J32">
-        <v>8.4338300000000004</v>
+        <v>8.3280200000000004</v>
       </c>
       <c r="K32">
-        <v>129.43100000000001</v>
+        <v>130.49</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>41.438699999999997</v>
+        <v>40.9651</v>
       </c>
       <c r="O32">
-        <v>1.3071900000000001</v>
+        <v>1.2683899999999999</v>
       </c>
       <c r="P32">
-        <v>7.4999099999999999</v>
+        <v>7.3624599999999996</v>
       </c>
       <c r="Q32">
-        <v>85.491699999999994</v>
+        <v>84.466899999999995</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>45.8401</v>
+        <v>46.548999999999999</v>
       </c>
       <c r="C33">
-        <v>40.533099999999997</v>
+        <v>41.530200000000001</v>
       </c>
       <c r="D33">
-        <v>8.4881799999999998</v>
+        <v>8.4546600000000005</v>
       </c>
       <c r="E33">
-        <v>158.09200000000001</v>
+        <v>160.982</v>
       </c>
       <c r="G33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>48.484400000000001</v>
+        <v>48.981299999999997</v>
       </c>
       <c r="I33">
-        <v>3.7048800000000002</v>
+        <v>3.7390099999999999</v>
       </c>
       <c r="J33">
-        <v>8.4979899999999997</v>
+        <v>8.4338300000000004</v>
       </c>
       <c r="K33">
-        <v>128.12100000000001</v>
+        <v>129.43100000000001</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>41.553699999999999</v>
+        <v>41.208599999999997</v>
       </c>
       <c r="O33">
-        <v>1.3348800000000001</v>
+        <v>1.29148</v>
       </c>
       <c r="P33">
-        <v>7.5693799999999998</v>
+        <v>7.4739699999999996</v>
       </c>
       <c r="Q33">
-        <v>85.777100000000004</v>
+        <v>85.000200000000007</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>44.987900000000003</v>
+        <v>45.8401</v>
       </c>
       <c r="C34">
-        <v>39.841299999999997</v>
+        <v>40.533099999999997</v>
       </c>
       <c r="D34">
-        <v>8.4504000000000001</v>
+        <v>8.4881799999999998</v>
       </c>
       <c r="E34">
-        <v>155.16800000000001</v>
+        <v>158.09200000000001</v>
       </c>
       <c r="G34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>48.330500000000001</v>
+        <v>48.484400000000001</v>
       </c>
       <c r="I34">
-        <v>3.7114500000000001</v>
+        <v>3.7048800000000002</v>
       </c>
       <c r="J34">
-        <v>8.54636</v>
+        <v>8.4979899999999997</v>
       </c>
       <c r="K34">
-        <v>127.749</v>
+        <v>128.12100000000001</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N34">
-        <v>41.912199999999999</v>
+        <v>41.383800000000001</v>
       </c>
       <c r="O34">
-        <v>1.3875</v>
+        <v>1.3282400000000001</v>
       </c>
       <c r="P34">
-        <v>7.62256</v>
+        <v>7.5377400000000003</v>
       </c>
       <c r="Q34">
-        <v>86.599299999999999</v>
+        <v>85.424000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>43.860300000000002</v>
+        <v>44.987900000000003</v>
       </c>
       <c r="C35">
-        <v>39.800800000000002</v>
+        <v>39.841299999999997</v>
       </c>
       <c r="D35">
-        <v>8.4170999999999996</v>
+        <v>8.4504000000000001</v>
       </c>
       <c r="E35">
-        <v>152.18799999999999</v>
+        <v>155.16800000000001</v>
       </c>
       <c r="G35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>48.046399999999998</v>
+        <v>48.330500000000001</v>
       </c>
       <c r="I35">
-        <v>3.7306499999999998</v>
+        <v>3.7114500000000001</v>
       </c>
       <c r="J35">
-        <v>8.5947499999999994</v>
+        <v>8.54636</v>
       </c>
       <c r="K35">
-        <v>127.077</v>
+        <v>127.749</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N35">
-        <v>42.334600000000002</v>
+        <v>41.632899999999999</v>
       </c>
       <c r="O35">
-        <v>1.4559899999999999</v>
+        <v>1.3760600000000001</v>
       </c>
       <c r="P35">
-        <v>7.6803699999999999</v>
+        <v>7.5899599999999996</v>
       </c>
       <c r="Q35">
-        <v>87.581100000000006</v>
+        <v>86.018000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>42.801200000000001</v>
+        <v>43.860300000000002</v>
       </c>
       <c r="C36">
-        <v>40.250399999999999</v>
+        <v>39.800800000000002</v>
       </c>
       <c r="D36">
-        <v>8.4197500000000005</v>
+        <v>8.4170999999999996</v>
       </c>
       <c r="E36">
-        <v>149.87899999999999</v>
+        <v>152.18799999999999</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>47.916800000000002</v>
+        <v>48.046399999999998</v>
       </c>
       <c r="I36">
-        <v>3.7229899999999998</v>
+        <v>3.7306499999999998</v>
       </c>
       <c r="J36">
-        <v>8.6600900000000003</v>
+        <v>8.5947499999999994</v>
       </c>
       <c r="K36">
-        <v>126.738</v>
+        <v>127.077</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N36">
-        <v>43.071899999999999</v>
+        <v>42.0914</v>
       </c>
       <c r="O36">
-        <v>1.5236400000000001</v>
+        <v>1.4375</v>
       </c>
       <c r="P36">
-        <v>7.7541700000000002</v>
+        <v>7.6490999999999998</v>
       </c>
       <c r="Q36">
-        <v>89.191000000000003</v>
+        <v>87.0578</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>41.6736</v>
+        <v>42.801200000000001</v>
       </c>
       <c r="C37">
-        <v>41.058500000000002</v>
+        <v>40.250399999999999</v>
       </c>
       <c r="D37">
-        <v>8.4036399999999993</v>
+        <v>8.4197500000000005</v>
       </c>
       <c r="E37">
-        <v>147.77500000000001</v>
+        <v>149.87899999999999</v>
       </c>
       <c r="G37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>47.481999999999999</v>
+        <v>47.916800000000002</v>
       </c>
       <c r="I37">
-        <v>3.6680899999999999</v>
+        <v>3.7229899999999998</v>
       </c>
       <c r="J37">
-        <v>8.6953099999999992</v>
+        <v>8.6600900000000003</v>
       </c>
       <c r="K37">
-        <v>125.541</v>
+        <v>126.738</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N37">
-        <v>43.788800000000002</v>
+        <v>42.817700000000002</v>
       </c>
       <c r="O37">
-        <v>1.58395</v>
+        <v>1.5052000000000001</v>
       </c>
       <c r="P37">
-        <v>7.7988900000000001</v>
+        <v>7.7214799999999997</v>
       </c>
       <c r="Q37">
-        <v>90.745400000000004</v>
+        <v>88.645700000000005</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>40.423099999999998</v>
+        <v>41.6736</v>
       </c>
       <c r="C38">
-        <v>41.015000000000001</v>
+        <v>41.058500000000002</v>
       </c>
       <c r="D38">
-        <v>8.3621300000000005</v>
+        <v>8.4036399999999993</v>
       </c>
       <c r="E38">
-        <v>144.501</v>
+        <v>147.77500000000001</v>
       </c>
       <c r="G38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>46.610500000000002</v>
+        <v>47.481999999999999</v>
       </c>
       <c r="I38">
-        <v>3.5738599999999998</v>
+        <v>3.6680899999999999</v>
       </c>
       <c r="J38">
-        <v>8.6983599999999992</v>
+        <v>8.6953099999999992</v>
       </c>
       <c r="K38">
-        <v>123.17400000000001</v>
+        <v>125.541</v>
       </c>
       <c r="M38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N38">
-        <v>43.995600000000003</v>
+        <v>43.515700000000002</v>
       </c>
       <c r="O38">
-        <v>1.6171</v>
+        <v>1.56657</v>
       </c>
       <c r="P38">
-        <v>7.8163299999999998</v>
+        <v>7.7679600000000004</v>
       </c>
       <c r="Q38">
-        <v>91.225300000000004</v>
+        <v>90.164500000000004</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>38.872500000000002</v>
+        <v>40.423099999999998</v>
       </c>
       <c r="C39">
-        <v>40.528799999999997</v>
+        <v>41.015000000000001</v>
       </c>
       <c r="D39">
-        <v>8.2820699999999992</v>
+        <v>8.3621300000000005</v>
       </c>
       <c r="E39">
-        <v>140.00700000000001</v>
+        <v>144.501</v>
       </c>
       <c r="G39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>45.555300000000003</v>
+        <v>46.610500000000002</v>
       </c>
       <c r="I39">
-        <v>3.4660799999999998</v>
+        <v>3.5738599999999998</v>
       </c>
       <c r="J39">
-        <v>8.6288300000000007</v>
+        <v>8.6983599999999992</v>
       </c>
       <c r="K39">
-        <v>120.32</v>
+        <v>123.17400000000001</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N39">
-        <v>43.856699999999996</v>
+        <v>43.778799999999997</v>
       </c>
       <c r="O39">
-        <v>1.62531</v>
+        <v>1.6027400000000001</v>
       </c>
       <c r="P39">
-        <v>7.7608300000000003</v>
+        <v>7.7740200000000002</v>
       </c>
       <c r="Q39">
-        <v>90.964100000000002</v>
+        <v>90.763000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>37.31</v>
+        <v>38.872500000000002</v>
       </c>
       <c r="C40">
-        <v>40.052199999999999</v>
+        <v>40.528799999999997</v>
       </c>
       <c r="D40">
-        <v>8.1555199999999992</v>
+        <v>8.2820699999999992</v>
       </c>
       <c r="E40">
-        <v>135.47300000000001</v>
+        <v>140.00700000000001</v>
       </c>
       <c r="G40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>44.202199999999998</v>
+        <v>45.555300000000003</v>
       </c>
       <c r="I40">
-        <v>3.3283999999999998</v>
+        <v>3.4660799999999998</v>
       </c>
       <c r="J40">
-        <v>8.4911700000000003</v>
+        <v>8.6288300000000007</v>
       </c>
       <c r="K40">
-        <v>116.66200000000001</v>
+        <v>120.32</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N40">
-        <v>43.330599999999997</v>
+        <v>43.630699999999997</v>
       </c>
       <c r="O40">
-        <v>1.6063000000000001</v>
+        <v>1.6126</v>
       </c>
       <c r="P40">
-        <v>7.6281499999999998</v>
+        <v>7.7343400000000004</v>
       </c>
       <c r="Q40">
-        <v>89.873800000000003</v>
+        <v>90.486699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>35.668399999999998</v>
+        <v>37.31</v>
       </c>
       <c r="C41">
-        <v>39.053899999999999</v>
+        <v>40.052199999999999</v>
       </c>
       <c r="D41">
-        <v>7.99139</v>
+        <v>8.1555199999999992</v>
       </c>
       <c r="E41">
-        <v>130.233</v>
+        <v>135.47300000000001</v>
       </c>
       <c r="G41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>42.659199999999998</v>
+        <v>44.202199999999998</v>
       </c>
       <c r="I41">
-        <v>3.1779000000000002</v>
+        <v>3.3283999999999998</v>
       </c>
       <c r="J41">
-        <v>8.2776899999999998</v>
+        <v>8.4911700000000003</v>
       </c>
       <c r="K41">
-        <v>112.504</v>
+        <v>116.66200000000001</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N41">
-        <v>42.466900000000003</v>
+        <v>43.126399999999997</v>
       </c>
       <c r="O41">
-        <v>1.5698099999999999</v>
+        <v>1.59388</v>
       </c>
       <c r="P41">
-        <v>7.4196</v>
+        <v>7.5983200000000002</v>
       </c>
       <c r="Q41">
-        <v>88.073499999999996</v>
+        <v>89.4405</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>34.082999999999998</v>
+        <v>35.668399999999998</v>
       </c>
       <c r="C42">
-        <v>37.7836</v>
+        <v>39.053899999999999</v>
       </c>
       <c r="D42">
-        <v>7.7840100000000003</v>
+        <v>7.99139</v>
       </c>
       <c r="E42">
-        <v>124.852</v>
+        <v>130.233</v>
       </c>
       <c r="G42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>40.956400000000002</v>
+        <v>42.659199999999998</v>
       </c>
       <c r="I42">
-        <v>3.0415700000000001</v>
+        <v>3.1779000000000002</v>
       </c>
       <c r="J42">
-        <v>8.0203699999999998</v>
+        <v>8.2776899999999998</v>
       </c>
       <c r="K42">
-        <v>107.974</v>
+        <v>112.504</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N42">
-        <v>41.417099999999998</v>
+        <v>42.363300000000002</v>
       </c>
       <c r="O42">
-        <v>1.5295700000000001</v>
+        <v>1.5611900000000001</v>
       </c>
       <c r="P42">
-        <v>7.1597799999999996</v>
+        <v>7.4027000000000003</v>
       </c>
       <c r="Q42">
-        <v>85.8934</v>
+        <v>87.8489</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>32.441200000000002</v>
+        <v>34.082999999999998</v>
       </c>
       <c r="C43">
-        <v>36.695</v>
+        <v>37.7836</v>
       </c>
       <c r="D43">
-        <v>7.5284599999999999</v>
+        <v>7.7840100000000003</v>
       </c>
       <c r="E43">
-        <v>119.51</v>
+        <v>124.852</v>
       </c>
       <c r="G43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>38.958799999999997</v>
+        <v>40.956400000000002</v>
       </c>
       <c r="I43">
-        <v>2.87188</v>
+        <v>3.0415700000000001</v>
       </c>
       <c r="J43">
-        <v>7.7124100000000002</v>
+        <v>8.0203699999999998</v>
       </c>
       <c r="K43">
-        <v>102.64100000000001</v>
+        <v>107.974</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N43">
-        <v>40.1877</v>
+        <v>41.258099999999999</v>
       </c>
       <c r="O43">
-        <v>1.4863599999999999</v>
+        <v>1.51949</v>
       </c>
       <c r="P43">
-        <v>6.8706500000000004</v>
+        <v>7.1324699999999996</v>
       </c>
       <c r="Q43">
-        <v>83.348100000000002</v>
+        <v>85.555199999999999</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>30.725899999999999</v>
+        <v>32.441200000000002</v>
       </c>
       <c r="C44">
-        <v>34.867699999999999</v>
+        <v>36.695</v>
       </c>
       <c r="D44">
-        <v>7.2646600000000001</v>
+        <v>7.5284599999999999</v>
       </c>
       <c r="E44">
-        <v>113.23699999999999</v>
+        <v>119.51</v>
       </c>
       <c r="G44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44">
-        <v>36.747300000000003</v>
+        <v>38.958799999999997</v>
       </c>
       <c r="I44">
-        <v>2.6590400000000001</v>
+        <v>2.87188</v>
       </c>
       <c r="J44">
-        <v>7.3941999999999997</v>
+        <v>7.7124100000000002</v>
       </c>
       <c r="K44">
-        <v>96.686400000000006</v>
+        <v>102.64100000000001</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N44">
-        <v>38.713500000000003</v>
+        <v>41.005699999999997</v>
       </c>
       <c r="O44">
-        <v>1.4152199999999999</v>
+        <v>1.50867</v>
       </c>
       <c r="P44">
-        <v>6.5815400000000004</v>
+        <v>7.0221</v>
       </c>
       <c r="Q44">
-        <v>80.257300000000001</v>
+        <v>85.028800000000004</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>29.082699999999999</v>
+        <v>30.725899999999999</v>
       </c>
       <c r="C45">
-        <v>32.736199999999997</v>
+        <v>34.867699999999999</v>
       </c>
       <c r="D45">
-        <v>7.0010500000000002</v>
+        <v>7.2646600000000001</v>
       </c>
       <c r="E45">
-        <v>106.85599999999999</v>
+        <v>113.23699999999999</v>
       </c>
       <c r="G45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>34.457599999999999</v>
+        <v>36.747300000000003</v>
       </c>
       <c r="I45">
-        <v>2.4532099999999999</v>
+        <v>2.6590400000000001</v>
       </c>
       <c r="J45">
-        <v>7.0868799999999998</v>
+        <v>7.3941999999999997</v>
       </c>
       <c r="K45">
-        <v>90.550399999999996</v>
+        <v>96.686400000000006</v>
       </c>
       <c r="M45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N45">
-        <v>37.392899999999997</v>
+        <v>40.929600000000001</v>
       </c>
       <c r="O45">
-        <v>1.3766400000000001</v>
+        <v>1.5016099999999999</v>
       </c>
       <c r="P45">
-        <v>6.32247</v>
+        <v>6.9697899999999997</v>
       </c>
       <c r="Q45">
-        <v>77.539000000000001</v>
+        <v>84.862499999999997</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>27.444299999999998</v>
+        <v>29.082699999999999</v>
       </c>
       <c r="C46">
-        <v>30.615400000000001</v>
+        <v>32.736199999999997</v>
       </c>
       <c r="D46">
-        <v>6.7485200000000001</v>
+        <v>7.0010500000000002</v>
       </c>
       <c r="E46">
-        <v>100.503</v>
+        <v>106.85599999999999</v>
       </c>
       <c r="G46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>32.041699999999999</v>
+        <v>34.457599999999999</v>
       </c>
       <c r="I46">
-        <v>2.2368800000000002</v>
+        <v>2.4532099999999999</v>
       </c>
       <c r="J46">
-        <v>6.8193799999999998</v>
+        <v>7.0868799999999998</v>
       </c>
       <c r="K46">
-        <v>84.0779</v>
+        <v>90.550399999999996</v>
       </c>
       <c r="M46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N46">
-        <v>35.818300000000001</v>
+        <v>40.764899999999997</v>
       </c>
       <c r="O46">
-        <v>1.3122799999999999</v>
+        <v>1.49794</v>
       </c>
       <c r="P46">
-        <v>6.0992600000000001</v>
+        <v>6.9185800000000004</v>
       </c>
       <c r="Q46">
-        <v>74.261099999999999</v>
+        <v>84.525800000000004</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>25.949300000000001</v>
+        <v>27.444299999999998</v>
       </c>
       <c r="C47">
-        <v>28.809799999999999</v>
+        <v>30.615400000000001</v>
       </c>
       <c r="D47">
-        <v>6.5074100000000001</v>
+        <v>6.7485200000000001</v>
       </c>
       <c r="E47">
-        <v>94.831500000000005</v>
+        <v>100.503</v>
       </c>
       <c r="G47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
-        <v>29.690999999999999</v>
+        <v>32.041699999999999</v>
       </c>
       <c r="I47">
-        <v>2.0312000000000001</v>
+        <v>2.2368800000000002</v>
       </c>
       <c r="J47">
-        <v>6.5862699999999998</v>
+        <v>6.8193799999999998</v>
       </c>
       <c r="K47">
-        <v>77.789900000000003</v>
+        <v>84.0779</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N47">
-        <v>34.503399999999999</v>
+        <v>40.497500000000002</v>
       </c>
       <c r="O47">
-        <v>1.2842899999999999</v>
+        <v>1.4946699999999999</v>
       </c>
       <c r="P47">
-        <v>5.9170999999999996</v>
+        <v>6.9113699999999998</v>
       </c>
       <c r="Q47">
-        <v>71.575400000000002</v>
+        <v>83.984300000000005</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>24.521799999999999</v>
+        <v>25.949300000000001</v>
       </c>
       <c r="C48">
-        <v>26.9145</v>
+        <v>28.809799999999999</v>
       </c>
       <c r="D48">
-        <v>6.2902500000000003</v>
+        <v>6.5074100000000001</v>
       </c>
       <c r="E48">
-        <v>89.255399999999995</v>
+        <v>94.831500000000005</v>
       </c>
       <c r="G48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48">
-        <v>27.4711</v>
+        <v>29.690999999999999</v>
       </c>
       <c r="I48">
-        <v>1.8267</v>
+        <v>2.0312000000000001</v>
       </c>
       <c r="J48">
-        <v>6.3647799999999997</v>
+        <v>6.5862699999999998</v>
       </c>
       <c r="K48">
-        <v>71.831000000000003</v>
+        <v>77.789900000000003</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N48">
-        <v>33.139499999999998</v>
+        <v>40.302999999999997</v>
       </c>
       <c r="O48">
-        <v>1.2342900000000001</v>
+        <v>1.5058499999999999</v>
       </c>
       <c r="P48">
-        <v>5.7318199999999999</v>
+        <v>6.9241099999999998</v>
       </c>
       <c r="Q48">
-        <v>68.747699999999995</v>
+        <v>83.617699999999999</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>23.258400000000002</v>
+        <v>24.521799999999999</v>
       </c>
       <c r="C49">
-        <v>24.966100000000001</v>
+        <v>26.9145</v>
       </c>
       <c r="D49">
-        <v>6.1315099999999996</v>
+        <v>6.2902500000000003</v>
       </c>
       <c r="E49">
-        <v>84.040300000000002</v>
+        <v>89.255399999999995</v>
       </c>
       <c r="G49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H49">
-        <v>25.523199999999999</v>
+        <v>27.4711</v>
       </c>
       <c r="I49">
-        <v>1.65985</v>
+        <v>1.8267</v>
       </c>
       <c r="J49">
-        <v>6.1989200000000002</v>
+        <v>6.3647799999999997</v>
       </c>
       <c r="K49">
-        <v>66.627700000000004</v>
+        <v>71.831000000000003</v>
       </c>
       <c r="M49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N49">
-        <v>32.028500000000001</v>
+        <v>39.887799999999999</v>
       </c>
       <c r="O49">
-        <v>1.1979</v>
+        <v>1.4993000000000001</v>
       </c>
       <c r="P49">
-        <v>5.5769799999999998</v>
+        <v>6.9152899999999997</v>
       </c>
       <c r="Q49">
-        <v>66.452699999999993</v>
+        <v>82.774199999999993</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>22.237300000000001</v>
+        <v>23.258400000000002</v>
       </c>
       <c r="C50">
-        <v>23.055800000000001</v>
+        <v>24.966100000000001</v>
       </c>
       <c r="D50">
-        <v>6.0120399999999998</v>
+        <v>6.1315099999999996</v>
       </c>
       <c r="E50">
-        <v>79.487200000000001</v>
+        <v>84.040300000000002</v>
       </c>
       <c r="G50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50">
-        <v>23.813700000000001</v>
+        <v>25.523199999999999</v>
       </c>
       <c r="I50">
-        <v>1.5206500000000001</v>
+        <v>1.65985</v>
       </c>
       <c r="J50">
-        <v>6.0707700000000004</v>
+        <v>6.1989200000000002</v>
       </c>
       <c r="K50">
-        <v>62.075600000000001</v>
+        <v>66.627700000000004</v>
       </c>
       <c r="M50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N50">
-        <v>30.9437</v>
+        <v>38.120100000000001</v>
       </c>
       <c r="O50">
-        <v>1.1795100000000001</v>
+        <v>1.4383699999999999</v>
       </c>
       <c r="P50">
-        <v>5.4337</v>
+        <v>6.6705199999999998</v>
       </c>
       <c r="Q50">
-        <v>64.246399999999994</v>
+        <v>79.117000000000004</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>21.364799999999999</v>
+        <v>22.237300000000001</v>
       </c>
       <c r="C51">
-        <v>21.6052</v>
+        <v>23.055800000000001</v>
       </c>
       <c r="D51">
-        <v>5.9080899999999996</v>
+        <v>6.0120399999999998</v>
       </c>
       <c r="E51">
-        <v>75.7684</v>
+        <v>79.487200000000001</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51">
-        <v>22.162500000000001</v>
+        <v>23.813700000000001</v>
       </c>
       <c r="I51">
-        <v>1.3662700000000001</v>
+        <v>1.5206500000000001</v>
       </c>
       <c r="J51">
-        <v>5.9418800000000003</v>
+        <v>6.0707700000000004</v>
       </c>
       <c r="K51">
-        <v>57.6389</v>
+        <v>62.075600000000001</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N51">
-        <v>29.914300000000001</v>
+        <v>35.848300000000002</v>
       </c>
       <c r="O51">
-        <v>1.13941</v>
+        <v>1.3605700000000001</v>
       </c>
       <c r="P51">
-        <v>5.3002500000000001</v>
+        <v>6.3192700000000004</v>
       </c>
       <c r="Q51">
-        <v>62.107300000000002</v>
+        <v>74.417699999999996</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>20.599299999999999</v>
+        <v>21.364799999999999</v>
       </c>
       <c r="C52">
-        <v>20.1114</v>
+        <v>21.6052</v>
       </c>
       <c r="D52">
-        <v>5.7805600000000004</v>
+        <v>5.9080899999999996</v>
       </c>
       <c r="E52">
-        <v>72.286299999999997</v>
+        <v>75.7684</v>
       </c>
       <c r="G52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>20.849</v>
+        <v>22.162500000000001</v>
       </c>
       <c r="I52">
-        <v>1.26867</v>
+        <v>1.3662700000000001</v>
       </c>
       <c r="J52">
-        <v>5.8234899999999996</v>
+        <v>5.9418800000000003</v>
       </c>
       <c r="K52">
-        <v>54.159700000000001</v>
+        <v>57.6389</v>
       </c>
       <c r="M52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N52">
-        <v>28.9572</v>
+        <v>34.040399999999998</v>
       </c>
       <c r="O52">
-        <v>1.1061399999999999</v>
+        <v>1.30783</v>
       </c>
       <c r="P52">
-        <v>5.1776499999999999</v>
+        <v>6.0410199999999996</v>
       </c>
       <c r="Q52">
-        <v>60.1267</v>
+        <v>70.696399999999997</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>19.7042</v>
+        <v>20.599299999999999</v>
       </c>
       <c r="C53">
-        <v>18.8855</v>
+        <v>20.1114</v>
       </c>
       <c r="D53">
-        <v>5.6025900000000002</v>
+        <v>5.7805600000000004</v>
       </c>
       <c r="E53">
-        <v>68.747600000000006</v>
+        <v>72.286299999999997</v>
       </c>
       <c r="G53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53">
-        <v>19.463100000000001</v>
+        <v>20.849</v>
       </c>
       <c r="I53">
-        <v>1.1610499999999999</v>
+        <v>1.26867</v>
       </c>
       <c r="J53">
-        <v>5.6479299999999997</v>
+        <v>5.8234899999999996</v>
       </c>
       <c r="K53">
-        <v>50.48</v>
+        <v>54.159700000000001</v>
       </c>
       <c r="M53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N53">
-        <v>27.721</v>
+        <v>32.580100000000002</v>
       </c>
       <c r="O53">
-        <v>1.0542</v>
+        <v>1.2504200000000001</v>
       </c>
       <c r="P53">
-        <v>5.02006</v>
+        <v>5.8475299999999999</v>
       </c>
       <c r="Q53">
-        <v>57.550400000000003</v>
+        <v>67.661000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>18.893999999999998</v>
+        <v>19.7042</v>
       </c>
       <c r="C54">
-        <v>17.404699999999998</v>
+        <v>18.8855</v>
       </c>
       <c r="D54">
-        <v>5.4296899999999999</v>
+        <v>5.6025900000000002</v>
       </c>
       <c r="E54">
-        <v>65.167000000000002</v>
+        <v>68.747600000000006</v>
       </c>
       <c r="G54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H54">
-        <v>18.3691</v>
+        <v>19.463100000000001</v>
       </c>
       <c r="I54">
-        <v>1.0759300000000001</v>
+        <v>1.1610499999999999</v>
       </c>
       <c r="J54">
-        <v>5.4878999999999998</v>
+        <v>5.6479299999999997</v>
       </c>
       <c r="K54">
-        <v>47.5745</v>
+        <v>50.48</v>
       </c>
       <c r="M54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N54">
-        <v>26.618099999999998</v>
+        <v>31.886099999999999</v>
       </c>
       <c r="O54">
-        <v>0.99574099999999999</v>
+        <v>1.2184999999999999</v>
       </c>
       <c r="P54">
-        <v>4.8779899999999996</v>
+        <v>5.7958499999999997</v>
       </c>
       <c r="Q54">
-        <v>55.227699999999999</v>
+        <v>66.209299999999999</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>18.1509</v>
+        <v>18.893999999999998</v>
       </c>
       <c r="C55">
-        <v>16.339200000000002</v>
+        <v>17.404699999999998</v>
       </c>
       <c r="D55">
-        <v>5.2645999999999997</v>
+        <v>5.4296899999999999</v>
       </c>
       <c r="E55">
-        <v>62.179699999999997</v>
+        <v>65.167000000000002</v>
       </c>
       <c r="G55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H55">
-        <v>17.1996</v>
+        <v>18.3691</v>
       </c>
       <c r="I55">
-        <v>1.0001199999999999</v>
+        <v>1.0759300000000001</v>
       </c>
       <c r="J55">
-        <v>5.27562</v>
+        <v>5.4878999999999998</v>
       </c>
       <c r="K55">
-        <v>44.499200000000002</v>
+        <v>47.5745</v>
       </c>
       <c r="M55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N55">
-        <v>25.367000000000001</v>
+        <v>31.245200000000001</v>
       </c>
       <c r="O55">
-        <v>0.95061700000000005</v>
+        <v>1.18625</v>
       </c>
       <c r="P55">
-        <v>4.69475</v>
+        <v>5.7561299999999997</v>
       </c>
       <c r="Q55">
-        <v>52.635199999999998</v>
+        <v>64.862899999999996</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>17.3767</v>
+        <v>18.1509</v>
       </c>
       <c r="C56">
-        <v>15.4152</v>
+        <v>16.339200000000002</v>
       </c>
       <c r="D56">
-        <v>5.0771300000000004</v>
+        <v>5.2645999999999997</v>
       </c>
       <c r="E56">
-        <v>59.266599999999997</v>
+        <v>62.179699999999997</v>
       </c>
       <c r="G56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56">
-        <v>16.371700000000001</v>
+        <v>17.1996</v>
       </c>
       <c r="I56">
-        <v>0.93478399999999995</v>
+        <v>1.0001199999999999</v>
       </c>
       <c r="J56">
-        <v>5.0952200000000003</v>
+        <v>5.27562</v>
       </c>
       <c r="K56">
-        <v>42.298699999999997</v>
+        <v>44.499200000000002</v>
       </c>
       <c r="M56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N56">
-        <v>24.554099999999998</v>
+        <v>30.792300000000001</v>
       </c>
       <c r="O56">
-        <v>0.90703699999999998</v>
+        <v>1.1598599999999999</v>
       </c>
       <c r="P56">
-        <v>4.5380200000000004</v>
+        <v>5.7323399999999998</v>
       </c>
       <c r="Q56">
-        <v>50.9223</v>
+        <v>63.904400000000003</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>16.783100000000001</v>
+        <v>17.3767</v>
       </c>
       <c r="C57">
-        <v>14.799899999999999</v>
+        <v>15.4152</v>
       </c>
       <c r="D57">
-        <v>4.9031500000000001</v>
+        <v>5.0771300000000004</v>
       </c>
       <c r="E57">
-        <v>57.115600000000001</v>
+        <v>59.266599999999997</v>
       </c>
       <c r="G57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57">
-        <v>15.769399999999999</v>
+        <v>16.371700000000001</v>
       </c>
       <c r="I57">
-        <v>0.87867300000000004</v>
+        <v>0.93478399999999995</v>
       </c>
       <c r="J57">
-        <v>4.9180599999999997</v>
+        <v>5.0952200000000003</v>
       </c>
       <c r="K57">
-        <v>40.680799999999998</v>
+        <v>42.298699999999997</v>
       </c>
       <c r="M57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N57">
-        <v>23.838200000000001</v>
+        <v>30.835100000000001</v>
       </c>
       <c r="O57">
-        <v>0.87178999999999995</v>
+        <v>1.1466000000000001</v>
       </c>
       <c r="P57">
-        <v>4.3835199999999999</v>
+        <v>5.7423999999999999</v>
       </c>
       <c r="Q57">
-        <v>49.42</v>
+        <v>63.963500000000003</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>16.163900000000002</v>
+        <v>16.783100000000001</v>
       </c>
       <c r="C58">
-        <v>14.044499999999999</v>
+        <v>14.799899999999999</v>
       </c>
       <c r="D58">
-        <v>4.7033300000000002</v>
+        <v>4.9031500000000001</v>
       </c>
       <c r="E58">
-        <v>54.7744</v>
+        <v>57.115600000000001</v>
       </c>
       <c r="G58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58">
-        <v>15.1831</v>
+        <v>15.769399999999999</v>
       </c>
       <c r="I58">
-        <v>0.83518499999999996</v>
+        <v>0.87867300000000004</v>
       </c>
       <c r="J58">
-        <v>4.7159599999999999</v>
+        <v>4.9180599999999997</v>
       </c>
       <c r="K58">
-        <v>39.128100000000003</v>
+        <v>40.680799999999998</v>
       </c>
       <c r="M58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N58">
-        <v>22.829699999999999</v>
+        <v>30.9193</v>
       </c>
       <c r="O58">
-        <v>0.822685</v>
+        <v>1.13598</v>
       </c>
       <c r="P58">
-        <v>4.2078100000000003</v>
+        <v>5.77182</v>
       </c>
       <c r="Q58">
-        <v>47.3048</v>
+        <v>64.110600000000005</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>15.6838</v>
+        <v>16.163900000000002</v>
       </c>
       <c r="C59">
-        <v>13.826000000000001</v>
+        <v>14.044499999999999</v>
       </c>
       <c r="D59">
-        <v>4.5250000000000004</v>
+        <v>4.7033300000000002</v>
       </c>
       <c r="E59">
-        <v>53.321599999999997</v>
+        <v>54.7744</v>
       </c>
       <c r="G59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H59">
-        <v>14.704700000000001</v>
+        <v>15.1831</v>
       </c>
       <c r="I59">
-        <v>0.79361099999999996</v>
+        <v>0.83518499999999996</v>
       </c>
       <c r="J59">
-        <v>4.5356500000000004</v>
+        <v>4.7159599999999999</v>
       </c>
       <c r="K59">
-        <v>37.8489</v>
+        <v>39.128100000000003</v>
       </c>
       <c r="M59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N59">
-        <v>22.0364</v>
+        <v>31.074000000000002</v>
       </c>
       <c r="O59">
-        <v>0.78071000000000002</v>
+        <v>1.1246700000000001</v>
       </c>
       <c r="P59">
-        <v>4.0446900000000001</v>
+        <v>5.8051199999999996</v>
       </c>
       <c r="Q59">
-        <v>45.6342</v>
+        <v>64.397300000000001</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>15.171900000000001</v>
+        <v>15.6838</v>
       </c>
       <c r="C60">
-        <v>13.389799999999999</v>
+        <v>13.826000000000001</v>
       </c>
       <c r="D60">
-        <v>4.3374699999999997</v>
+        <v>4.5250000000000004</v>
       </c>
       <c r="E60">
-        <v>51.575299999999999</v>
+        <v>53.321599999999997</v>
       </c>
       <c r="G60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H60">
-        <v>14.2895</v>
+        <v>14.704700000000001</v>
       </c>
       <c r="I60">
-        <v>0.76635799999999998</v>
+        <v>0.79361099999999996</v>
       </c>
       <c r="J60">
-        <v>4.3434299999999997</v>
+        <v>4.5356500000000004</v>
       </c>
       <c r="K60">
-        <v>36.756500000000003</v>
+        <v>37.8489</v>
       </c>
       <c r="M60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N60">
-        <v>21.4133</v>
+        <v>31.5273</v>
       </c>
       <c r="O60">
-        <v>0.75638899999999998</v>
+        <v>1.1333200000000001</v>
       </c>
       <c r="P60">
-        <v>3.8810500000000001</v>
+        <v>5.8554599999999999</v>
       </c>
       <c r="Q60">
-        <v>44.339300000000001</v>
+        <v>65.321200000000005</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>14.922800000000001</v>
+        <v>15.171900000000001</v>
       </c>
       <c r="C61">
-        <v>12.9795</v>
+        <v>13.389799999999999</v>
       </c>
       <c r="D61">
-        <v>4.2410500000000004</v>
+        <v>4.3374699999999997</v>
       </c>
       <c r="E61">
-        <v>50.5244</v>
+        <v>51.575299999999999</v>
       </c>
       <c r="G61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61">
-        <v>14.038500000000001</v>
+        <v>14.2895</v>
       </c>
       <c r="I61">
-        <v>0.73419800000000002</v>
+        <v>0.76635799999999998</v>
       </c>
       <c r="J61">
-        <v>4.22438</v>
+        <v>4.3434299999999997</v>
       </c>
       <c r="K61">
-        <v>36.064500000000002</v>
+        <v>36.756500000000003</v>
       </c>
       <c r="M61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N61">
-        <v>20.983899999999998</v>
+        <v>32.111400000000003</v>
       </c>
       <c r="O61">
-        <v>0.723827</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="P61">
-        <v>3.7633299999999998</v>
+        <v>5.9201899999999998</v>
       </c>
       <c r="Q61">
-        <v>43.415500000000002</v>
+        <v>66.514799999999994</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>14.728899999999999</v>
+        <v>14.922800000000001</v>
       </c>
       <c r="C62">
-        <v>12.6005</v>
+        <v>12.9795</v>
       </c>
       <c r="D62">
-        <v>4.1785500000000004</v>
+        <v>4.2410500000000004</v>
       </c>
       <c r="E62">
-        <v>49.633200000000002</v>
+        <v>50.5244</v>
       </c>
       <c r="G62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H62">
-        <v>13.816000000000001</v>
+        <v>14.038500000000001</v>
       </c>
       <c r="I62">
-        <v>0.71117300000000006</v>
+        <v>0.73419800000000002</v>
       </c>
       <c r="J62">
-        <v>4.15022</v>
+        <v>4.22438</v>
       </c>
       <c r="K62">
-        <v>35.462499999999999</v>
+        <v>36.064500000000002</v>
       </c>
       <c r="M62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N62">
-        <v>20.6036</v>
+        <v>31.9527</v>
       </c>
       <c r="O62">
-        <v>0.70126500000000003</v>
+        <v>1.1231</v>
       </c>
       <c r="P62">
-        <v>3.67889</v>
+        <v>5.8487900000000002</v>
       </c>
       <c r="Q62">
-        <v>42.6098</v>
+        <v>66.151600000000002</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>14.5372</v>
+        <v>14.728899999999999</v>
       </c>
       <c r="C63">
-        <v>12.354100000000001</v>
+        <v>12.6005</v>
       </c>
       <c r="D63">
-        <v>4.1218500000000002</v>
+        <v>4.1785500000000004</v>
       </c>
       <c r="E63">
-        <v>48.886499999999998</v>
+        <v>49.633200000000002</v>
       </c>
       <c r="G63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H63">
-        <v>13.5686</v>
+        <v>13.816000000000001</v>
       </c>
       <c r="I63">
-        <v>0.68833299999999997</v>
+        <v>0.71117300000000006</v>
       </c>
       <c r="J63">
-        <v>4.0635199999999996</v>
+        <v>4.15022</v>
       </c>
       <c r="K63">
-        <v>34.798099999999998</v>
+        <v>35.462499999999999</v>
       </c>
       <c r="M63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N63">
-        <v>20.184100000000001</v>
+        <v>31.411899999999999</v>
       </c>
       <c r="O63">
-        <v>0.67784</v>
+        <v>1.0849800000000001</v>
       </c>
       <c r="P63">
-        <v>3.5927199999999999</v>
+        <v>5.7115200000000002</v>
       </c>
       <c r="Q63">
-        <v>41.7239</v>
+        <v>64.993700000000004</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>14.342499999999999</v>
+        <v>14.5372</v>
       </c>
       <c r="C64">
-        <v>11.6623</v>
+        <v>12.354100000000001</v>
       </c>
       <c r="D64">
-        <v>4.0591999999999997</v>
+        <v>4.1218500000000002</v>
       </c>
       <c r="E64">
-        <v>47.689700000000002</v>
+        <v>48.886499999999998</v>
       </c>
       <c r="G64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H64">
-        <v>13.4085</v>
+        <v>13.5686</v>
       </c>
       <c r="I64">
-        <v>0.67719099999999999</v>
+        <v>0.68833299999999997</v>
       </c>
       <c r="J64">
-        <v>3.9939499999999999</v>
+        <v>4.0635199999999996</v>
       </c>
       <c r="K64">
-        <v>34.375700000000002</v>
+        <v>34.798099999999998</v>
       </c>
       <c r="M64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N64">
-        <v>19.879799999999999</v>
+        <v>30.968399999999999</v>
       </c>
       <c r="O64">
-        <v>0.66530900000000004</v>
+        <v>1.0576300000000001</v>
       </c>
       <c r="P64">
-        <v>3.51349</v>
+        <v>5.5997500000000002</v>
       </c>
       <c r="Q64">
-        <v>41.090200000000003</v>
+        <v>64.052099999999996</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>14.184799999999999</v>
+        <v>14.342499999999999</v>
       </c>
       <c r="C65">
-        <v>11.2493</v>
+        <v>11.6623</v>
       </c>
       <c r="D65">
-        <v>4.00509</v>
+        <v>4.0591999999999997</v>
       </c>
       <c r="E65">
-        <v>46.871000000000002</v>
+        <v>47.689700000000002</v>
       </c>
       <c r="G65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H65">
-        <v>13.247</v>
+        <v>13.4085</v>
       </c>
       <c r="I65">
-        <v>0.65916699999999995</v>
+        <v>0.67719099999999999</v>
       </c>
       <c r="J65">
-        <v>3.9174099999999998</v>
+        <v>3.9939499999999999</v>
       </c>
       <c r="K65">
-        <v>33.9358</v>
+        <v>34.375700000000002</v>
       </c>
       <c r="M65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N65">
-        <v>19.611999999999998</v>
+        <v>30.6221</v>
       </c>
       <c r="O65">
-        <v>0.64555600000000002</v>
+        <v>1.0406</v>
       </c>
       <c r="P65">
-        <v>3.4382999999999999</v>
+        <v>5.5008699999999999</v>
       </c>
       <c r="Q65">
-        <v>40.5152</v>
+        <v>63.325400000000002</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>14.000999999999999</v>
+        <v>14.184799999999999</v>
       </c>
       <c r="C66">
-        <v>11.1876</v>
+        <v>11.2493</v>
       </c>
       <c r="D66">
-        <v>3.9370699999999998</v>
+        <v>4.00509</v>
       </c>
       <c r="E66">
-        <v>46.348799999999997</v>
+        <v>46.871000000000002</v>
       </c>
       <c r="G66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66">
-        <v>13.144600000000001</v>
+        <v>13.247</v>
       </c>
       <c r="I66">
-        <v>0.66783999999999999</v>
+        <v>0.65916699999999995</v>
       </c>
       <c r="J66">
-        <v>3.8468800000000001</v>
+        <v>3.9174099999999998</v>
       </c>
       <c r="K66">
-        <v>33.697299999999998</v>
+        <v>33.9358</v>
       </c>
       <c r="M66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N66">
-        <v>19.493500000000001</v>
+        <v>30.406700000000001</v>
       </c>
       <c r="O66">
-        <v>0.65694399999999997</v>
+        <v>1.0303</v>
       </c>
       <c r="P66">
-        <v>3.3646600000000002</v>
+        <v>5.4148300000000003</v>
       </c>
       <c r="Q66">
-        <v>40.300899999999999</v>
+        <v>62.874099999999999</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>13.8048</v>
+        <v>14.000999999999999</v>
       </c>
       <c r="C67">
-        <v>10.9549</v>
+        <v>11.1876</v>
       </c>
       <c r="D67">
-        <v>3.8742299999999998</v>
+        <v>3.9370699999999998</v>
       </c>
       <c r="E67">
-        <v>45.603499999999997</v>
+        <v>46.348799999999997</v>
       </c>
       <c r="G67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67">
-        <v>12.904999999999999</v>
+        <v>13.144600000000001</v>
       </c>
       <c r="I67">
-        <v>0.63648099999999996</v>
+        <v>0.66783999999999999</v>
       </c>
       <c r="J67">
-        <v>3.7581199999999999</v>
+        <v>3.8468800000000001</v>
       </c>
       <c r="K67">
-        <v>33.035499999999999</v>
+        <v>33.697299999999998</v>
       </c>
       <c r="M67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N67">
-        <v>19.1065</v>
+        <v>30.2667</v>
       </c>
       <c r="O67">
-        <v>0.62626499999999996</v>
+        <v>1.02193</v>
       </c>
       <c r="P67">
-        <v>3.2780900000000002</v>
+        <v>5.3385400000000001</v>
       </c>
       <c r="Q67">
-        <v>39.465600000000002</v>
+        <v>62.577199999999998</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>13.5677</v>
+        <v>13.8048</v>
       </c>
       <c r="C68">
-        <v>10.557499999999999</v>
+        <v>10.9549</v>
       </c>
       <c r="D68">
-        <v>3.8018200000000002</v>
+        <v>3.8742299999999998</v>
       </c>
       <c r="E68">
-        <v>44.6006</v>
+        <v>45.603499999999997</v>
       </c>
       <c r="G68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H68">
-        <v>12.685</v>
+        <v>12.904999999999999</v>
       </c>
       <c r="I68">
-        <v>0.62465999999999999</v>
+        <v>0.63648099999999996</v>
       </c>
       <c r="J68">
-        <v>3.6756799999999998</v>
+        <v>3.7581199999999999</v>
       </c>
       <c r="K68">
-        <v>32.461799999999997</v>
+        <v>33.035499999999999</v>
       </c>
       <c r="M68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N68">
-        <v>18.747699999999998</v>
+        <v>30.113</v>
       </c>
       <c r="O68">
-        <v>0.61077199999999998</v>
+        <v>1.0065</v>
       </c>
       <c r="P68">
-        <v>3.2001900000000001</v>
+        <v>5.2792700000000004</v>
       </c>
       <c r="Q68">
-        <v>38.716999999999999</v>
+        <v>62.238999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>13.351100000000001</v>
+        <v>13.5677</v>
       </c>
       <c r="C69">
-        <v>10.343999999999999</v>
+        <v>10.557499999999999</v>
       </c>
       <c r="D69">
-        <v>3.7291400000000001</v>
+        <v>3.8018200000000002</v>
       </c>
       <c r="E69">
-        <v>43.836300000000001</v>
+        <v>44.6006</v>
       </c>
       <c r="G69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H69">
-        <v>12.4582</v>
+        <v>12.685</v>
       </c>
       <c r="I69">
-        <v>0.60978399999999999</v>
+        <v>0.62465999999999999</v>
       </c>
       <c r="J69">
-        <v>3.5896599999999999</v>
+        <v>3.6756799999999998</v>
       </c>
       <c r="K69">
-        <v>31.865100000000002</v>
+        <v>32.461799999999997</v>
       </c>
       <c r="M69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N69">
-        <v>18.4057</v>
+        <v>29.901199999999999</v>
       </c>
       <c r="O69">
-        <v>0.59851799999999999</v>
+        <v>0.99241599999999996</v>
       </c>
       <c r="P69">
-        <v>3.1175899999999999</v>
+        <v>5.21211</v>
       </c>
       <c r="Q69">
-        <v>38.008499999999998</v>
+        <v>61.787300000000002</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>13.0756</v>
+        <v>13.351100000000001</v>
       </c>
       <c r="C70">
-        <v>9.9851200000000002</v>
+        <v>10.343999999999999</v>
       </c>
       <c r="D70">
-        <v>3.6542599999999998</v>
+        <v>3.7291400000000001</v>
       </c>
       <c r="E70">
-        <v>42.764000000000003</v>
+        <v>43.836300000000001</v>
       </c>
       <c r="G70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H70">
-        <v>12.1836</v>
+        <v>12.4582</v>
       </c>
       <c r="I70">
-        <v>0.58592599999999995</v>
+        <v>0.60978399999999999</v>
       </c>
       <c r="J70">
-        <v>3.5064199999999999</v>
+        <v>3.5896599999999999</v>
       </c>
       <c r="K70">
-        <v>31.130800000000001</v>
+        <v>31.865100000000002</v>
       </c>
       <c r="M70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N70">
-        <v>17.974</v>
+        <v>29.739899999999999</v>
       </c>
       <c r="O70">
-        <v>0.573519</v>
+        <v>0.98185</v>
       </c>
       <c r="P70">
-        <v>3.0360200000000002</v>
+        <v>5.1496199999999996</v>
       </c>
       <c r="Q70">
-        <v>37.094900000000003</v>
+        <v>61.4435</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>12.7948</v>
+        <v>13.0756</v>
       </c>
       <c r="C71">
-        <v>9.6591400000000007</v>
+        <v>9.9851200000000002</v>
       </c>
       <c r="D71">
-        <v>3.5724999999999998</v>
+        <v>3.6542599999999998</v>
       </c>
       <c r="E71">
-        <v>41.718299999999999</v>
+        <v>42.764000000000003</v>
       </c>
       <c r="G71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H71">
-        <v>11.930899999999999</v>
+        <v>12.1836</v>
       </c>
       <c r="I71">
-        <v>0.56564800000000004</v>
+        <v>0.58592599999999995</v>
       </c>
       <c r="J71">
-        <v>3.41614</v>
+        <v>3.5064199999999999</v>
       </c>
       <c r="K71">
-        <v>30.458600000000001</v>
+        <v>31.130800000000001</v>
       </c>
       <c r="M71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N71">
-        <v>17.604700000000001</v>
+        <v>29.575700000000001</v>
       </c>
       <c r="O71">
-        <v>0.55623500000000003</v>
+        <v>0.96965299999999999</v>
       </c>
       <c r="P71">
-        <v>2.9528099999999999</v>
+        <v>5.0907499999999999</v>
       </c>
       <c r="Q71">
-        <v>36.321899999999999</v>
+        <v>61.090800000000002</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>12.4961</v>
+        <v>12.7948</v>
       </c>
       <c r="C72">
-        <v>9.3825000000000003</v>
+        <v>9.6591400000000007</v>
       </c>
       <c r="D72">
-        <v>3.5030199999999998</v>
+        <v>3.5724999999999998</v>
       </c>
       <c r="E72">
-        <v>40.6721</v>
+        <v>41.718299999999999</v>
       </c>
       <c r="G72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H72">
-        <v>11.652799999999999</v>
+        <v>11.930899999999999</v>
       </c>
       <c r="I72">
-        <v>0.54571000000000003</v>
+        <v>0.56564800000000004</v>
       </c>
       <c r="J72">
-        <v>3.3313000000000001</v>
+        <v>3.41614</v>
       </c>
       <c r="K72">
-        <v>29.723500000000001</v>
+        <v>30.458600000000001</v>
       </c>
       <c r="M72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N72">
-        <v>17.176600000000001</v>
+        <v>29.359100000000002</v>
       </c>
       <c r="O72">
-        <v>0.53734599999999999</v>
+        <v>0.95490299999999995</v>
       </c>
       <c r="P72">
-        <v>2.8730600000000002</v>
+        <v>5.0319700000000003</v>
       </c>
       <c r="Q72">
-        <v>35.427900000000001</v>
+        <v>60.628100000000003</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>12.304</v>
+        <v>12.4961</v>
       </c>
       <c r="C73">
-        <v>9.0627499999999994</v>
+        <v>9.3825000000000003</v>
       </c>
       <c r="D73">
-        <v>3.43608</v>
+        <v>3.5030199999999998</v>
       </c>
       <c r="E73">
-        <v>39.853999999999999</v>
+        <v>40.6721</v>
       </c>
       <c r="G73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H73">
-        <v>11.4336</v>
+        <v>11.652799999999999</v>
       </c>
       <c r="I73">
-        <v>0.52299399999999996</v>
+        <v>0.54571000000000003</v>
       </c>
       <c r="J73">
-        <v>3.2554599999999998</v>
+        <v>3.3313000000000001</v>
       </c>
       <c r="K73">
-        <v>29.129899999999999</v>
+        <v>29.723500000000001</v>
       </c>
       <c r="M73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N73">
-        <v>16.831600000000002</v>
+        <v>29.094000000000001</v>
       </c>
       <c r="O73">
-        <v>0.51441400000000004</v>
+        <v>0.93357400000000001</v>
       </c>
       <c r="P73">
-        <v>2.7964500000000001</v>
+        <v>4.97159</v>
       </c>
       <c r="Q73">
-        <v>34.692100000000003</v>
+        <v>60.055199999999999</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>12.0983</v>
+        <v>12.304</v>
       </c>
       <c r="C74">
-        <v>8.7896900000000002</v>
+        <v>9.0627499999999994</v>
       </c>
       <c r="D74">
-        <v>3.3663599999999998</v>
+        <v>3.43608</v>
       </c>
       <c r="E74">
-        <v>39.056800000000003</v>
+        <v>39.853999999999999</v>
       </c>
       <c r="G74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H74">
-        <v>11.282299999999999</v>
+        <v>11.4336</v>
       </c>
       <c r="I74">
-        <v>0.51302499999999995</v>
+        <v>0.52299399999999996</v>
       </c>
       <c r="J74">
-        <v>3.1790099999999999</v>
+        <v>3.2554599999999998</v>
       </c>
       <c r="K74">
-        <v>28.7318</v>
+        <v>29.129899999999999</v>
       </c>
       <c r="M74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N74">
-        <v>16.590699999999998</v>
+        <v>28.889099999999999</v>
       </c>
       <c r="O74">
-        <v>0.50481500000000001</v>
+        <v>0.91695000000000004</v>
       </c>
       <c r="P74">
-        <v>2.7273100000000001</v>
+        <v>4.9194800000000001</v>
       </c>
       <c r="Q74">
-        <v>34.191000000000003</v>
+        <v>59.612200000000001</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>11.8863</v>
+        <v>12.0983</v>
       </c>
       <c r="C75">
-        <v>8.5486699999999995</v>
+        <v>8.7896900000000002</v>
       </c>
       <c r="D75">
-        <v>3.2908900000000001</v>
+        <v>3.3663599999999998</v>
       </c>
       <c r="E75">
-        <v>38.271700000000003</v>
+        <v>39.056800000000003</v>
       </c>
       <c r="G75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H75">
-        <v>11.0685</v>
+        <v>11.282299999999999</v>
       </c>
       <c r="I75">
-        <v>0.49746899999999999</v>
+        <v>0.51302499999999995</v>
       </c>
       <c r="J75">
-        <v>3.1109300000000002</v>
+        <v>3.1790099999999999</v>
       </c>
       <c r="K75">
-        <v>28.1661</v>
+        <v>28.7318</v>
       </c>
       <c r="M75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N75">
-        <v>16.247299999999999</v>
+        <v>28.7484</v>
       </c>
       <c r="O75">
-        <v>0.48780899999999999</v>
+        <v>0.90203599999999995</v>
       </c>
       <c r="P75">
-        <v>2.6646299999999998</v>
+        <v>4.8752500000000003</v>
       </c>
       <c r="Q75">
-        <v>33.470100000000002</v>
+        <v>59.300800000000002</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>11.6706</v>
+        <v>11.8863</v>
       </c>
       <c r="C76">
-        <v>8.2693200000000004</v>
+        <v>8.5486699999999995</v>
       </c>
       <c r="D76">
-        <v>3.2381500000000001</v>
+        <v>3.2908900000000001</v>
       </c>
       <c r="E76">
-        <v>37.442100000000003</v>
+        <v>38.271700000000003</v>
       </c>
       <c r="G76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H76">
-        <v>10.835699999999999</v>
+        <v>11.0685</v>
       </c>
       <c r="I76">
-        <v>0.48280899999999999</v>
+        <v>0.49746899999999999</v>
       </c>
       <c r="J76">
-        <v>3.04793</v>
+        <v>3.1109300000000002</v>
       </c>
       <c r="K76">
-        <v>27.555</v>
+        <v>28.1661</v>
       </c>
       <c r="M76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N76">
-        <v>15.8797</v>
+        <v>28.674299999999999</v>
       </c>
       <c r="O76">
-        <v>0.47595700000000002</v>
+        <v>0.89047900000000002</v>
       </c>
       <c r="P76">
-        <v>2.6103100000000001</v>
+        <v>4.8389300000000004</v>
       </c>
       <c r="Q76">
-        <v>32.711300000000001</v>
+        <v>59.1295</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>11.506600000000001</v>
+        <v>11.6706</v>
       </c>
       <c r="C77">
-        <v>8.1286400000000008</v>
+        <v>8.2693200000000004</v>
       </c>
       <c r="D77">
-        <v>3.1845400000000001</v>
+        <v>3.2381500000000001</v>
       </c>
       <c r="E77">
-        <v>36.884700000000002</v>
+        <v>37.442100000000003</v>
       </c>
       <c r="G77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H77">
-        <v>10.753500000000001</v>
+        <v>10.835699999999999</v>
       </c>
       <c r="I77">
-        <v>0.48342600000000002</v>
+        <v>0.48280899999999999</v>
       </c>
       <c r="J77">
-        <v>2.9912999999999998</v>
+        <v>3.04793</v>
       </c>
       <c r="K77">
-        <v>27.3505</v>
+        <v>27.555</v>
       </c>
       <c r="M77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N77">
-        <v>15.743499999999999</v>
+        <v>28.6084</v>
       </c>
       <c r="O77">
-        <v>0.47358</v>
+        <v>0.882969</v>
       </c>
       <c r="P77">
-        <v>2.5580599999999998</v>
+        <v>4.80905</v>
       </c>
       <c r="Q77">
-        <v>32.434100000000001</v>
+        <v>58.982799999999997</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>11.3086</v>
+        <v>11.506600000000001</v>
       </c>
       <c r="C78">
-        <v>7.8984300000000003</v>
+        <v>8.1286400000000008</v>
       </c>
       <c r="D78">
-        <v>3.1225000000000001</v>
+        <v>3.1845400000000001</v>
       </c>
       <c r="E78">
-        <v>36.149000000000001</v>
+        <v>36.884700000000002</v>
       </c>
       <c r="G78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H78">
-        <v>10.5128</v>
+        <v>10.753500000000001</v>
       </c>
       <c r="I78">
-        <v>0.46450599999999997</v>
+        <v>0.48342600000000002</v>
       </c>
       <c r="J78">
-        <v>2.9241999999999999</v>
+        <v>2.9912999999999998</v>
       </c>
       <c r="K78">
-        <v>26.710999999999999</v>
+        <v>27.3505</v>
       </c>
       <c r="M78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N78">
-        <v>15.3809</v>
+        <v>28.601400000000002</v>
       </c>
       <c r="O78">
-        <v>0.45456800000000003</v>
+        <v>0.88061500000000004</v>
       </c>
       <c r="P78">
-        <v>2.4985499999999998</v>
+        <v>4.7942900000000002</v>
       </c>
       <c r="Q78">
-        <v>31.670999999999999</v>
+        <v>58.963999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>11.0755</v>
+        <v>11.3086</v>
       </c>
       <c r="C79">
-        <v>7.9629599999999998</v>
+        <v>7.8984300000000003</v>
       </c>
       <c r="D79">
-        <v>3.06454</v>
+        <v>3.1225000000000001</v>
       </c>
       <c r="E79">
-        <v>35.621299999999998</v>
+        <v>36.149000000000001</v>
       </c>
       <c r="G79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H79">
-        <v>10.3352</v>
+        <v>10.5128</v>
       </c>
       <c r="I79">
-        <v>0.45169799999999999</v>
+        <v>0.46450599999999997</v>
       </c>
       <c r="J79">
-        <v>2.8775900000000001</v>
+        <v>2.9241999999999999</v>
       </c>
       <c r="K79">
-        <v>26.241399999999999</v>
+        <v>26.710999999999999</v>
       </c>
       <c r="M79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N79">
-        <v>15.1206</v>
+        <v>28.614699999999999</v>
       </c>
       <c r="O79">
-        <v>0.44398100000000001</v>
+        <v>0.88049100000000002</v>
       </c>
       <c r="P79">
-        <v>2.4575</v>
+        <v>4.7855999999999996</v>
       </c>
       <c r="Q79">
-        <v>31.129100000000001</v>
+        <v>58.990499999999997</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>10.879300000000001</v>
+        <v>11.0755</v>
       </c>
       <c r="C80">
-        <v>7.67509</v>
+        <v>7.9629599999999998</v>
       </c>
       <c r="D80">
-        <v>3.0065400000000002</v>
+        <v>3.06454</v>
       </c>
       <c r="E80">
-        <v>34.834099999999999</v>
+        <v>35.621299999999998</v>
       </c>
       <c r="G80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H80">
-        <v>10.1936</v>
+        <v>10.3352</v>
       </c>
       <c r="I80">
-        <v>0.44286999999999999</v>
+        <v>0.45169799999999999</v>
       </c>
       <c r="J80">
-        <v>2.8341699999999999</v>
+        <v>2.8775900000000001</v>
       </c>
       <c r="K80">
-        <v>25.869700000000002</v>
+        <v>26.241399999999999</v>
       </c>
       <c r="M80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N80">
-        <v>14.8893</v>
+        <v>28.504300000000001</v>
       </c>
       <c r="O80">
-        <v>0.43358000000000002</v>
+        <v>0.86998200000000003</v>
       </c>
       <c r="P80">
-        <v>2.4199099999999998</v>
+        <v>4.7785900000000003</v>
       </c>
       <c r="Q80">
-        <v>30.645700000000001</v>
+        <v>58.748600000000003</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>10.66</v>
+        <v>10.879300000000001</v>
       </c>
       <c r="C81">
-        <v>7.5021300000000002</v>
+        <v>7.67509</v>
       </c>
       <c r="D81">
-        <v>2.9441700000000002</v>
+        <v>3.0065400000000002</v>
       </c>
       <c r="E81">
-        <v>34.099899999999998</v>
+        <v>34.834099999999999</v>
       </c>
       <c r="G81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H81">
-        <v>9.9322800000000004</v>
+        <v>10.1936</v>
       </c>
       <c r="I81">
-        <v>0.42963000000000001</v>
+        <v>0.44286999999999999</v>
       </c>
       <c r="J81">
-        <v>2.77515</v>
+        <v>2.8341699999999999</v>
       </c>
       <c r="K81">
-        <v>25.19</v>
+        <v>25.869700000000002</v>
       </c>
       <c r="M81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N81">
-        <v>14.506600000000001</v>
+        <v>28.409800000000001</v>
       </c>
       <c r="O81">
-        <v>0.42280899999999999</v>
+        <v>0.86319299999999999</v>
       </c>
       <c r="P81">
-        <v>2.37256</v>
+        <v>4.7771400000000002</v>
       </c>
       <c r="Q81">
-        <v>29.858799999999999</v>
+        <v>58.545999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>10.443099999999999</v>
+        <v>10.66</v>
       </c>
       <c r="C82">
-        <v>7.22546</v>
+        <v>7.5021300000000002</v>
       </c>
       <c r="D82">
-        <v>2.88809</v>
+        <v>2.9441700000000002</v>
       </c>
       <c r="E82">
-        <v>33.268500000000003</v>
+        <v>34.099899999999998</v>
       </c>
       <c r="G82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H82">
-        <v>9.7493200000000009</v>
+        <v>9.9322800000000004</v>
       </c>
       <c r="I82">
-        <v>0.41728399999999999</v>
+        <v>0.42963000000000001</v>
       </c>
       <c r="J82">
-        <v>2.7309000000000001</v>
+        <v>2.77515</v>
       </c>
       <c r="K82">
-        <v>24.707899999999999</v>
+        <v>25.19</v>
       </c>
       <c r="M82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N82">
-        <v>14.2479</v>
+        <v>28.339300000000001</v>
       </c>
       <c r="O82">
-        <v>0.41404299999999999</v>
+        <v>0.86140700000000003</v>
       </c>
       <c r="P82">
-        <v>2.3361399999999999</v>
+        <v>4.7852699999999997</v>
       </c>
       <c r="Q82">
-        <v>29.323799999999999</v>
+        <v>58.401499999999999</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>10.2088</v>
+        <v>10.443099999999999</v>
       </c>
       <c r="C83">
-        <v>6.8482099999999999</v>
+        <v>7.22546</v>
       </c>
       <c r="D83">
-        <v>2.8348499999999999</v>
+        <v>2.88809</v>
       </c>
       <c r="E83">
-        <v>32.289000000000001</v>
+        <v>33.268500000000003</v>
       </c>
       <c r="G83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H83">
-        <v>9.5296900000000004</v>
+        <v>9.7493200000000009</v>
       </c>
       <c r="I83">
-        <v>0.40123500000000001</v>
+        <v>0.41728399999999999</v>
       </c>
       <c r="J83">
-        <v>2.6857700000000002</v>
+        <v>2.7309000000000001</v>
       </c>
       <c r="K83">
-        <v>24.1267</v>
+        <v>24.707899999999999</v>
       </c>
       <c r="M83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N83">
-        <v>13.8927</v>
+        <v>28.198699999999999</v>
       </c>
       <c r="O83">
-        <v>0.39737699999999998</v>
+        <v>0.85682800000000003</v>
       </c>
       <c r="P83">
-        <v>2.2953399999999999</v>
+        <v>4.7931400000000002</v>
       </c>
       <c r="Q83">
-        <v>28.580200000000001</v>
+        <v>58.110999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>10.0009</v>
+        <v>10.2088</v>
       </c>
       <c r="C84">
-        <v>6.82315</v>
+        <v>6.8482099999999999</v>
       </c>
       <c r="D84">
-        <v>2.7754599999999998</v>
+        <v>2.8348499999999999</v>
       </c>
       <c r="E84">
-        <v>31.735399999999998</v>
+        <v>32.289000000000001</v>
       </c>
       <c r="G84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H84">
-        <v>9.35426</v>
+        <v>9.5296900000000004</v>
       </c>
       <c r="I84">
-        <v>0.39879599999999998</v>
+        <v>0.40123500000000001</v>
       </c>
       <c r="J84">
-        <v>2.64438</v>
+        <v>2.6857700000000002</v>
       </c>
       <c r="K84">
-        <v>23.683199999999999</v>
+        <v>24.1267</v>
       </c>
       <c r="M84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N84">
-        <v>13.622999999999999</v>
+        <v>27.99</v>
       </c>
       <c r="O84">
-        <v>0.39425900000000003</v>
+        <v>0.84177900000000005</v>
       </c>
       <c r="P84">
-        <v>2.2605900000000001</v>
+        <v>4.8002599999999997</v>
       </c>
       <c r="Q84">
-        <v>28.034500000000001</v>
+        <v>57.663499999999999</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>9.7921600000000009</v>
+        <v>10.0009</v>
       </c>
       <c r="C85">
-        <v>6.5698800000000004</v>
+        <v>6.82315</v>
       </c>
       <c r="D85">
-        <v>2.7241</v>
+        <v>2.7754599999999998</v>
       </c>
       <c r="E85">
-        <v>30.955300000000001</v>
+        <v>31.735399999999998</v>
       </c>
       <c r="G85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H85">
-        <v>9.2153700000000001</v>
+        <v>9.35426</v>
       </c>
       <c r="I85">
-        <v>0.39212999999999998</v>
+        <v>0.39879599999999998</v>
       </c>
       <c r="J85">
-        <v>2.61259</v>
+        <v>2.64438</v>
       </c>
       <c r="K85">
-        <v>23.322700000000001</v>
+        <v>23.683199999999999</v>
       </c>
       <c r="M85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N85">
-        <v>13.416700000000001</v>
+        <v>27.871300000000002</v>
       </c>
       <c r="O85">
-        <v>0.38682100000000003</v>
+        <v>0.83818800000000004</v>
       </c>
       <c r="P85">
-        <v>2.2409300000000001</v>
+        <v>4.8139799999999999</v>
       </c>
       <c r="Q85">
-        <v>27.606999999999999</v>
+        <v>57.418999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>9.6311699999999991</v>
+        <v>9.7921600000000009</v>
       </c>
       <c r="C86">
-        <v>6.4313900000000004</v>
+        <v>6.5698800000000004</v>
       </c>
       <c r="D86">
-        <v>2.7029899999999998</v>
+        <v>2.7241</v>
       </c>
       <c r="E86">
-        <v>30.412600000000001</v>
+        <v>30.955300000000001</v>
       </c>
       <c r="G86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H86">
-        <v>9.0627200000000006</v>
+        <v>9.2153700000000001</v>
       </c>
       <c r="I86">
-        <v>0.39021600000000001</v>
+        <v>0.39212999999999998</v>
       </c>
       <c r="J86">
-        <v>2.6061999999999999</v>
+        <v>2.61259</v>
       </c>
       <c r="K86">
-        <v>22.937200000000001</v>
+        <v>23.322700000000001</v>
       </c>
       <c r="M86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N86">
-        <v>13.183999999999999</v>
+        <v>27.770499999999998</v>
       </c>
       <c r="O86">
-        <v>0.383241</v>
+        <v>0.83521599999999996</v>
       </c>
       <c r="P86">
-        <v>2.2340399999999998</v>
+        <v>4.8475000000000001</v>
       </c>
       <c r="Q86">
-        <v>27.134599999999999</v>
+        <v>57.211399999999998</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>9.5142600000000002</v>
+        <v>9.6311699999999991</v>
       </c>
       <c r="C87">
-        <v>6.1395400000000002</v>
+        <v>6.4313900000000004</v>
       </c>
       <c r="D87">
-        <v>2.69293</v>
+        <v>2.7029899999999998</v>
       </c>
       <c r="E87">
-        <v>29.821899999999999</v>
+        <v>30.412600000000001</v>
       </c>
       <c r="G87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H87">
-        <v>8.9351900000000004</v>
+        <v>9.0627200000000006</v>
       </c>
       <c r="I87">
-        <v>0.38441399999999998</v>
+        <v>0.39021600000000001</v>
       </c>
       <c r="J87">
-        <v>2.5948500000000001</v>
+        <v>2.6061999999999999</v>
       </c>
       <c r="K87">
-        <v>22.6068</v>
+        <v>22.937200000000001</v>
       </c>
       <c r="M87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N87">
-        <v>12.984</v>
+        <v>27.366599999999998</v>
       </c>
       <c r="O87">
-        <v>0.37793199999999999</v>
+        <v>0.82793600000000001</v>
       </c>
       <c r="P87">
-        <v>2.2213599999999998</v>
+        <v>4.8294300000000003</v>
       </c>
       <c r="Q87">
-        <v>26.7239</v>
+        <v>56.389000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>9.4013000000000009</v>
+        <v>9.5142600000000002</v>
       </c>
       <c r="C88">
-        <v>5.8377499999999998</v>
+        <v>6.1395400000000002</v>
       </c>
       <c r="D88">
-        <v>2.6825600000000001</v>
+        <v>2.69293</v>
       </c>
       <c r="E88">
-        <v>29.235800000000001</v>
+        <v>29.821899999999999</v>
       </c>
       <c r="G88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H88">
-        <v>8.8177800000000008</v>
+        <v>8.9351900000000004</v>
       </c>
       <c r="I88">
-        <v>0.385154</v>
+        <v>0.38441399999999998</v>
       </c>
       <c r="J88">
-        <v>2.58182</v>
+        <v>2.5948500000000001</v>
       </c>
       <c r="K88">
-        <v>22.314800000000002</v>
+        <v>22.6068</v>
       </c>
       <c r="M88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N88">
-        <v>12.789099999999999</v>
+        <v>26.752099999999999</v>
       </c>
       <c r="O88">
-        <v>0.37641999999999998</v>
+        <v>0.81335599999999997</v>
       </c>
       <c r="P88">
-        <v>2.2057699999999998</v>
+        <v>4.7668600000000003</v>
       </c>
       <c r="Q88">
-        <v>26.331</v>
+        <v>55.130899999999997</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>9.2392599999999998</v>
+        <v>9.4013000000000009</v>
       </c>
       <c r="C89">
-        <v>5.72241</v>
+        <v>5.8377499999999998</v>
       </c>
       <c r="D89">
-        <v>2.6638600000000001</v>
+        <v>2.6825600000000001</v>
       </c>
       <c r="E89">
-        <v>28.704999999999998</v>
+        <v>29.235800000000001</v>
       </c>
       <c r="G89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H89">
-        <v>8.6646900000000002</v>
+        <v>8.8177800000000008</v>
       </c>
       <c r="I89">
-        <v>0.377253</v>
+        <v>0.385154</v>
       </c>
       <c r="J89">
-        <v>2.5733600000000001</v>
+        <v>2.58182</v>
       </c>
       <c r="K89">
-        <v>21.9162</v>
+        <v>22.314800000000002</v>
       </c>
       <c r="M89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N89">
-        <v>12.5548</v>
+        <v>26.167899999999999</v>
       </c>
       <c r="O89">
-        <v>0.37086400000000003</v>
+        <v>0.796485</v>
       </c>
       <c r="P89">
-        <v>2.1992600000000002</v>
+        <v>4.7155100000000001</v>
       </c>
       <c r="Q89">
-        <v>25.851400000000002</v>
+        <v>53.928699999999999</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>9.2131500000000006</v>
+        <v>9.2392599999999998</v>
       </c>
       <c r="C90">
-        <v>5.66127</v>
+        <v>5.72241</v>
       </c>
       <c r="D90">
-        <v>2.6766999999999999</v>
+        <v>2.6638600000000001</v>
       </c>
       <c r="E90">
-        <v>28.5777</v>
+        <v>28.704999999999998</v>
       </c>
       <c r="G90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H90">
-        <v>8.6467299999999998</v>
+        <v>8.6646900000000002</v>
       </c>
       <c r="I90">
-        <v>0.37182100000000001</v>
+        <v>0.377253</v>
       </c>
       <c r="J90">
-        <v>2.5912299999999999</v>
+        <v>2.5733600000000001</v>
       </c>
       <c r="K90">
-        <v>21.860499999999998</v>
+        <v>21.9162</v>
       </c>
       <c r="M90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N90">
-        <v>12.5039</v>
+        <v>25.689399999999999</v>
       </c>
       <c r="O90">
-        <v>0.36277799999999999</v>
+        <v>0.77954500000000004</v>
       </c>
       <c r="P90">
-        <v>2.21454</v>
+        <v>4.68973</v>
       </c>
       <c r="Q90">
-        <v>25.7333</v>
+        <v>52.937899999999999</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>9.15747</v>
+        <v>9.2131500000000006</v>
       </c>
       <c r="C91">
-        <v>5.6853999999999996</v>
+        <v>5.66127</v>
       </c>
       <c r="D91">
-        <v>2.67923</v>
+        <v>2.6766999999999999</v>
       </c>
       <c r="E91">
-        <v>28.456399999999999</v>
+        <v>28.5777</v>
       </c>
       <c r="G91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H91">
-        <v>8.5487000000000002</v>
+        <v>8.6467299999999998</v>
       </c>
       <c r="I91">
-        <v>0.36064800000000002</v>
+        <v>0.37182100000000001</v>
       </c>
       <c r="J91">
-        <v>2.6000899999999998</v>
+        <v>2.5912299999999999</v>
       </c>
       <c r="K91">
-        <v>21.5931</v>
+        <v>21.860499999999998</v>
       </c>
       <c r="M91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N91">
-        <v>12.324</v>
+        <v>25.369800000000001</v>
       </c>
       <c r="O91">
-        <v>0.35058600000000001</v>
+        <v>0.76000800000000002</v>
       </c>
       <c r="P91">
-        <v>2.22438</v>
+        <v>4.7008200000000002</v>
       </c>
       <c r="Q91">
-        <v>25.349299999999999</v>
+        <v>52.259599999999999</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>9.1930200000000006</v>
+        <v>9.15747</v>
       </c>
       <c r="C92">
-        <v>5.6712300000000004</v>
+        <v>5.6853999999999996</v>
       </c>
       <c r="D92">
-        <v>2.69414</v>
+        <v>2.67923</v>
       </c>
       <c r="E92">
-        <v>28.537600000000001</v>
+        <v>28.456399999999999</v>
       </c>
       <c r="G92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H92">
-        <v>8.5630199999999999</v>
+        <v>8.5487000000000002</v>
       </c>
       <c r="I92">
-        <v>0.36657400000000001</v>
+        <v>0.36064800000000002</v>
       </c>
       <c r="J92">
-        <v>2.61469</v>
+        <v>2.6000899999999998</v>
       </c>
       <c r="K92">
-        <v>21.640699999999999</v>
+        <v>21.5931</v>
       </c>
       <c r="M92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N92">
-        <v>12.327199999999999</v>
+        <v>25.133800000000001</v>
       </c>
       <c r="O92">
-        <v>0.356512</v>
+        <v>0.747255</v>
       </c>
       <c r="P92">
-        <v>2.2397200000000002</v>
+        <v>4.7128899999999998</v>
       </c>
       <c r="Q92">
-        <v>25.3675</v>
+        <v>51.762099999999997</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>9.2421000000000006</v>
+        <v>9.1930200000000006</v>
       </c>
       <c r="C93">
-        <v>5.65883</v>
+        <v>5.6712300000000004</v>
       </c>
       <c r="D93">
-        <v>2.7059600000000001</v>
+        <v>2.69414</v>
       </c>
       <c r="E93">
-        <v>28.652200000000001</v>
+        <v>28.537600000000001</v>
       </c>
       <c r="G93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93">
-        <v>8.61327</v>
+        <v>8.5630199999999999</v>
       </c>
       <c r="I93">
-        <v>0.37182100000000001</v>
+        <v>0.36657400000000001</v>
       </c>
       <c r="J93">
-        <v>2.64377</v>
+        <v>2.61469</v>
       </c>
       <c r="K93">
-        <v>21.776800000000001</v>
+        <v>21.640699999999999</v>
       </c>
       <c r="M93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93">
-        <v>12.3681</v>
+        <v>25.006799999999998</v>
       </c>
       <c r="O93">
-        <v>0.35762300000000002</v>
+        <v>0.74534599999999995</v>
       </c>
       <c r="P93">
-        <v>2.2665999999999999</v>
+        <v>4.74465</v>
       </c>
       <c r="Q93">
-        <v>25.451499999999999</v>
+        <v>51.504399999999997</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>9.4672800000000006</v>
+        <v>9.2421000000000006</v>
       </c>
       <c r="C94">
-        <v>5.8199699999999996</v>
+        <v>5.65883</v>
       </c>
       <c r="D94">
-        <v>2.7350599999999998</v>
+        <v>2.7059600000000001</v>
       </c>
       <c r="E94">
-        <v>29.396999999999998</v>
+        <v>28.652200000000001</v>
       </c>
       <c r="G94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H94">
-        <v>8.6819100000000002</v>
+        <v>8.61327</v>
       </c>
       <c r="I94">
-        <v>0.38425900000000002</v>
+        <v>0.37182100000000001</v>
       </c>
       <c r="J94">
-        <v>2.66154</v>
+        <v>2.64377</v>
       </c>
       <c r="K94">
-        <v>21.973299999999998</v>
+        <v>21.776800000000001</v>
       </c>
       <c r="M94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N94">
-        <v>12.4397</v>
+        <v>24.959599999999998</v>
       </c>
       <c r="O94">
-        <v>0.36314800000000003</v>
+        <v>0.74630700000000005</v>
       </c>
       <c r="P94">
-        <v>2.2850899999999998</v>
+        <v>4.7799300000000002</v>
       </c>
       <c r="Q94">
-        <v>25.605699999999999</v>
+        <v>51.411900000000003</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>9.6566700000000001</v>
+        <v>9.4672800000000006</v>
       </c>
       <c r="C95">
-        <v>5.8569399999999998</v>
+        <v>5.8199699999999996</v>
       </c>
       <c r="D95">
-        <v>2.7583600000000001</v>
+        <v>2.7350599999999998</v>
       </c>
       <c r="E95">
-        <v>29.9192</v>
+        <v>29.396999999999998</v>
       </c>
       <c r="G95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H95">
-        <v>8.7747499999999992</v>
+        <v>8.6819100000000002</v>
       </c>
       <c r="I95">
-        <v>0.38876500000000003</v>
+        <v>0.38425900000000002</v>
       </c>
       <c r="J95">
-        <v>2.6873800000000001</v>
+        <v>2.66154</v>
       </c>
       <c r="K95">
-        <v>22.214400000000001</v>
+        <v>21.973299999999998</v>
       </c>
       <c r="M95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N95">
-        <v>12.540800000000001</v>
+        <v>25.038799999999998</v>
       </c>
       <c r="O95">
-        <v>0.36521599999999999</v>
+        <v>0.75521099999999997</v>
       </c>
       <c r="P95">
-        <v>2.3144800000000001</v>
+        <v>4.8147200000000003</v>
       </c>
       <c r="Q95">
-        <v>25.812000000000001</v>
+        <v>51.588099999999997</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>9.8846900000000009</v>
+        <v>9.6566700000000001</v>
       </c>
       <c r="C96">
-        <v>6.0674099999999997</v>
+        <v>5.8569399999999998</v>
       </c>
       <c r="D96">
-        <v>2.7804600000000002</v>
+        <v>2.7583600000000001</v>
       </c>
       <c r="E96">
-        <v>30.717099999999999</v>
+        <v>29.9192</v>
       </c>
       <c r="G96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H96">
-        <v>8.9313000000000002</v>
+        <v>8.7747499999999992</v>
       </c>
       <c r="I96">
-        <v>0.392623</v>
+        <v>0.38876500000000003</v>
       </c>
       <c r="J96">
-        <v>2.7082700000000002</v>
+        <v>2.6873800000000001</v>
       </c>
       <c r="K96">
-        <v>22.613499999999998</v>
+        <v>22.214400000000001</v>
       </c>
       <c r="M96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N96">
-        <v>12.654299999999999</v>
+        <v>25.2958</v>
       </c>
       <c r="O96">
-        <v>0.36145100000000002</v>
+        <v>0.76570199999999999</v>
       </c>
       <c r="P96">
-        <v>2.3353100000000002</v>
+        <v>4.8696200000000003</v>
       </c>
       <c r="Q96">
-        <v>26.031500000000001</v>
+        <v>52.123100000000001</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>10.1708</v>
+        <v>9.8846900000000009</v>
       </c>
       <c r="C97">
-        <v>6.1762699999999997</v>
+        <v>6.0674099999999997</v>
       </c>
       <c r="D97">
-        <v>2.81148</v>
+        <v>2.7804600000000002</v>
       </c>
       <c r="E97">
-        <v>31.562899999999999</v>
+        <v>30.717099999999999</v>
       </c>
       <c r="G97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H97">
-        <v>9.1124700000000001</v>
+        <v>8.9313000000000002</v>
       </c>
       <c r="I97">
-        <v>0.40324100000000002</v>
+        <v>0.392623</v>
       </c>
       <c r="J97">
-        <v>2.73577</v>
+        <v>2.7082700000000002</v>
       </c>
       <c r="K97">
-        <v>23.087700000000002</v>
+        <v>22.613499999999998</v>
       </c>
       <c r="M97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N97">
-        <v>12.865500000000001</v>
+        <v>25.648099999999999</v>
       </c>
       <c r="O97">
-        <v>0.37101899999999999</v>
+        <v>0.77326499999999998</v>
       </c>
       <c r="P97">
-        <v>2.3662000000000001</v>
+        <v>4.9327800000000002</v>
       </c>
       <c r="Q97">
-        <v>26.472999999999999</v>
+        <v>52.842799999999997</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>10.5593</v>
+        <v>10.1708</v>
       </c>
       <c r="C98">
-        <v>6.4338600000000001</v>
+        <v>6.1762699999999997</v>
       </c>
       <c r="D98">
-        <v>2.8623799999999999</v>
+        <v>2.81148</v>
       </c>
       <c r="E98">
-        <v>32.8202</v>
+        <v>31.562899999999999</v>
       </c>
       <c r="G98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H98">
-        <v>9.3310499999999994</v>
+        <v>9.1124700000000001</v>
       </c>
       <c r="I98">
-        <v>0.422346</v>
+        <v>0.40324100000000002</v>
       </c>
       <c r="J98">
-        <v>2.7663600000000002</v>
+        <v>2.73577</v>
       </c>
       <c r="K98">
-        <v>23.6723</v>
+        <v>23.087700000000002</v>
       </c>
       <c r="M98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N98">
-        <v>13.0847</v>
+        <v>26.163799999999998</v>
       </c>
       <c r="O98">
-        <v>0.37648100000000001</v>
+        <v>0.791717</v>
       </c>
       <c r="P98">
-        <v>2.3996300000000002</v>
+        <v>5.0108499999999996</v>
       </c>
       <c r="Q98">
-        <v>26.9223</v>
+        <v>53.911099999999998</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>10.964700000000001</v>
+        <v>10.5593</v>
       </c>
       <c r="C99">
-        <v>6.87765</v>
+        <v>6.4338600000000001</v>
       </c>
       <c r="D99">
-        <v>2.90028</v>
+        <v>2.8623799999999999</v>
       </c>
       <c r="E99">
-        <v>34.315199999999997</v>
+        <v>32.8202</v>
       </c>
       <c r="G99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H99">
-        <v>9.6157400000000006</v>
+        <v>9.3310499999999994</v>
       </c>
       <c r="I99">
-        <v>0.453148</v>
+        <v>0.422346</v>
       </c>
       <c r="J99">
-        <v>2.8067299999999999</v>
+        <v>2.7663600000000002</v>
       </c>
       <c r="K99">
-        <v>24.445599999999999</v>
+        <v>23.6723</v>
       </c>
       <c r="M99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N99">
-        <v>13.4679</v>
+        <v>26.842199999999998</v>
       </c>
       <c r="O99">
-        <v>0.40240700000000001</v>
+        <v>0.81805000000000005</v>
       </c>
       <c r="P99">
-        <v>2.4431500000000002</v>
+        <v>5.1093700000000002</v>
       </c>
       <c r="Q99">
-        <v>27.740600000000001</v>
+        <v>55.320500000000003</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>11.3764</v>
+        <v>10.964700000000001</v>
       </c>
       <c r="C100">
-        <v>7.2892599999999996</v>
+        <v>6.87765</v>
       </c>
       <c r="D100">
-        <v>2.95648</v>
+        <v>2.90028</v>
       </c>
       <c r="E100">
-        <v>35.789400000000001</v>
+        <v>34.315199999999997</v>
       </c>
       <c r="G100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H100">
-        <v>9.9156200000000005</v>
+        <v>9.6157400000000006</v>
       </c>
       <c r="I100">
-        <v>0.47089500000000001</v>
+        <v>0.453148</v>
       </c>
       <c r="J100">
-        <v>2.8635799999999998</v>
+        <v>2.8067299999999999</v>
       </c>
       <c r="K100">
-        <v>25.230799999999999</v>
+        <v>24.445599999999999</v>
       </c>
       <c r="M100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N100">
-        <v>13.8376</v>
+        <v>27.642499999999998</v>
       </c>
       <c r="O100">
-        <v>0.416543</v>
+        <v>0.853962</v>
       </c>
       <c r="P100">
-        <v>2.49593</v>
+        <v>5.2298900000000001</v>
       </c>
       <c r="Q100">
-        <v>28.508299999999998</v>
+        <v>56.993000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>11.840999999999999</v>
+        <v>11.3764</v>
       </c>
       <c r="C101">
-        <v>7.7925599999999999</v>
+        <v>7.2892599999999996</v>
       </c>
       <c r="D101">
-        <v>3.0298099999999999</v>
+        <v>2.95648</v>
       </c>
       <c r="E101">
-        <v>37.4955</v>
+        <v>35.789400000000001</v>
       </c>
       <c r="G101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H101">
-        <v>10.287699999999999</v>
+        <v>9.9156200000000005</v>
       </c>
       <c r="I101">
-        <v>0.50453700000000001</v>
+        <v>0.47089500000000001</v>
       </c>
       <c r="J101">
-        <v>2.9338299999999999</v>
+        <v>2.8635799999999998</v>
       </c>
       <c r="K101">
-        <v>26.228400000000001</v>
+        <v>25.230799999999999</v>
       </c>
       <c r="M101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N101">
-        <v>14.274900000000001</v>
+        <v>28.017600000000002</v>
       </c>
       <c r="O101">
-        <v>0.44003100000000001</v>
+        <v>0.88012599999999996</v>
       </c>
       <c r="P101">
-        <v>2.5567899999999999</v>
+        <v>5.2618200000000002</v>
       </c>
       <c r="Q101">
-        <v>29.4298</v>
+        <v>57.795400000000001</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>12.295199999999999</v>
+        <v>11.840999999999999</v>
       </c>
       <c r="C102">
-        <v>8.2113300000000002</v>
+        <v>7.7925599999999999</v>
       </c>
       <c r="D102">
-        <v>3.1019800000000002</v>
+        <v>3.0298099999999999</v>
       </c>
       <c r="E102">
-        <v>39.087000000000003</v>
+        <v>37.4955</v>
       </c>
       <c r="G102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H102">
-        <v>10.6311</v>
+        <v>10.287699999999999</v>
       </c>
       <c r="I102">
-        <v>0.53197499999999998</v>
+        <v>0.50453700000000001</v>
       </c>
       <c r="J102">
-        <v>3.0113300000000001</v>
+        <v>2.9338299999999999</v>
       </c>
       <c r="K102">
-        <v>27.1417</v>
+        <v>26.228400000000001</v>
       </c>
       <c r="M102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N102">
-        <v>14.6518</v>
+        <v>28.327000000000002</v>
       </c>
       <c r="O102">
-        <v>0.45413599999999998</v>
+        <v>0.90156999999999998</v>
       </c>
       <c r="P102">
-        <v>2.6254300000000002</v>
+        <v>5.28043</v>
       </c>
       <c r="Q102">
-        <v>30.2119</v>
+        <v>58.457099999999997</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>12.7829</v>
+        <v>12.295199999999999</v>
       </c>
       <c r="C103">
-        <v>8.6089199999999995</v>
+        <v>8.2113300000000002</v>
       </c>
       <c r="D103">
-        <v>3.1700900000000001</v>
+        <v>3.1019800000000002</v>
       </c>
       <c r="E103">
-        <v>40.738599999999998</v>
+        <v>39.087000000000003</v>
       </c>
       <c r="G103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H103">
-        <v>10.962999999999999</v>
+        <v>10.6311</v>
       </c>
       <c r="I103">
-        <v>0.56314799999999998</v>
+        <v>0.53197499999999998</v>
       </c>
       <c r="J103">
-        <v>3.0825300000000002</v>
+        <v>3.0113300000000001</v>
       </c>
       <c r="K103">
-        <v>28.033899999999999</v>
+        <v>27.1417</v>
       </c>
       <c r="M103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N103">
-        <v>15.041700000000001</v>
+        <v>28.580100000000002</v>
       </c>
       <c r="O103">
-        <v>0.47506199999999998</v>
+        <v>0.92003500000000005</v>
       </c>
       <c r="P103">
-        <v>2.6879300000000002</v>
+        <v>5.2990899999999996</v>
       </c>
       <c r="Q103">
-        <v>31.0335</v>
+        <v>59.0002</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>13.298400000000001</v>
+        <v>12.7829</v>
       </c>
       <c r="C104">
-        <v>9.1709300000000002</v>
+        <v>8.6089199999999995</v>
       </c>
       <c r="D104">
-        <v>3.2431800000000002</v>
+        <v>3.1700900000000001</v>
       </c>
       <c r="E104">
-        <v>42.630600000000001</v>
+        <v>40.738599999999998</v>
       </c>
       <c r="G104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H104">
-        <v>11.349299999999999</v>
+        <v>10.962999999999999</v>
       </c>
       <c r="I104">
-        <v>0.59555599999999997</v>
+        <v>0.56314799999999998</v>
       </c>
       <c r="J104">
-        <v>3.1536400000000002</v>
+        <v>3.0825300000000002</v>
       </c>
       <c r="K104">
-        <v>29.064299999999999</v>
+        <v>28.033899999999999</v>
       </c>
       <c r="M104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N104">
-        <v>15.473000000000001</v>
+        <v>28.829000000000001</v>
       </c>
       <c r="O104">
-        <v>0.49299399999999999</v>
+        <v>0.93683700000000003</v>
       </c>
       <c r="P104">
-        <v>2.74932</v>
+        <v>5.3226500000000003</v>
       </c>
       <c r="Q104">
-        <v>31.931999999999999</v>
+        <v>59.531700000000001</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>13.779500000000001</v>
+        <v>13.298400000000001</v>
       </c>
       <c r="C105">
-        <v>9.6092600000000008</v>
+        <v>9.1709300000000002</v>
       </c>
       <c r="D105">
-        <v>3.3157700000000001</v>
+        <v>3.2431800000000002</v>
       </c>
       <c r="E105">
-        <v>44.307499999999997</v>
+        <v>42.630600000000001</v>
       </c>
       <c r="G105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H105">
-        <v>11.7362</v>
+        <v>11.349299999999999</v>
       </c>
       <c r="I105">
-        <v>0.63151199999999996</v>
+        <v>0.59555599999999997</v>
       </c>
       <c r="J105">
-        <v>3.2302499999999998</v>
+        <v>3.1536400000000002</v>
       </c>
       <c r="K105">
-        <v>30.1036</v>
+        <v>29.064299999999999</v>
       </c>
       <c r="M105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N105">
-        <v>15.8682</v>
+        <v>29.0642</v>
       </c>
       <c r="O105">
-        <v>0.50694399999999995</v>
+        <v>0.95169400000000004</v>
       </c>
       <c r="P105">
-        <v>2.8157700000000001</v>
+        <v>5.3468200000000001</v>
       </c>
       <c r="Q105">
-        <v>32.750399999999999</v>
+        <v>60.0319</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>14.2766</v>
+        <v>13.779500000000001</v>
       </c>
       <c r="C106">
-        <v>10.017899999999999</v>
+        <v>9.6092600000000008</v>
       </c>
       <c r="D106">
-        <v>3.37907</v>
+        <v>3.3157700000000001</v>
       </c>
       <c r="E106">
-        <v>46.000999999999998</v>
+        <v>44.307499999999997</v>
       </c>
       <c r="G106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H106">
-        <v>12.106400000000001</v>
+        <v>11.7362</v>
       </c>
       <c r="I106">
-        <v>0.66564800000000002</v>
+        <v>0.63151199999999996</v>
       </c>
       <c r="J106">
-        <v>3.2987299999999999</v>
+        <v>3.2302499999999998</v>
       </c>
       <c r="K106">
-        <v>31.097300000000001</v>
+        <v>30.1036</v>
       </c>
       <c r="M106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N106">
-        <v>16.2927</v>
+        <v>29.3367</v>
       </c>
       <c r="O106">
-        <v>0.52549400000000002</v>
+        <v>0.96961699999999995</v>
       </c>
       <c r="P106">
-        <v>2.8766699999999998</v>
+        <v>5.3715200000000003</v>
       </c>
       <c r="Q106">
-        <v>33.636299999999999</v>
+        <v>60.6126</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>14.7867</v>
+        <v>14.2766</v>
       </c>
       <c r="C107">
-        <v>10.472899999999999</v>
+        <v>10.017899999999999</v>
       </c>
       <c r="D107">
-        <v>3.45025</v>
+        <v>3.37907</v>
       </c>
       <c r="E107">
-        <v>47.770899999999997</v>
+        <v>46.000999999999998</v>
       </c>
       <c r="G107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H107">
-        <v>12.5549</v>
+        <v>12.106400000000001</v>
       </c>
       <c r="I107">
-        <v>0.70428999999999997</v>
+        <v>0.66564800000000002</v>
       </c>
       <c r="J107">
-        <v>3.3752499999999999</v>
+        <v>3.2987299999999999</v>
       </c>
       <c r="K107">
-        <v>32.295900000000003</v>
+        <v>31.097300000000001</v>
       </c>
       <c r="M107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N107">
-        <v>16.768899999999999</v>
+        <v>29.614100000000001</v>
       </c>
       <c r="O107">
-        <v>0.54503100000000004</v>
+        <v>0.98992800000000003</v>
       </c>
       <c r="P107">
-        <v>2.9421599999999999</v>
+        <v>5.3892199999999999</v>
       </c>
       <c r="Q107">
-        <v>34.627800000000001</v>
+        <v>61.208100000000002</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>15.346500000000001</v>
+        <v>14.7867</v>
       </c>
       <c r="C108">
-        <v>11.094799999999999</v>
+        <v>10.472899999999999</v>
       </c>
       <c r="D108">
-        <v>3.5240100000000001</v>
+        <v>3.45025</v>
       </c>
       <c r="E108">
-        <v>49.839399999999998</v>
+        <v>47.770899999999997</v>
       </c>
       <c r="G108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H108">
-        <v>12.97</v>
+        <v>12.5549</v>
       </c>
       <c r="I108">
-        <v>0.74953700000000001</v>
+        <v>0.70428999999999997</v>
       </c>
       <c r="J108">
-        <v>3.44401</v>
+        <v>3.3752499999999999</v>
       </c>
       <c r="K108">
-        <v>33.424100000000003</v>
+        <v>32.295900000000003</v>
       </c>
       <c r="M108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N108">
-        <v>17.187799999999999</v>
+        <v>29.9099</v>
       </c>
       <c r="O108">
-        <v>0.56574100000000005</v>
+        <v>1.00865</v>
       </c>
       <c r="P108">
-        <v>3.0002800000000001</v>
+        <v>5.4058400000000004</v>
       </c>
       <c r="Q108">
-        <v>35.506999999999998</v>
+        <v>61.837200000000003</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>15.8081</v>
+        <v>15.346500000000001</v>
       </c>
       <c r="C109">
-        <v>11.5336</v>
+        <v>11.094799999999999</v>
       </c>
       <c r="D109">
-        <v>3.6003699999999998</v>
+        <v>3.5240100000000001</v>
       </c>
       <c r="E109">
-        <v>51.470300000000002</v>
+        <v>49.839399999999998</v>
       </c>
       <c r="G109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H109">
-        <v>13.401899999999999</v>
+        <v>12.97</v>
       </c>
       <c r="I109">
-        <v>0.79268499999999997</v>
+        <v>0.74953700000000001</v>
       </c>
       <c r="J109">
-        <v>3.51898</v>
+        <v>3.44401</v>
       </c>
       <c r="K109">
-        <v>34.590200000000003</v>
+        <v>33.424100000000003</v>
       </c>
       <c r="M109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N109">
-        <v>17.676500000000001</v>
+        <v>30.169</v>
       </c>
       <c r="O109">
-        <v>0.592839</v>
+        <v>1.0264599999999999</v>
       </c>
       <c r="P109">
-        <v>3.0658300000000001</v>
+        <v>5.4123799999999997</v>
       </c>
       <c r="Q109">
-        <v>36.538699999999999</v>
+        <v>62.390799999999999</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>16.3689</v>
+        <v>15.8081</v>
       </c>
       <c r="C110">
-        <v>12.337199999999999</v>
+        <v>11.5336</v>
       </c>
       <c r="D110">
-        <v>3.6720700000000002</v>
+        <v>3.6003699999999998</v>
       </c>
       <c r="E110">
-        <v>53.7258</v>
+        <v>51.470300000000002</v>
       </c>
       <c r="G110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H110">
-        <v>13.8018</v>
+        <v>13.401899999999999</v>
       </c>
       <c r="I110">
-        <v>0.82571000000000006</v>
+        <v>0.79268499999999997</v>
       </c>
       <c r="J110">
-        <v>3.5871</v>
+        <v>3.51898</v>
       </c>
       <c r="K110">
-        <v>35.655900000000003</v>
+        <v>34.590200000000003</v>
       </c>
       <c r="M110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N110">
-        <v>17.9983</v>
+        <v>30.4224</v>
       </c>
       <c r="O110">
-        <v>0.60246900000000003</v>
+        <v>1.04078</v>
       </c>
       <c r="P110">
-        <v>3.1204000000000001</v>
+        <v>5.4249400000000003</v>
       </c>
       <c r="Q110">
-        <v>37.201500000000003</v>
+        <v>62.926299999999998</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>16.9117</v>
+        <v>16.3689</v>
       </c>
       <c r="C111">
-        <v>12.847799999999999</v>
+        <v>12.337199999999999</v>
       </c>
       <c r="D111">
-        <v>3.73244</v>
+        <v>3.6720700000000002</v>
       </c>
       <c r="E111">
-        <v>55.640300000000003</v>
+        <v>53.7258</v>
       </c>
       <c r="G111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H111">
-        <v>14.2707</v>
+        <v>13.8018</v>
       </c>
       <c r="I111">
-        <v>0.87666699999999997</v>
+        <v>0.82571000000000006</v>
       </c>
       <c r="J111">
-        <v>3.6503700000000001</v>
+        <v>3.5871</v>
       </c>
       <c r="K111">
-        <v>36.930199999999999</v>
+        <v>35.655900000000003</v>
       </c>
       <c r="M111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N111">
-        <v>18.393799999999999</v>
+        <v>30.629200000000001</v>
       </c>
       <c r="O111">
-        <v>0.61688299999999996</v>
+        <v>1.0515000000000001</v>
       </c>
       <c r="P111">
-        <v>3.17639</v>
+        <v>5.43485</v>
       </c>
       <c r="Q111">
-        <v>38.0214</v>
+        <v>63.361400000000003</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>17.5001</v>
+        <v>16.9117</v>
       </c>
       <c r="C112">
-        <v>13.437799999999999</v>
+        <v>12.847799999999999</v>
       </c>
       <c r="D112">
-        <v>3.8135500000000002</v>
+        <v>3.73244</v>
       </c>
       <c r="E112">
-        <v>57.750399999999999</v>
+        <v>55.640300000000003</v>
       </c>
       <c r="G112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H112">
-        <v>14.7401</v>
+        <v>14.2707</v>
       </c>
       <c r="I112">
-        <v>0.91975300000000004</v>
+        <v>0.87666699999999997</v>
       </c>
       <c r="J112">
-        <v>3.7303099999999998</v>
+        <v>3.6503700000000001</v>
       </c>
       <c r="K112">
-        <v>38.189799999999998</v>
+        <v>36.930199999999999</v>
       </c>
       <c r="M112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N112">
-        <v>18.786799999999999</v>
+        <v>30.7667</v>
       </c>
       <c r="O112">
-        <v>0.62935200000000002</v>
+        <v>1.05738</v>
       </c>
       <c r="P112">
-        <v>3.2429899999999998</v>
+        <v>5.4412900000000004</v>
       </c>
       <c r="Q112">
-        <v>38.832299999999996</v>
+        <v>63.648099999999999</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>18.0672</v>
+        <v>17.5001</v>
       </c>
       <c r="C113">
-        <v>14.402699999999999</v>
+        <v>13.437799999999999</v>
       </c>
       <c r="D113">
-        <v>3.8785799999999999</v>
+        <v>3.8135500000000002</v>
       </c>
       <c r="E113">
-        <v>60.195799999999998</v>
+        <v>57.750399999999999</v>
       </c>
       <c r="G113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H113">
-        <v>15.177899999999999</v>
+        <v>14.7401</v>
       </c>
       <c r="I113">
-        <v>0.95787</v>
+        <v>0.91975300000000004</v>
       </c>
       <c r="J113">
-        <v>3.8034300000000001</v>
+        <v>3.7303099999999998</v>
       </c>
       <c r="K113">
-        <v>39.360500000000002</v>
+        <v>38.189799999999998</v>
       </c>
       <c r="M113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N113">
-        <v>19.245699999999999</v>
+        <v>30.940200000000001</v>
       </c>
       <c r="O113">
-        <v>0.64993800000000002</v>
+        <v>1.0622499999999999</v>
       </c>
       <c r="P113">
-        <v>3.3088899999999999</v>
+        <v>5.45113</v>
       </c>
       <c r="Q113">
-        <v>39.791400000000003</v>
+        <v>64.004900000000006</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>18.676500000000001</v>
+        <v>18.0672</v>
       </c>
       <c r="C114">
-        <v>14.772</v>
+        <v>14.402699999999999</v>
       </c>
       <c r="D114">
-        <v>3.9639799999999998</v>
+        <v>3.8785799999999999</v>
       </c>
       <c r="E114">
-        <v>62.130600000000001</v>
+        <v>60.195799999999998</v>
       </c>
       <c r="G114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H114">
-        <v>15.6404</v>
+        <v>15.177899999999999</v>
       </c>
       <c r="I114">
-        <v>0.99534</v>
+        <v>0.95787</v>
       </c>
       <c r="J114">
-        <v>3.8813300000000002</v>
+        <v>3.8034300000000001</v>
       </c>
       <c r="K114">
-        <v>40.591799999999999</v>
+        <v>39.360500000000002</v>
       </c>
       <c r="M114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N114">
-        <v>19.612100000000002</v>
+        <v>31.0716</v>
       </c>
       <c r="O114">
-        <v>0.65783899999999995</v>
+        <v>1.06619</v>
       </c>
       <c r="P114">
-        <v>3.37296</v>
+        <v>5.4625300000000001</v>
       </c>
       <c r="Q114">
-        <v>40.539900000000003</v>
+        <v>64.275599999999997</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>19.271699999999999</v>
+        <v>18.676500000000001</v>
       </c>
       <c r="C115">
-        <v>15.420500000000001</v>
+        <v>14.772</v>
       </c>
       <c r="D115">
-        <v>4.0420100000000003</v>
+        <v>3.9639799999999998</v>
       </c>
       <c r="E115">
-        <v>64.335999999999999</v>
+        <v>62.130600000000001</v>
       </c>
       <c r="G115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H115">
-        <v>16.192699999999999</v>
+        <v>15.6404</v>
       </c>
       <c r="I115">
-        <v>1.06673</v>
+        <v>0.99534</v>
       </c>
       <c r="J115">
-        <v>3.9578099999999998</v>
+        <v>3.8813300000000002</v>
       </c>
       <c r="K115">
-        <v>42.115200000000002</v>
+        <v>40.591799999999999</v>
       </c>
       <c r="M115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N115">
-        <v>19.943999999999999</v>
+        <v>31.217700000000001</v>
       </c>
       <c r="O115">
-        <v>0.67552500000000004</v>
+        <v>1.0732600000000001</v>
       </c>
       <c r="P115">
-        <v>3.4363600000000001</v>
+        <v>5.4829600000000003</v>
       </c>
       <c r="Q115">
-        <v>41.239100000000001</v>
+        <v>64.581900000000005</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>19.890699999999999</v>
+        <v>19.271699999999999</v>
       </c>
       <c r="C116">
-        <v>16.1431</v>
+        <v>15.420500000000001</v>
       </c>
       <c r="D116">
-        <v>4.1255899999999999</v>
+        <v>4.0420100000000003</v>
       </c>
       <c r="E116">
-        <v>66.647400000000005</v>
+        <v>64.335999999999999</v>
       </c>
       <c r="G116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H116">
-        <v>16.715</v>
+        <v>16.192699999999999</v>
       </c>
       <c r="I116">
-        <v>1.11904</v>
+        <v>1.06673</v>
       </c>
       <c r="J116">
-        <v>4.0505599999999999</v>
+        <v>3.9578099999999998</v>
       </c>
       <c r="K116">
-        <v>43.525599999999997</v>
+        <v>42.115200000000002</v>
       </c>
       <c r="M116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N116">
-        <v>20.271000000000001</v>
+        <v>31.354099999999999</v>
       </c>
       <c r="O116">
-        <v>0.68009299999999995</v>
+        <v>1.07704</v>
       </c>
       <c r="P116">
-        <v>3.5199099999999999</v>
+        <v>5.5067300000000001</v>
       </c>
       <c r="Q116">
-        <v>41.902299999999997</v>
+        <v>64.862200000000001</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>20.562799999999999</v>
+        <v>19.890699999999999</v>
       </c>
       <c r="C117">
-        <v>16.932300000000001</v>
+        <v>16.1431</v>
       </c>
       <c r="D117">
-        <v>4.2067899999999998</v>
+        <v>4.1255899999999999</v>
       </c>
       <c r="E117">
-        <v>69.188900000000004</v>
+        <v>66.647400000000005</v>
       </c>
       <c r="G117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H117">
-        <v>17.350000000000001</v>
+        <v>16.715</v>
       </c>
       <c r="I117">
-        <v>1.1900599999999999</v>
+        <v>1.11904</v>
       </c>
       <c r="J117">
-        <v>4.1325599999999998</v>
+        <v>4.0505599999999999</v>
       </c>
       <c r="K117">
-        <v>45.255099999999999</v>
+        <v>43.525599999999997</v>
       </c>
       <c r="M117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N117">
-        <v>20.778600000000001</v>
+        <v>31.5413</v>
       </c>
       <c r="O117">
-        <v>0.71879599999999999</v>
+        <v>1.08907</v>
       </c>
       <c r="P117">
-        <v>3.5930200000000001</v>
+        <v>5.5470699999999997</v>
       </c>
       <c r="Q117">
-        <v>42.994900000000001</v>
+        <v>65.2607</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>21.126000000000001</v>
+        <v>20.562799999999999</v>
       </c>
       <c r="C118">
-        <v>17.588000000000001</v>
+        <v>16.932300000000001</v>
       </c>
       <c r="D118">
-        <v>4.2989199999999999</v>
+        <v>4.2067899999999998</v>
       </c>
       <c r="E118">
-        <v>71.303700000000006</v>
+        <v>69.188900000000004</v>
       </c>
       <c r="G118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H118">
-        <v>17.963999999999999</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="I118">
-        <v>1.2512000000000001</v>
+        <v>1.1900599999999999</v>
       </c>
       <c r="J118">
-        <v>4.2354000000000003</v>
+        <v>4.1325599999999998</v>
       </c>
       <c r="K118">
-        <v>46.912300000000002</v>
+        <v>45.255099999999999</v>
       </c>
       <c r="M118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N118">
-        <v>21.2209</v>
+        <v>31.8065</v>
       </c>
       <c r="O118">
-        <v>0.74240700000000004</v>
+        <v>1.1109</v>
       </c>
       <c r="P118">
-        <v>3.6846299999999998</v>
+        <v>5.5965600000000002</v>
       </c>
       <c r="Q118">
-        <v>43.926499999999997</v>
+        <v>65.834699999999998</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>21.8508</v>
+        <v>21.126000000000001</v>
       </c>
       <c r="C119">
-        <v>18.3933</v>
+        <v>17.588000000000001</v>
       </c>
       <c r="D119">
-        <v>4.4074999999999998</v>
+        <v>4.2989199999999999</v>
       </c>
       <c r="E119">
-        <v>73.994799999999998</v>
+        <v>71.303700000000006</v>
       </c>
       <c r="G119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H119">
-        <v>18.692399999999999</v>
+        <v>17.963999999999999</v>
       </c>
       <c r="I119">
-        <v>1.32361</v>
+        <v>1.2512000000000001</v>
       </c>
       <c r="J119">
-        <v>4.3320100000000004</v>
+        <v>4.2354000000000003</v>
       </c>
       <c r="K119">
-        <v>48.8782</v>
+        <v>46.912300000000002</v>
       </c>
       <c r="M119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N119">
-        <v>21.728999999999999</v>
+        <v>32.146599999999999</v>
       </c>
       <c r="O119">
-        <v>0.75966</v>
+        <v>1.13748</v>
       </c>
       <c r="P119">
-        <v>3.7701500000000001</v>
+        <v>5.66465</v>
       </c>
       <c r="Q119">
-        <v>44.977400000000003</v>
+        <v>66.568200000000004</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>22.447199999999999</v>
+        <v>21.8508</v>
       </c>
       <c r="C120">
-        <v>18.975999999999999</v>
+        <v>18.3933</v>
       </c>
       <c r="D120">
-        <v>4.5095700000000001</v>
+        <v>4.4074999999999998</v>
       </c>
       <c r="E120">
-        <v>76.118399999999994</v>
+        <v>73.994799999999998</v>
       </c>
       <c r="G120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H120">
-        <v>19.2928</v>
+        <v>18.692399999999999</v>
       </c>
       <c r="I120">
-        <v>1.3950899999999999</v>
+        <v>1.32361</v>
       </c>
       <c r="J120">
-        <v>4.4248099999999999</v>
+        <v>4.3320100000000004</v>
       </c>
       <c r="K120">
-        <v>50.522300000000001</v>
+        <v>48.8782</v>
       </c>
       <c r="M120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N120">
-        <v>21.9741</v>
+        <v>32.531700000000001</v>
       </c>
       <c r="O120">
-        <v>0.775648</v>
+        <v>1.1638900000000001</v>
       </c>
       <c r="P120">
-        <v>3.8545400000000001</v>
+        <v>5.7455800000000004</v>
       </c>
       <c r="Q120">
-        <v>45.499600000000001</v>
+        <v>67.391099999999994</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>22.447199999999999</v>
+      </c>
+      <c r="C121">
+        <v>18.975999999999999</v>
+      </c>
+      <c r="D121">
+        <v>4.5095700000000001</v>
+      </c>
+      <c r="E121">
+        <v>76.118399999999994</v>
+      </c>
+      <c r="G121">
+        <v>119</v>
+      </c>
+      <c r="H121">
+        <v>19.2928</v>
+      </c>
+      <c r="I121">
+        <v>1.3950899999999999</v>
+      </c>
+      <c r="J121">
+        <v>4.4248099999999999</v>
+      </c>
+      <c r="K121">
+        <v>50.522300000000001</v>
+      </c>
+      <c r="M121">
+        <v>119</v>
+      </c>
+      <c r="N121">
+        <v>32.993899999999996</v>
+      </c>
+      <c r="O121">
+        <v>1.19272</v>
+      </c>
+      <c r="P121">
+        <v>5.8498000000000001</v>
+      </c>
+      <c r="Q121">
+        <v>68.373199999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>23.139900000000001</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <v>19.7439</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>4.6284599999999996</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>78.6922</v>
       </c>
-      <c r="G121">
+      <c r="G122">
         <v>120</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <v>20.157800000000002</v>
       </c>
-      <c r="I121">
+      <c r="I122">
         <v>1.4857400000000001</v>
       </c>
-      <c r="J121">
+      <c r="J122">
         <v>4.5319399999999996</v>
       </c>
-      <c r="K121">
+      <c r="K122">
         <v>52.865900000000003</v>
       </c>
-      <c r="M121">
+      <c r="M122">
         <v>120</v>
       </c>
-      <c r="N121">
-        <v>22.6008</v>
-      </c>
-      <c r="O121">
-        <v>0.81583300000000003</v>
-      </c>
-      <c r="P121">
-        <v>3.95546</v>
-      </c>
-      <c r="Q121">
-        <v>46.833300000000001</v>
+      <c r="N122">
+        <v>33.550899999999999</v>
+      </c>
+      <c r="O122">
+        <v>1.23532</v>
+      </c>
+      <c r="P122">
+        <v>5.9623699999999999</v>
+      </c>
+      <c r="Q122">
+        <v>69.572500000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <f>AVERAGE(B3:B122)</f>
+        <v>23.953437750000013</v>
+      </c>
+      <c r="C123">
+        <f>AVERAGE(C3:C122)</f>
+        <v>21.725309333333353</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123" si="0">AVERAGE(D3:D122)</f>
+        <v>5.0857189166666661</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ref="E123" si="1">AVERAGE(E3:E122)</f>
+        <v>82.712457499999999</v>
+      </c>
+      <c r="H123">
+        <f>AVERAGE(H3:H122)</f>
+        <v>23.749342999999985</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ref="I123" si="2">AVERAGE(I3:I122)</f>
+        <v>1.6900487500000012</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ref="J123" si="3">AVERAGE(J3:J122)</f>
+        <v>5.0109625833333347</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ref="K123" si="4">AVERAGE(K3:K122)</f>
+        <v>62.253455000000002</v>
+      </c>
+      <c r="N123">
+        <f>AVERAGE(N3:N122)</f>
+        <v>33.257415000000002</v>
+      </c>
+      <c r="O123">
+        <f>AVERAGE(O3:O122)</f>
+        <v>1.1515320083333336</v>
+      </c>
+      <c r="P123">
+        <f>AVERAGE(P3:P122)</f>
+        <v>5.9021684166666653</v>
+      </c>
+      <c r="Q123">
+        <f>AVERAGE(Q3:Q122)</f>
+        <v>68.81789999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <f>B123/$B$123</f>
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <f>C123/$C$123</f>
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <f>D123/$D$123</f>
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <f>E123/$E$123</f>
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <f>H123/$B$123</f>
+        <v>0.99147952155635666</v>
+      </c>
+      <c r="I124">
+        <f>I123/$C$123</f>
+        <v>7.7791700181085249E-2</v>
+      </c>
+      <c r="J124">
+        <f>J123/$D$123</f>
+        <v>0.98530073435864818</v>
+      </c>
+      <c r="K124">
+        <f>K123/$E$123</f>
+        <v>0.75264907949325532</v>
+      </c>
+      <c r="N124">
+        <f>N123/$B$123</f>
+        <v>1.3884192885841609</v>
+      </c>
+      <c r="O124">
+        <f>O123/$C$123</f>
+        <v>5.3004170880390035E-2</v>
+      </c>
+      <c r="P124">
+        <f>P123/$D$123</f>
+        <v>1.1605376768512257</v>
+      </c>
+      <c r="Q124">
+        <f>Q123/$E$123</f>
+        <v>0.83201372659009654</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Statistics/BVH_Performance.xlsx
+++ b/Statistics/BVH_Performance.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Projects\Radiance\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD719259-2688-442E-A6DA-F3F9EEB1DFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757AE8E5-D651-4EDD-B2E3-41EBE0224436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
   </bookViews>
   <sheets>
     <sheet name="unity.tri" sheetId="1" r:id="rId1"/>
     <sheet name="unity.tri powered" sheetId="2" r:id="rId2"/>
-    <sheet name="BVH Metrics" sheetId="3" r:id="rId3"/>
-    <sheet name="BVH Metrics v2" sheetId="4" r:id="rId4"/>
+    <sheet name="unity.tri 2" sheetId="5" r:id="rId3"/>
+    <sheet name="BVH Metrics" sheetId="3" r:id="rId4"/>
+    <sheet name="BVH Metrics v2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>SAH v1</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t>SAH v1 Closest child v2</t>
+  </si>
+  <si>
+    <t>SAH v1 closest child</t>
+  </si>
+  <si>
+    <t>SAH v1 closest child v2</t>
   </si>
 </sst>
 </file>
@@ -5622,6 +5629,3513 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>Average FPS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Middle split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$B$2:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>118.89700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.60300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140.29400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126.017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101.428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.7864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.662499999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80.890500000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.151799999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.408900000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75.338800000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72.112399999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.629300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.179400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.721299999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.410700000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.3553</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.500900000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74.903000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78.1554</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80.629599999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83.015199999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86.760400000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.711399999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90.403899999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93.030900000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>96.073400000000007</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.289299999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102.479</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>104.184</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106.81</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>111.04600000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>115.262</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>125.217</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132.696</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>142.29900000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>151.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>161.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>173.845</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>186.298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>199.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>212.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>222.67500000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>233.61799999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>245.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>252.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>275.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>282.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>287.05500000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>290.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>299.45699999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>279.32100000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>273.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>303.666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>282.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>286.50599999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>275.47699999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>287.48399999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>292.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>265.34100000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>290.94099999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>279.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>286.024</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>297.73899999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>295.089</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>305.70699999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>322.37299999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>304.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>304.99799999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>294.84300000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>332.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>324.822</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>346.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>340.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>355.50599999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>358.00900000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>342.60500000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>368.923</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>362.03399999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>387.05200000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>418.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>402.56400000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>363.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>342.95499999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>378.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>371.00599999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>380.279</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>363.947</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>331.22899999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>346.101</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>323.363</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>287.06</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>305.77199999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>281.04399999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>282.38600000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>283.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>253.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>269.18900000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>244.61600000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>231.14699999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>230.39599999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>224.65600000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>210.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>215.78</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>209.93899999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>202.71299999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>192.423</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>187.11600000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>182.334</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>177.239</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>173.82599999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>169.98099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-568A-4968-970B-927AA61AD5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$C$2:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>248.40100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.64400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207.75899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217.577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217.678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207.28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198.78299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>187.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>174.58099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163.303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153.892</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>139.214</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>130.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127.90900000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>122.479</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.306</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>121.76600000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120.56399999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122.29900000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>122.587</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>124.651</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>128.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140.887</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>143.56899999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>147.22900000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147.631</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>147.70599999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>148.209</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>147.93</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>149.98500000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>154.572</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>158.93</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>164.11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>170.47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>177.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>185.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>194.49600000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>203.46299999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>238.298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>259.31400000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>280.93099999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>304.22399999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>328.95100000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>352.67099999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>374.51400000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>400.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>425.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>451.48899999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>466.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>481.35700000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>486.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>500.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>499.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>510.53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>518.13699999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>520.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>522.11099999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>528.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>538.83299999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>540.69399999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>538.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>544.28899999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>549.37699999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>560.35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>569.65499999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>568.04700000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>575.99199999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>598.03700000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>592.45500000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>608.76900000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>618.322</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>632.87300000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>641.63199999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>651.83600000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>672.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>692.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>698.45799999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>715.66499999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>730.43700000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>740.91600000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>757.21400000000006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>773.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>781.71500000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>770.08</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>778.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>780.81100000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>771.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>759.59</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>724.31399999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>715.005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>696.34199999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>670.04600000000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>647.23500000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>633.23699999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>608.42499999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>584.19500000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>562.57600000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>538.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>531.90099999999995</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>509.19400000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>482.76299999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>469.95</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>447.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>434.983</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>429.41199999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>417.37099999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>397.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>379.351</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>367.92899999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>354.07</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>337.87099999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>330.267</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>318.74200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-568A-4968-970B-927AA61AD5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1 closest child</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$D$2:$D$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>264.56099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260.53899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254.91200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>246.869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>237.41900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>308.226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>306.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>293.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>285.88299999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>280.142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>276.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267.786</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260.976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252.58799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>248.404</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>242.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>237.74100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>234.02799999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>233.161</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>230.80600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230.09399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231.095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>237.83099999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>234.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>230.434</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>231.68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>223.381</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>221.43100000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>222.172</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>225.953</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>224.44300000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>223.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>220.38800000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>214.39500000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>210.91399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>209.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>207.346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>208.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>213.815</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>218.40799999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>222.81800000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>230.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>238.47800000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>246.505</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>253.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>261.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>269.61</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>273.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>279.76</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>289.59300000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>302.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>315.81900000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>325.23200000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>339.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>346.613</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>362.06599999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>369.83</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>380.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>388.11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>394.93</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>401.541</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>405.72399999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>410.39100000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>416.51100000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>436.09199999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>433.58300000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>438.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>444.072</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>456.57799999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>467.089</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>473.63799999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>473.988</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>483.17200000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>500.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>503.11399999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>512.64300000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>522.80600000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>530.649</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>537.86199999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>548.55399999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>565.51400000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>572.35500000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>584.64200000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>599.97199999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>623.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>629.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>652.92700000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>676.66300000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>638.91600000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>642.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>655.87300000000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>681.92600000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>660.39200000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>627.02300000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>618.88699999999994</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>606.17499999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>589.73400000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>585.02200000000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>569.68700000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>557.34900000000005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>545.00199999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>521.65300000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>503.75</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>502.767</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>483.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>468.71499999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>451.17599999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>444.73899999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>438.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>436.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>425.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>416.185</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>408.34199999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>402.98</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>399.92</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>383.82100000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>377.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>374.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>363.65899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-568A-4968-970B-927AA61AD5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1 closest child v2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$E$2:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>343.983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>335.96499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310.70400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>302.58800000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>299.06599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>385.79500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>372.096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>368.726</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>360.35500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>348.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>341.64299999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>331.57400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320.39100000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>317.06099999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>309.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>306.15699999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>303.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>301.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>299.92099999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>299.072</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>308.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>306.81099999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>301.08800000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>302.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>302.63600000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>298.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>297.81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>298.68700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>297.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>295.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>287.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>267.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>261.13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>262.25299999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>264.52600000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>269.93799999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>275.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>280.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>289.58</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>299.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>311.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>319.50299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>329.452</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>341.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>354.55399999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>365.709</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>375.68400000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>385.34399999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>399.40800000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>418.00799999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>426.685</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>447.863</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>460.16199999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>478.69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>492.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>500.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>510.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>517.13800000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>521.94100000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>530.38199999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>534.09900000000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>542.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>550.38</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>549.39200000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>553.96</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>559.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>561.41499999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>573.78200000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>588.31600000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>591.81500000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>612.16899999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>623.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>622.75099999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>640.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>655.44</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>661.77599999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>682.60799999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>698.03499999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>716.88800000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>724.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>733.90599999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>751.40200000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>751.029</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>768.68399999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>789.51599999999996</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>800.79700000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>808.17399999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>806.24400000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>824.01199999999994</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>812.61300000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>824.38</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>815.39200000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>792.73699999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>782.90200000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>758.46199999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>742.52599999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>725.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>708.45799999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>686.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>670.65700000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>657.30899999999997</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>640.81899999999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>619.923</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>604.67100000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>584.41499999999996</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>578.61900000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>568.34100000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>556.37199999999996</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>544.66899999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>536.34799999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>532.28399999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>525.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>512.84199999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>502.34</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>485.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>483.19</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>474.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-568A-4968-970B-927AA61AD5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1722256944"/>
+        <c:axId val="1722279024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1722256944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Orbit index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1722279024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1722279024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1722256944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Average</a:t>
             </a:r>
             <a:r>
@@ -8310,7 +11824,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8867,7 +12381,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12137,7 +15651,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12265,7 +15779,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15859,6 +19373,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17447,509 +21001,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18465,7 +21516,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19067,6 +23137,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD029D4-9AFA-6F33-F007-24BE84A4F327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -19140,7 +23251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22965,6 +27076,2086 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1F2289-1ADE-4875-A98C-2E60B5E7C362}">
+  <dimension ref="A1:E121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>118.89700000000001</v>
+      </c>
+      <c r="C2">
+        <v>248.40100000000001</v>
+      </c>
+      <c r="D2">
+        <v>264.56099999999998</v>
+      </c>
+      <c r="E2">
+        <v>343.983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>141.60300000000001</v>
+      </c>
+      <c r="C3">
+        <v>235.642</v>
+      </c>
+      <c r="D3">
+        <v>260.53899999999999</v>
+      </c>
+      <c r="E3">
+        <v>335.96499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>156.12799999999999</v>
+      </c>
+      <c r="C4">
+        <v>226.64400000000001</v>
+      </c>
+      <c r="D4">
+        <v>254.91200000000001</v>
+      </c>
+      <c r="E4">
+        <v>330.59500000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>150.255</v>
+      </c>
+      <c r="C5">
+        <v>215.911</v>
+      </c>
+      <c r="D5">
+        <v>246.869</v>
+      </c>
+      <c r="E5">
+        <v>323.77600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>144.083</v>
+      </c>
+      <c r="C6">
+        <v>207.75899999999999</v>
+      </c>
+      <c r="D6">
+        <v>244.077</v>
+      </c>
+      <c r="E6">
+        <v>317.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>140.29400000000001</v>
+      </c>
+      <c r="C7">
+        <v>217.577</v>
+      </c>
+      <c r="D7">
+        <v>237.41900000000001</v>
+      </c>
+      <c r="E7">
+        <v>310.70400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>135.149</v>
+      </c>
+      <c r="C8">
+        <v>229.17599999999999</v>
+      </c>
+      <c r="D8">
+        <v>308.226</v>
+      </c>
+      <c r="E8">
+        <v>302.58800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>126.017</v>
+      </c>
+      <c r="C9">
+        <v>217.678</v>
+      </c>
+      <c r="D9">
+        <v>306.2</v>
+      </c>
+      <c r="E9">
+        <v>299.06599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>118.61199999999999</v>
+      </c>
+      <c r="C10">
+        <v>207.28</v>
+      </c>
+      <c r="D10">
+        <v>293.00299999999999</v>
+      </c>
+      <c r="E10">
+        <v>385.79500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>110.89</v>
+      </c>
+      <c r="C11">
+        <v>198.78299999999999</v>
+      </c>
+      <c r="D11">
+        <v>285.88299999999998</v>
+      </c>
+      <c r="E11">
+        <v>372.096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>101.428</v>
+      </c>
+      <c r="C12">
+        <v>187.97499999999999</v>
+      </c>
+      <c r="D12">
+        <v>280.142</v>
+      </c>
+      <c r="E12">
+        <v>368.726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>93.7864</v>
+      </c>
+      <c r="C13">
+        <v>174.58099999999999</v>
+      </c>
+      <c r="D13">
+        <v>276.69200000000001</v>
+      </c>
+      <c r="E13">
+        <v>360.35500000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>82.662499999999994</v>
+      </c>
+      <c r="C14">
+        <v>163.303</v>
+      </c>
+      <c r="D14">
+        <v>267.786</v>
+      </c>
+      <c r="E14">
+        <v>348.61099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>80.890500000000003</v>
+      </c>
+      <c r="C15">
+        <v>153.892</v>
+      </c>
+      <c r="D15">
+        <v>260.976</v>
+      </c>
+      <c r="E15">
+        <v>341.64299999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>80.151799999999994</v>
+      </c>
+      <c r="C16">
+        <v>145.369</v>
+      </c>
+      <c r="D16">
+        <v>252.58799999999999</v>
+      </c>
+      <c r="E16">
+        <v>331.57400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>78.408900000000003</v>
+      </c>
+      <c r="C17">
+        <v>139.214</v>
+      </c>
+      <c r="D17">
+        <v>248.404</v>
+      </c>
+      <c r="E17">
+        <v>320.39100000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>75.338800000000006</v>
+      </c>
+      <c r="C18">
+        <v>134.01499999999999</v>
+      </c>
+      <c r="D18">
+        <v>242.375</v>
+      </c>
+      <c r="E18">
+        <v>317.06099999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>72.112399999999994</v>
+      </c>
+      <c r="C19">
+        <v>130.30500000000001</v>
+      </c>
+      <c r="D19">
+        <v>237.74100000000001</v>
+      </c>
+      <c r="E19">
+        <v>309.88799999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>69.629300000000001</v>
+      </c>
+      <c r="C20">
+        <v>127.90900000000001</v>
+      </c>
+      <c r="D20">
+        <v>234.02799999999999</v>
+      </c>
+      <c r="E20">
+        <v>306.15699999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>67.179400000000001</v>
+      </c>
+      <c r="C21">
+        <v>122.479</v>
+      </c>
+      <c r="D21">
+        <v>233.161</v>
+      </c>
+      <c r="E21">
+        <v>303.48099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>65.721299999999999</v>
+      </c>
+      <c r="C22">
+        <v>120.306</v>
+      </c>
+      <c r="D22">
+        <v>230.80600000000001</v>
+      </c>
+      <c r="E22">
+        <v>301.81200000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>66.410700000000006</v>
+      </c>
+      <c r="C23">
+        <v>121.76600000000001</v>
+      </c>
+      <c r="D23">
+        <v>230.09399999999999</v>
+      </c>
+      <c r="E23">
+        <v>299.92099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>68.3553</v>
+      </c>
+      <c r="C24">
+        <v>120.56399999999999</v>
+      </c>
+      <c r="D24">
+        <v>231.095</v>
+      </c>
+      <c r="E24">
+        <v>299.072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>71.500900000000001</v>
+      </c>
+      <c r="C25">
+        <v>122.29900000000001</v>
+      </c>
+      <c r="D25">
+        <v>237.83099999999999</v>
+      </c>
+      <c r="E25">
+        <v>308.39400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>74.903000000000006</v>
+      </c>
+      <c r="C26">
+        <v>122.587</v>
+      </c>
+      <c r="D26">
+        <v>234.00200000000001</v>
+      </c>
+      <c r="E26">
+        <v>306.81099999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>78.1554</v>
+      </c>
+      <c r="C27">
+        <v>124.651</v>
+      </c>
+      <c r="D27">
+        <v>230.434</v>
+      </c>
+      <c r="E27">
+        <v>301.08800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>80.629599999999996</v>
+      </c>
+      <c r="C28">
+        <v>128.25</v>
+      </c>
+      <c r="D28">
+        <v>231.68</v>
+      </c>
+      <c r="E28">
+        <v>302.19200000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>83.015199999999993</v>
+      </c>
+      <c r="C29">
+        <v>135.44499999999999</v>
+      </c>
+      <c r="D29">
+        <v>223.381</v>
+      </c>
+      <c r="E29">
+        <v>302.63600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>86.760400000000004</v>
+      </c>
+      <c r="C30">
+        <v>140.887</v>
+      </c>
+      <c r="D30">
+        <v>221.43100000000001</v>
+      </c>
+      <c r="E30">
+        <v>298.81799999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>87.711399999999998</v>
+      </c>
+      <c r="C31">
+        <v>143.56899999999999</v>
+      </c>
+      <c r="D31">
+        <v>222.172</v>
+      </c>
+      <c r="E31">
+        <v>297.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>90.403899999999993</v>
+      </c>
+      <c r="C32">
+        <v>147.22900000000001</v>
+      </c>
+      <c r="D32">
+        <v>225.953</v>
+      </c>
+      <c r="E32">
+        <v>298.68700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>93.030900000000003</v>
+      </c>
+      <c r="C33">
+        <v>147.631</v>
+      </c>
+      <c r="D33">
+        <v>224.44300000000001</v>
+      </c>
+      <c r="E33">
+        <v>297.70299999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>96.073400000000007</v>
+      </c>
+      <c r="C34">
+        <v>147.70599999999999</v>
+      </c>
+      <c r="D34">
+        <v>223.38900000000001</v>
+      </c>
+      <c r="E34">
+        <v>295.41300000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>99.289299999999997</v>
+      </c>
+      <c r="C35">
+        <v>148.209</v>
+      </c>
+      <c r="D35">
+        <v>220.38800000000001</v>
+      </c>
+      <c r="E35">
+        <v>287.59199999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>102.09399999999999</v>
+      </c>
+      <c r="C36">
+        <v>147.93</v>
+      </c>
+      <c r="D36">
+        <v>214.39500000000001</v>
+      </c>
+      <c r="E36">
+        <v>267.91500000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>102.479</v>
+      </c>
+      <c r="C37">
+        <v>149.98500000000001</v>
+      </c>
+      <c r="D37">
+        <v>210.91399999999999</v>
+      </c>
+      <c r="E37">
+        <v>261.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>104.184</v>
+      </c>
+      <c r="C38">
+        <v>154.572</v>
+      </c>
+      <c r="D38">
+        <v>209.71799999999999</v>
+      </c>
+      <c r="E38">
+        <v>262.25299999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>106.81</v>
+      </c>
+      <c r="C39">
+        <v>158.93</v>
+      </c>
+      <c r="D39">
+        <v>207.346</v>
+      </c>
+      <c r="E39">
+        <v>264.52600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>111.04600000000001</v>
+      </c>
+      <c r="C40">
+        <v>164.11</v>
+      </c>
+      <c r="D40">
+        <v>208.80799999999999</v>
+      </c>
+      <c r="E40">
+        <v>269.93799999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>115.262</v>
+      </c>
+      <c r="C41">
+        <v>170.47</v>
+      </c>
+      <c r="D41">
+        <v>213.815</v>
+      </c>
+      <c r="E41">
+        <v>275.36399999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>120.02500000000001</v>
+      </c>
+      <c r="C42">
+        <v>177.89400000000001</v>
+      </c>
+      <c r="D42">
+        <v>218.40799999999999</v>
+      </c>
+      <c r="E42">
+        <v>280.62700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>125.217</v>
+      </c>
+      <c r="C43">
+        <v>185.36099999999999</v>
+      </c>
+      <c r="D43">
+        <v>222.81800000000001</v>
+      </c>
+      <c r="E43">
+        <v>289.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>132.696</v>
+      </c>
+      <c r="C44">
+        <v>194.49600000000001</v>
+      </c>
+      <c r="D44">
+        <v>230.22800000000001</v>
+      </c>
+      <c r="E44">
+        <v>299.79000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>142.29900000000001</v>
+      </c>
+      <c r="C45">
+        <v>203.46299999999999</v>
+      </c>
+      <c r="D45">
+        <v>238.47800000000001</v>
+      </c>
+      <c r="E45">
+        <v>311.29300000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>151.70699999999999</v>
+      </c>
+      <c r="C46">
+        <v>220.99299999999999</v>
+      </c>
+      <c r="D46">
+        <v>246.505</v>
+      </c>
+      <c r="E46">
+        <v>319.50299999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>161.12700000000001</v>
+      </c>
+      <c r="C47">
+        <v>238.298</v>
+      </c>
+      <c r="D47">
+        <v>253.13499999999999</v>
+      </c>
+      <c r="E47">
+        <v>329.452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>173.845</v>
+      </c>
+      <c r="C48">
+        <v>259.31400000000002</v>
+      </c>
+      <c r="D48">
+        <v>261.85500000000002</v>
+      </c>
+      <c r="E48">
+        <v>341.40499999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>186.298</v>
+      </c>
+      <c r="C49">
+        <v>280.93099999999998</v>
+      </c>
+      <c r="D49">
+        <v>269.61</v>
+      </c>
+      <c r="E49">
+        <v>354.55399999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>199.84100000000001</v>
+      </c>
+      <c r="C50">
+        <v>304.22399999999999</v>
+      </c>
+      <c r="D50">
+        <v>273.78800000000001</v>
+      </c>
+      <c r="E50">
+        <v>365.709</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>212.35599999999999</v>
+      </c>
+      <c r="C51">
+        <v>328.95100000000002</v>
+      </c>
+      <c r="D51">
+        <v>279.76</v>
+      </c>
+      <c r="E51">
+        <v>375.68400000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>222.67500000000001</v>
+      </c>
+      <c r="C52">
+        <v>352.67099999999999</v>
+      </c>
+      <c r="D52">
+        <v>289.59300000000002</v>
+      </c>
+      <c r="E52">
+        <v>385.34399999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>233.61799999999999</v>
+      </c>
+      <c r="C53">
+        <v>374.51400000000001</v>
+      </c>
+      <c r="D53">
+        <v>302.46199999999999</v>
+      </c>
+      <c r="E53">
+        <v>399.40800000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>245.82499999999999</v>
+      </c>
+      <c r="C54">
+        <v>400.01400000000001</v>
+      </c>
+      <c r="D54">
+        <v>315.81900000000002</v>
+      </c>
+      <c r="E54">
+        <v>418.00799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>252.13300000000001</v>
+      </c>
+      <c r="C55">
+        <v>425.17599999999999</v>
+      </c>
+      <c r="D55">
+        <v>325.23200000000003</v>
+      </c>
+      <c r="E55">
+        <v>426.685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>275.32400000000001</v>
+      </c>
+      <c r="C56">
+        <v>451.48899999999998</v>
+      </c>
+      <c r="D56">
+        <v>339.80799999999999</v>
+      </c>
+      <c r="E56">
+        <v>447.863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>282.13400000000001</v>
+      </c>
+      <c r="C57">
+        <v>466.77600000000001</v>
+      </c>
+      <c r="D57">
+        <v>346.613</v>
+      </c>
+      <c r="E57">
+        <v>460.16199999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>287.05500000000001</v>
+      </c>
+      <c r="C58">
+        <v>481.35700000000003</v>
+      </c>
+      <c r="D58">
+        <v>362.06599999999997</v>
+      </c>
+      <c r="E58">
+        <v>478.69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>290.38400000000001</v>
+      </c>
+      <c r="C59">
+        <v>486.56700000000001</v>
+      </c>
+      <c r="D59">
+        <v>369.83</v>
+      </c>
+      <c r="E59">
+        <v>492.77499999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>299.45699999999999</v>
+      </c>
+      <c r="C60">
+        <v>500.88299999999998</v>
+      </c>
+      <c r="D60">
+        <v>380.36599999999999</v>
+      </c>
+      <c r="E60">
+        <v>500.69499999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>279.32100000000003</v>
+      </c>
+      <c r="C61">
+        <v>499.99400000000003</v>
+      </c>
+      <c r="D61">
+        <v>388.11</v>
+      </c>
+      <c r="E61">
+        <v>510.29599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>273.07499999999999</v>
+      </c>
+      <c r="C62">
+        <v>510.53</v>
+      </c>
+      <c r="D62">
+        <v>394.93</v>
+      </c>
+      <c r="E62">
+        <v>517.13800000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>303.666</v>
+      </c>
+      <c r="C63">
+        <v>518.13699999999994</v>
+      </c>
+      <c r="D63">
+        <v>401.541</v>
+      </c>
+      <c r="E63">
+        <v>521.94100000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>282.62599999999998</v>
+      </c>
+      <c r="C64">
+        <v>520.17999999999995</v>
+      </c>
+      <c r="D64">
+        <v>405.72399999999999</v>
+      </c>
+      <c r="E64">
+        <v>530.38199999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>286.50599999999997</v>
+      </c>
+      <c r="C65">
+        <v>522.11099999999999</v>
+      </c>
+      <c r="D65">
+        <v>410.39100000000002</v>
+      </c>
+      <c r="E65">
+        <v>534.09900000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>275.47699999999998</v>
+      </c>
+      <c r="C66">
+        <v>528.92399999999998</v>
+      </c>
+      <c r="D66">
+        <v>416.51100000000002</v>
+      </c>
+      <c r="E66">
+        <v>542.46799999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>287.48399999999998</v>
+      </c>
+      <c r="C67">
+        <v>538.83299999999997</v>
+      </c>
+      <c r="D67">
+        <v>436.09199999999998</v>
+      </c>
+      <c r="E67">
+        <v>550.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>292.46100000000001</v>
+      </c>
+      <c r="C68">
+        <v>540.69399999999996</v>
+      </c>
+      <c r="D68">
+        <v>433.58300000000003</v>
+      </c>
+      <c r="E68">
+        <v>549.39200000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>265.34100000000001</v>
+      </c>
+      <c r="C69">
+        <v>538.15800000000002</v>
+      </c>
+      <c r="D69">
+        <v>438.6</v>
+      </c>
+      <c r="E69">
+        <v>553.96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>290.94099999999997</v>
+      </c>
+      <c r="C70">
+        <v>544.28899999999999</v>
+      </c>
+      <c r="D70">
+        <v>444.072</v>
+      </c>
+      <c r="E70">
+        <v>559.15800000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>279.22800000000001</v>
+      </c>
+      <c r="C71">
+        <v>549.37699999999995</v>
+      </c>
+      <c r="D71">
+        <v>456.57799999999997</v>
+      </c>
+      <c r="E71">
+        <v>561.41499999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>286.024</v>
+      </c>
+      <c r="C72">
+        <v>560.35</v>
+      </c>
+      <c r="D72">
+        <v>467.089</v>
+      </c>
+      <c r="E72">
+        <v>573.78200000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>297.73899999999998</v>
+      </c>
+      <c r="C73">
+        <v>569.65499999999997</v>
+      </c>
+      <c r="D73">
+        <v>473.63799999999998</v>
+      </c>
+      <c r="E73">
+        <v>588.31600000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>295.089</v>
+      </c>
+      <c r="C74">
+        <v>568.04700000000003</v>
+      </c>
+      <c r="D74">
+        <v>473.988</v>
+      </c>
+      <c r="E74">
+        <v>591.81500000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>305.70699999999999</v>
+      </c>
+      <c r="C75">
+        <v>575.99199999999996</v>
+      </c>
+      <c r="D75">
+        <v>483.17200000000003</v>
+      </c>
+      <c r="E75">
+        <v>612.16899999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>322.37299999999999</v>
+      </c>
+      <c r="C76">
+        <v>598.03700000000003</v>
+      </c>
+      <c r="D76">
+        <v>500.25599999999997</v>
+      </c>
+      <c r="E76">
+        <v>623.13900000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>304.36099999999999</v>
+      </c>
+      <c r="C77">
+        <v>592.45500000000004</v>
+      </c>
+      <c r="D77">
+        <v>503.11399999999998</v>
+      </c>
+      <c r="E77">
+        <v>622.75099999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>304.99799999999999</v>
+      </c>
+      <c r="C78">
+        <v>608.76900000000001</v>
+      </c>
+      <c r="D78">
+        <v>512.64300000000003</v>
+      </c>
+      <c r="E78">
+        <v>640.56700000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>294.84300000000002</v>
+      </c>
+      <c r="C79">
+        <v>618.322</v>
+      </c>
+      <c r="D79">
+        <v>522.80600000000004</v>
+      </c>
+      <c r="E79">
+        <v>655.44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>332.97300000000001</v>
+      </c>
+      <c r="C80">
+        <v>632.87300000000005</v>
+      </c>
+      <c r="D80">
+        <v>530.649</v>
+      </c>
+      <c r="E80">
+        <v>661.77599999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>324.822</v>
+      </c>
+      <c r="C81">
+        <v>641.63199999999995</v>
+      </c>
+      <c r="D81">
+        <v>537.86199999999997</v>
+      </c>
+      <c r="E81">
+        <v>682.60799999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>346.33600000000001</v>
+      </c>
+      <c r="C82">
+        <v>651.83600000000001</v>
+      </c>
+      <c r="D82">
+        <v>548.55399999999997</v>
+      </c>
+      <c r="E82">
+        <v>698.03499999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>340.59800000000001</v>
+      </c>
+      <c r="C83">
+        <v>672.49400000000003</v>
+      </c>
+      <c r="D83">
+        <v>565.51400000000001</v>
+      </c>
+      <c r="E83">
+        <v>716.88800000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>355.50599999999997</v>
+      </c>
+      <c r="C84">
+        <v>692.32299999999998</v>
+      </c>
+      <c r="D84">
+        <v>572.35500000000002</v>
+      </c>
+      <c r="E84">
+        <v>724.89499999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>358.00900000000001</v>
+      </c>
+      <c r="C85">
+        <v>698.45799999999997</v>
+      </c>
+      <c r="D85">
+        <v>584.64200000000005</v>
+      </c>
+      <c r="E85">
+        <v>733.90599999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>342.60500000000002</v>
+      </c>
+      <c r="C86">
+        <v>715.66499999999996</v>
+      </c>
+      <c r="D86">
+        <v>599.97199999999998</v>
+      </c>
+      <c r="E86">
+        <v>751.40200000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>368.923</v>
+      </c>
+      <c r="C87">
+        <v>730.43700000000001</v>
+      </c>
+      <c r="D87">
+        <v>623.96199999999999</v>
+      </c>
+      <c r="E87">
+        <v>751.029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>362.03399999999999</v>
+      </c>
+      <c r="C88">
+        <v>740.91600000000005</v>
+      </c>
+      <c r="D88">
+        <v>629.66999999999996</v>
+      </c>
+      <c r="E88">
+        <v>768.68399999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>387.05200000000002</v>
+      </c>
+      <c r="C89">
+        <v>757.21400000000006</v>
+      </c>
+      <c r="D89">
+        <v>652.92700000000002</v>
+      </c>
+      <c r="E89">
+        <v>789.51599999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>418.57900000000001</v>
+      </c>
+      <c r="C90">
+        <v>773.14499999999998</v>
+      </c>
+      <c r="D90">
+        <v>676.66300000000001</v>
+      </c>
+      <c r="E90">
+        <v>800.79700000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>402.56400000000002</v>
+      </c>
+      <c r="C91">
+        <v>781.71500000000003</v>
+      </c>
+      <c r="D91">
+        <v>638.91600000000005</v>
+      </c>
+      <c r="E91">
+        <v>808.17399999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>363.88200000000001</v>
+      </c>
+      <c r="C92">
+        <v>770.08</v>
+      </c>
+      <c r="D92">
+        <v>642.13499999999999</v>
+      </c>
+      <c r="E92">
+        <v>806.24400000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>342.95499999999998</v>
+      </c>
+      <c r="C93">
+        <v>778.84100000000001</v>
+      </c>
+      <c r="D93">
+        <v>655.87300000000005</v>
+      </c>
+      <c r="E93">
+        <v>824.01199999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>378.08</v>
+      </c>
+      <c r="C94">
+        <v>780.81100000000004</v>
+      </c>
+      <c r="D94">
+        <v>681.92600000000004</v>
+      </c>
+      <c r="E94">
+        <v>812.61300000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>371.00599999999997</v>
+      </c>
+      <c r="C95">
+        <v>771.25099999999998</v>
+      </c>
+      <c r="D95">
+        <v>660.39200000000005</v>
+      </c>
+      <c r="E95">
+        <v>824.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>380.279</v>
+      </c>
+      <c r="C96">
+        <v>759.59</v>
+      </c>
+      <c r="D96">
+        <v>627.02300000000002</v>
+      </c>
+      <c r="E96">
+        <v>815.39200000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>363.947</v>
+      </c>
+      <c r="C97">
+        <v>724.31399999999996</v>
+      </c>
+      <c r="D97">
+        <v>618.88699999999994</v>
+      </c>
+      <c r="E97">
+        <v>792.73699999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>331.22899999999998</v>
+      </c>
+      <c r="C98">
+        <v>715.005</v>
+      </c>
+      <c r="D98">
+        <v>606.17499999999995</v>
+      </c>
+      <c r="E98">
+        <v>782.90200000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>346.101</v>
+      </c>
+      <c r="C99">
+        <v>696.34199999999998</v>
+      </c>
+      <c r="D99">
+        <v>589.73400000000004</v>
+      </c>
+      <c r="E99">
+        <v>758.46199999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>323.363</v>
+      </c>
+      <c r="C100">
+        <v>670.04600000000005</v>
+      </c>
+      <c r="D100">
+        <v>585.02200000000005</v>
+      </c>
+      <c r="E100">
+        <v>742.52599999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>287.06</v>
+      </c>
+      <c r="C101">
+        <v>647.23500000000001</v>
+      </c>
+      <c r="D101">
+        <v>569.68700000000001</v>
+      </c>
+      <c r="E101">
+        <v>725.11900000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>305.77199999999999</v>
+      </c>
+      <c r="C102">
+        <v>633.23699999999997</v>
+      </c>
+      <c r="D102">
+        <v>557.34900000000005</v>
+      </c>
+      <c r="E102">
+        <v>708.45799999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>281.04399999999998</v>
+      </c>
+      <c r="C103">
+        <v>608.42499999999995</v>
+      </c>
+      <c r="D103">
+        <v>545.00199999999995</v>
+      </c>
+      <c r="E103">
+        <v>686.25400000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>282.38600000000002</v>
+      </c>
+      <c r="C104">
+        <v>584.19500000000005</v>
+      </c>
+      <c r="D104">
+        <v>521.65300000000002</v>
+      </c>
+      <c r="E104">
+        <v>670.65700000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>283.68799999999999</v>
+      </c>
+      <c r="C105">
+        <v>562.57600000000002</v>
+      </c>
+      <c r="D105">
+        <v>503.75</v>
+      </c>
+      <c r="E105">
+        <v>657.30899999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>253.63900000000001</v>
+      </c>
+      <c r="C106">
+        <v>538.71699999999998</v>
+      </c>
+      <c r="D106">
+        <v>502.767</v>
+      </c>
+      <c r="E106">
+        <v>640.81899999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>269.18900000000002</v>
+      </c>
+      <c r="C107">
+        <v>531.90099999999995</v>
+      </c>
+      <c r="D107">
+        <v>483.62700000000001</v>
+      </c>
+      <c r="E107">
+        <v>619.923</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>244.61600000000001</v>
+      </c>
+      <c r="C108">
+        <v>509.19400000000002</v>
+      </c>
+      <c r="D108">
+        <v>468.71499999999997</v>
+      </c>
+      <c r="E108">
+        <v>604.67100000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>231.14699999999999</v>
+      </c>
+      <c r="C109">
+        <v>482.76299999999998</v>
+      </c>
+      <c r="D109">
+        <v>451.17599999999999</v>
+      </c>
+      <c r="E109">
+        <v>584.41499999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>230.39599999999999</v>
+      </c>
+      <c r="C110">
+        <v>469.95</v>
+      </c>
+      <c r="D110">
+        <v>444.73899999999998</v>
+      </c>
+      <c r="E110">
+        <v>578.61900000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>224.65600000000001</v>
+      </c>
+      <c r="C111">
+        <v>447.51499999999999</v>
+      </c>
+      <c r="D111">
+        <v>438.59800000000001</v>
+      </c>
+      <c r="E111">
+        <v>568.34100000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>210.15600000000001</v>
+      </c>
+      <c r="C112">
+        <v>434.983</v>
+      </c>
+      <c r="D112">
+        <v>436.86799999999999</v>
+      </c>
+      <c r="E112">
+        <v>556.37199999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>215.78</v>
+      </c>
+      <c r="C113">
+        <v>429.41199999999998</v>
+      </c>
+      <c r="D113">
+        <v>425.33300000000003</v>
+      </c>
+      <c r="E113">
+        <v>544.66899999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>209.93899999999999</v>
+      </c>
+      <c r="C114">
+        <v>417.37099999999998</v>
+      </c>
+      <c r="D114">
+        <v>416.185</v>
+      </c>
+      <c r="E114">
+        <v>536.34799999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>202.71299999999999</v>
+      </c>
+      <c r="C115">
+        <v>397.92500000000001</v>
+      </c>
+      <c r="D115">
+        <v>408.34199999999998</v>
+      </c>
+      <c r="E115">
+        <v>532.28399999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>192.423</v>
+      </c>
+      <c r="C116">
+        <v>379.351</v>
+      </c>
+      <c r="D116">
+        <v>402.98</v>
+      </c>
+      <c r="E116">
+        <v>525.68799999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>187.11600000000001</v>
+      </c>
+      <c r="C117">
+        <v>367.92899999999997</v>
+      </c>
+      <c r="D117">
+        <v>399.92</v>
+      </c>
+      <c r="E117">
+        <v>512.84199999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>182.334</v>
+      </c>
+      <c r="C118">
+        <v>354.07</v>
+      </c>
+      <c r="D118">
+        <v>383.82100000000003</v>
+      </c>
+      <c r="E118">
+        <v>502.34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>177.239</v>
+      </c>
+      <c r="C119">
+        <v>337.87099999999998</v>
+      </c>
+      <c r="D119">
+        <v>377.59199999999998</v>
+      </c>
+      <c r="E119">
+        <v>485.74299999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>173.82599999999999</v>
+      </c>
+      <c r="C120">
+        <v>330.267</v>
+      </c>
+      <c r="D120">
+        <v>374.06200000000001</v>
+      </c>
+      <c r="E120">
+        <v>483.19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>169.98099999999999</v>
+      </c>
+      <c r="C121">
+        <v>318.74200000000002</v>
+      </c>
+      <c r="D121">
+        <v>363.65899999999999</v>
+      </c>
+      <c r="E121">
+        <v>474.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EE598-2E14-47E1-B379-A1F674457C79}">
   <dimension ref="A1:Q124"/>
   <sheetViews>
@@ -28799,11 +34990,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F23C397-71C0-422D-AA5B-C018E4690588}">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>

--- a/Statistics/BVH_Performance.xlsx
+++ b/Statistics/BVH_Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Projects\Radiance\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757AE8E5-D651-4EDD-B2E3-41EBE0224436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6964DD7-A46D-4BC0-A1FF-66AFA28DEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
   </bookViews>

--- a/Statistics/BVH_Performance.xlsx
+++ b/Statistics/BVH_Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Projects\Radiance\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6964DD7-A46D-4BC0-A1FF-66AFA28DEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2ACC9-8ACC-4520-9B35-94BF3E93B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>SAH v1</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>SAH v1 closest child v2</t>
+  </si>
+  <si>
+    <t>Ray inv_d</t>
   </si>
 </sst>
 </file>
@@ -8754,6 +8757,777 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-568A-4968-970B-927AA61AD5DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 2'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ray inv_d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 2'!$F$2:$F$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>528.06899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538.94899999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>567.41600000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>553.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>587.61300000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>652.47699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>632.83399999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>606.66600000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>589.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>578.11400000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>573.48199999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>559.05600000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>540.37300000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>533.69500000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>515.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>500.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>492.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>485.995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>472.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>452.03500000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>458.17200000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>468.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>471.55900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>492.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>481.911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>476.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>475.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>482.66199999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>482.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>477.58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>477.858</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>474.863</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>459.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>451.512</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>438.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>428.38200000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>428.38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>426.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>431.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>439.726</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>451.89800000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>457.99900000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>470.005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>486.56</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>499.96499999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>506.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>522.86300000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>539.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>556.09699999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>571.89300000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>595.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>613.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>636.21299999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>660.096</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>681.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>699.97799999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>728.02499999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>742.68299999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>764.84199999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>772.66300000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>775.84799999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>799.92100000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>800.46900000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>808.26400000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>807.721</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>808.447</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>823.94</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>824.38800000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>836.654</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>856.50800000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>867.697</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>887.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>910.96799999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>918.899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>936.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>947.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>961.49699999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>977.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1009.35</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1024.27</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1032.45</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1072.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1079.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1097.24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1129.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1138.76</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1159.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1182.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1208.82</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1202.03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1208.23</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1222.97</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1223.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1214.77</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1196.49</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1159.57</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1159.54</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1115.45</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1095.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1080.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1044.48</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1022.3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>991.11900000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>958.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>941.14</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>915.19899999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>930.09900000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>884.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>861.24300000000005</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>852.37</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>836.99199999999996</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>826.524</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>811.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>790.96699999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>783.83299999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>773.78</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>762.125</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>743.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>738.30200000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>720.69200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AE2-4699-8D04-E7775DBBE84B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23137,13 +23911,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -27077,10 +27851,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1F2289-1ADE-4875-A98C-2E60B5E7C362}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27090,9 +27864,10 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -27108,8 +27883,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -27125,8 +27903,11 @@
       <c r="E2">
         <v>343.983</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>528.06899999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -27142,8 +27923,11 @@
       <c r="E3">
         <v>335.96499999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>538.94899999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -27159,8 +27943,11 @@
       <c r="E4">
         <v>330.59500000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>567.41600000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -27176,8 +27963,11 @@
       <c r="E5">
         <v>323.77600000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>553.78099999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -27193,8 +27983,11 @@
       <c r="E6">
         <v>317.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>587.61300000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -27210,8 +28003,11 @@
       <c r="E7">
         <v>310.70400000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>652.47699999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -27227,8 +28023,11 @@
       <c r="E8">
         <v>302.58800000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>632.83399999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -27244,8 +28043,11 @@
       <c r="E9">
         <v>299.06599999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>606.66600000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -27261,8 +28063,11 @@
       <c r="E10">
         <v>385.79500000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>589.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -27278,8 +28083,11 @@
       <c r="E11">
         <v>372.096</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>578.11400000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -27295,8 +28103,11 @@
       <c r="E12">
         <v>368.726</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>573.48199999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -27312,8 +28123,11 @@
       <c r="E13">
         <v>360.35500000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>559.05600000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -27329,8 +28143,11 @@
       <c r="E14">
         <v>348.61099999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>540.37300000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -27346,8 +28163,11 @@
       <c r="E15">
         <v>341.64299999999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>533.69500000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -27363,8 +28183,11 @@
       <c r="E16">
         <v>331.57400000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>515.96199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -27380,8 +28203,11 @@
       <c r="E17">
         <v>320.39100000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>500.13200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -27397,8 +28223,11 @@
       <c r="E18">
         <v>317.06099999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>492.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -27414,8 +28243,11 @@
       <c r="E19">
         <v>309.88799999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>485.995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -27431,8 +28263,11 @@
       <c r="E20">
         <v>306.15699999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>472.61500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -27448,8 +28283,11 @@
       <c r="E21">
         <v>303.48099999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>452.03500000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -27465,8 +28303,11 @@
       <c r="E22">
         <v>301.81200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>458.17200000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -27482,8 +28323,11 @@
       <c r="E23">
         <v>299.92099999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>468.72699999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -27499,8 +28343,11 @@
       <c r="E24">
         <v>299.072</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>471.55900000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -27516,8 +28363,11 @@
       <c r="E25">
         <v>308.39400000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>492.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -27533,8 +28383,11 @@
       <c r="E26">
         <v>306.81099999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>481.911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -27550,8 +28403,11 @@
       <c r="E27">
         <v>301.08800000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>476.21100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -27567,8 +28423,11 @@
       <c r="E28">
         <v>302.19200000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>475.48500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -27584,8 +28443,11 @@
       <c r="E29">
         <v>302.63600000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>482.66199999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -27601,8 +28463,11 @@
       <c r="E30">
         <v>298.81799999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>482.16399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -27618,8 +28483,11 @@
       <c r="E31">
         <v>297.81</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>477.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -27635,8 +28503,11 @@
       <c r="E32">
         <v>298.68700000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>477.858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -27652,8 +28523,11 @@
       <c r="E33">
         <v>297.70299999999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>474.863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -27669,8 +28543,11 @@
       <c r="E34">
         <v>295.41300000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>459.52699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -27686,8 +28563,11 @@
       <c r="E35">
         <v>287.59199999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>451.512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -27703,8 +28583,11 @@
       <c r="E36">
         <v>267.91500000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>438.42200000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -27720,8 +28603,11 @@
       <c r="E37">
         <v>261.13</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>428.38200000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -27737,8 +28623,11 @@
       <c r="E38">
         <v>262.25299999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>428.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -27754,8 +28643,11 @@
       <c r="E39">
         <v>264.52600000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>426.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -27771,8 +28663,11 @@
       <c r="E40">
         <v>269.93799999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>431.05099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -27788,8 +28683,11 @@
       <c r="E41">
         <v>275.36399999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>439.726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -27805,8 +28703,11 @@
       <c r="E42">
         <v>280.62700000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>451.89800000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -27822,8 +28723,11 @@
       <c r="E43">
         <v>289.58</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>457.99900000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -27839,8 +28743,11 @@
       <c r="E44">
         <v>299.79000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>470.005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -27856,8 +28763,11 @@
       <c r="E45">
         <v>311.29300000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>486.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -27873,8 +28783,11 @@
       <c r="E46">
         <v>319.50299999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>499.96499999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -27890,8 +28803,11 @@
       <c r="E47">
         <v>329.452</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>506.99099999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -27907,8 +28823,11 @@
       <c r="E48">
         <v>341.40499999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>522.86300000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -27924,8 +28843,11 @@
       <c r="E49">
         <v>354.55399999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>539.98099999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -27941,8 +28863,11 @@
       <c r="E50">
         <v>365.709</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>556.09699999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -27958,8 +28883,11 @@
       <c r="E51">
         <v>375.68400000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>571.89300000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -27975,8 +28903,11 @@
       <c r="E52">
         <v>385.34399999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>595.30999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -27992,8 +28923,11 @@
       <c r="E53">
         <v>399.40800000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>613.72500000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -28009,8 +28943,11 @@
       <c r="E54">
         <v>418.00799999999998</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>636.21299999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -28026,8 +28963,11 @@
       <c r="E55">
         <v>426.685</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>660.096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -28043,8 +28983,11 @@
       <c r="E56">
         <v>447.863</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>681.01900000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -28060,8 +29003,11 @@
       <c r="E57">
         <v>460.16199999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>699.97799999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -28077,8 +29023,11 @@
       <c r="E58">
         <v>478.69</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>728.02499999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -28094,8 +29043,11 @@
       <c r="E59">
         <v>492.77499999999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>742.68299999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -28111,8 +29063,11 @@
       <c r="E60">
         <v>500.69499999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>764.84199999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -28128,8 +29083,11 @@
       <c r="E61">
         <v>510.29599999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>772.66300000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -28145,8 +29103,11 @@
       <c r="E62">
         <v>517.13800000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>775.84799999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -28162,8 +29123,11 @@
       <c r="E63">
         <v>521.94100000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>799.92100000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -28179,8 +29143,11 @@
       <c r="E64">
         <v>530.38199999999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>800.46900000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -28196,8 +29163,11 @@
       <c r="E65">
         <v>534.09900000000005</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>808.26400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -28213,8 +29183,11 @@
       <c r="E66">
         <v>542.46799999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>807.721</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -28230,8 +29203,11 @@
       <c r="E67">
         <v>550.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>808.447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -28247,8 +29223,11 @@
       <c r="E68">
         <v>549.39200000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>823.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -28264,8 +29243,11 @@
       <c r="E69">
         <v>553.96</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>824.38800000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -28281,8 +29263,11 @@
       <c r="E70">
         <v>559.15800000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>836.654</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -28298,8 +29283,11 @@
       <c r="E71">
         <v>561.41499999999996</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>856.50800000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -28315,8 +29303,11 @@
       <c r="E72">
         <v>573.78200000000004</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>867.697</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -28332,8 +29323,11 @@
       <c r="E73">
         <v>588.31600000000003</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>887.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -28349,8 +29343,11 @@
       <c r="E74">
         <v>591.81500000000005</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>910.96799999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -28366,8 +29363,11 @@
       <c r="E75">
         <v>612.16899999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>918.899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -28383,8 +29383,11 @@
       <c r="E76">
         <v>623.13900000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>936.46699999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -28400,8 +29403,11 @@
       <c r="E77">
         <v>622.75099999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>947.01499999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -28417,8 +29423,11 @@
       <c r="E78">
         <v>640.56700000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>961.49699999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -28434,8 +29443,11 @@
       <c r="E79">
         <v>655.44</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>977.01900000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -28451,8 +29463,11 @@
       <c r="E80">
         <v>661.77599999999995</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1009.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -28468,8 +29483,11 @@
       <c r="E81">
         <v>682.60799999999995</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1024.27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -28485,8 +29503,11 @@
       <c r="E82">
         <v>698.03499999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>1032.45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -28502,8 +29523,11 @@
       <c r="E83">
         <v>716.88800000000003</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1072.8499999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -28519,8 +29543,11 @@
       <c r="E84">
         <v>724.89499999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1079.8900000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -28536,8 +29563,11 @@
       <c r="E85">
         <v>733.90599999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>1097.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -28553,8 +29583,11 @@
       <c r="E86">
         <v>751.40200000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>1129.3599999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -28570,8 +29603,11 @@
       <c r="E87">
         <v>751.029</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>1138.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -28587,8 +29623,11 @@
       <c r="E88">
         <v>768.68399999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>1159.3499999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -28604,8 +29643,11 @@
       <c r="E89">
         <v>789.51599999999996</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>1182.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -28621,8 +29663,11 @@
       <c r="E90">
         <v>800.79700000000003</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>1208.82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -28638,8 +29683,11 @@
       <c r="E91">
         <v>808.17399999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>1202.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -28655,8 +29703,11 @@
       <c r="E92">
         <v>806.24400000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>1208.23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -28672,8 +29723,11 @@
       <c r="E93">
         <v>824.01199999999994</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>1222.97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -28689,8 +29743,11 @@
       <c r="E94">
         <v>812.61300000000006</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>1223.92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -28706,8 +29763,11 @@
       <c r="E95">
         <v>824.38</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>1214.77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -28723,8 +29783,11 @@
       <c r="E96">
         <v>815.39200000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>1196.49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -28740,8 +29803,11 @@
       <c r="E97">
         <v>792.73699999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>1159.57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -28757,8 +29823,11 @@
       <c r="E98">
         <v>782.90200000000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>1159.54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -28774,8 +29843,11 @@
       <c r="E99">
         <v>758.46199999999999</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>1115.45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -28791,8 +29863,11 @@
       <c r="E100">
         <v>742.52599999999995</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>1095.8399999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -28808,8 +29883,11 @@
       <c r="E101">
         <v>725.11900000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>1080.4100000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -28825,8 +29903,11 @@
       <c r="E102">
         <v>708.45799999999997</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>1044.48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -28842,8 +29923,11 @@
       <c r="E103">
         <v>686.25400000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>1022.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -28859,8 +29943,11 @@
       <c r="E104">
         <v>670.65700000000004</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>991.11900000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -28876,8 +29963,11 @@
       <c r="E105">
         <v>657.30899999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>958.63400000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -28893,8 +29983,11 @@
       <c r="E106">
         <v>640.81899999999996</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>941.14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -28910,8 +30003,11 @@
       <c r="E107">
         <v>619.923</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>915.19899999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -28927,8 +30023,11 @@
       <c r="E108">
         <v>604.67100000000005</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>930.09900000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -28944,8 +30043,11 @@
       <c r="E109">
         <v>584.41499999999996</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>884.29700000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -28961,8 +30063,11 @@
       <c r="E110">
         <v>578.61900000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>861.24300000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -28978,8 +30083,11 @@
       <c r="E111">
         <v>568.34100000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>852.37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -28995,8 +30103,11 @@
       <c r="E112">
         <v>556.37199999999996</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>836.99199999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -29012,8 +30123,11 @@
       <c r="E113">
         <v>544.66899999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>826.524</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -29029,8 +30143,11 @@
       <c r="E114">
         <v>536.34799999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>811.93899999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -29046,8 +30163,11 @@
       <c r="E115">
         <v>532.28399999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>790.96699999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -29063,8 +30183,11 @@
       <c r="E116">
         <v>525.68799999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>783.83299999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -29080,8 +30203,11 @@
       <c r="E117">
         <v>512.84199999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>773.78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -29097,8 +30223,11 @@
       <c r="E118">
         <v>502.34</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>762.125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -29114,8 +30243,11 @@
       <c r="E119">
         <v>485.74299999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>743.91899999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -29131,8 +30263,11 @@
       <c r="E120">
         <v>483.19</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>738.30200000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -29147,6 +30282,9 @@
       </c>
       <c r="E121">
         <v>474.78</v>
+      </c>
+      <c r="F121">
+        <v>720.69200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Statistics/BVH_Performance.xlsx
+++ b/Statistics/BVH_Performance.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Projects\Radiance\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2ACC9-8ACC-4520-9B35-94BF3E93B07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E07F187-83B5-4D02-AB34-2DE3E547F44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
   </bookViews>
   <sheets>
     <sheet name="unity.tri" sheetId="1" r:id="rId1"/>
     <sheet name="unity.tri powered" sheetId="2" r:id="rId2"/>
     <sheet name="unity.tri 2" sheetId="5" r:id="rId3"/>
-    <sheet name="BVH Metrics" sheetId="3" r:id="rId4"/>
-    <sheet name="BVH Metrics v2" sheetId="4" r:id="rId5"/>
+    <sheet name="unity.tri 3 unpowered" sheetId="6" r:id="rId4"/>
+    <sheet name="unity.tri 4 sps unpowered" sheetId="7" r:id="rId5"/>
+    <sheet name="BVH Metrics" sheetId="3" r:id="rId6"/>
+    <sheet name="BVH Metrics v2" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
   <si>
     <t>SAH v1</t>
   </si>
@@ -9889,6 +9891,4245 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 3 unpowered'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Middle split</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$B$2:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>129.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.02800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.80200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.88800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.878500000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92.969700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86.489400000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.127600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.546999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.821399999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.045599999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.474800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.274600000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.776200000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.724499999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.2562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58.735199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.314599999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.093499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.981699999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66.6447</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.799499999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.680499999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73.039599999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.052400000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74.030199999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.618200000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79.563500000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.797799999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.773099999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85.588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>87.453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.781000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92.833399999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>99.398099999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103.518</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>110.003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>117.664</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>125.05800000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>134.999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>143.99199999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>155.92400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>168.99600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>173.202</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>181.40100000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>189.07</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>200.93</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>209.47900000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>218.14500000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>234.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>238.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>229.37200000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>246.553</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>227.13200000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>221.84700000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>243.261</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>234.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>232.95099999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>231.678</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>234.11699999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>227.828</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>229.559</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>238.92500000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>228.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>249.566</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>253.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>249.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>260.154</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>276.23200000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>254.22499999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>261.16199999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>259.767</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>280.322</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>268.98599999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>274.69299999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>281.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>304.06900000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>286.18400000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>302.392</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>314.57799999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>312.06599999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>328.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>355.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>346.41699999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>301.214</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>292.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>283.88799999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>302.16500000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>307.87700000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>277.58699999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>276.96600000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>292.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>266.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>247.839</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>257.25900000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>243.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>241.78</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>233.09</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>206.233</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>215.36</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>197.465</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>188.14099999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>188.137</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>185.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>181.11600000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>174.762</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>172.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>165.887</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>160.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>157.477</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>156.95099999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>151.072</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>144.148</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>137.73099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BF7-4427-811F-29C8CB0FF951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 3 unpowered'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$C$2:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>236.68799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228.22399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.22900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202.87700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.483</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>166.07499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>168.68199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149.786</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140.78100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.485</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>117.214</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110.879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>108.73399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107.05800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105.54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105.35299999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104.045</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103.947</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102.69799999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>105.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>110.818</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>115.676</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>119.68600000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>121.67400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>121.56699999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120.842</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121.824</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>121.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>122.98399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127.655</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>132.18199999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>136.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>140.376</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>145.852</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>151.86600000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>161.309</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>169.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>183.285</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>195.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>213.98</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>225.70500000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240.684</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>268.19299999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>271.755</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>301.92899999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>316.21199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>338.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>345.11200000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>368.20800000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>386.15800000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>400.96300000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>396.738</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>397.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>414.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>407.18299999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>429.08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>422.524</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>420.75900000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>428.79500000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>442.90699999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>432.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>447.82</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>459.93</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>449.35899999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>464.76400000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>462.55500000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>485.416</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>490.29399999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>490.23399999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>505.06200000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>502.255</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>502.476</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>511.95100000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>518.11300000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>532.24800000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>553.66700000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>550.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>582.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>597.14300000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>577.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>575.53099999999995</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>627.06799999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>625.24199999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>587.41600000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>592.55100000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>626.87199999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>603.54700000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>589.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>586.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>586.154</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>567.31399999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>554.274</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>533.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>501.05399999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>480.98599999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>487.142</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>470.02600000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>443.08</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>421.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>391.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>370.935</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>385.20499999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>356.35399999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>350.56900000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>343.23500000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>337.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>325.80099999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>316.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>307.846</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>297.05200000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>284.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>278.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>270.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BF7-4427-811F-29C8CB0FF951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 3 unpowered'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1 closest child</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$D$2:$D$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>107.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.74199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274.10899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257.584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>238.23400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>222.916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>219.762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>221.17699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>214.999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>224.911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>217.571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210.404</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>206.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204.50399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200.505</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199.172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>194.97300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>188.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>189.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>192.00800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>190.381</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>192.22800000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>184.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>183.078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>181.82300000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>179.256</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>173.09700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>176.643</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176.31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170.298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>167.27600000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>160.87799999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>179.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>183.53899999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>187.07400000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>189.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>193.45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>196.55</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>203.64699999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>201.12200000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>205.35</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>213.23</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>223.411</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>228.41300000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>238.73400000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>247.239</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>255.875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266.57799999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>277.72300000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>283.72699999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>300.512</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>312.279</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>317.41899999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>313.20800000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>322.35399999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>325.65899999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>328.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>334.08100000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>338.52</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>334.59399999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>341.82</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>351.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>352.02699999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>362.94</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>361.67899999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>380.93700000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>385.77199999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>377.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>394.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>387.39</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>423.089</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>432.05900000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>433.38799999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>450.36200000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>459.12200000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>449.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>471.45800000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>475.43799999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>453.197</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>475.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>492.87099999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>491.49299999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>495.83800000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>499.19299999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>475.79500000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>488.48500000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>509.16199999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>499.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>492.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>498.39600000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>463.428</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>468.875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>463.19099999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>448.67399999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>437.363</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>424.59300000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>417.19299999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>412.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>409.83300000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>380.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>392.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>376.53899999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>371.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>349.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>357.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>352.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>345.91699999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>334.87700000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>320.73700000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>311.69</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>307.56400000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>303.01600000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>299.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>293.17099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BF7-4427-811F-29C8CB0FF951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 3 unpowered'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAH v1 closest child v2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$E$2:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>126.709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>316.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346.38299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>344.911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199.72200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>227.22900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245.87100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262.77499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>277.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>290.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>303.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>298.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>294.96199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>284.80799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>267.149</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>268.37599999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>261.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>258.14299999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>259.238</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>259.851</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>261.05900000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>257.70299999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>233.26900000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>214.02099999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>203.071</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>197.56899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>196.631</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>199.881</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>201.01400000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>206.858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>205.80500000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>205.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>211.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>209.56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>215.273</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>225.79300000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>230.018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>241.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>247.774</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>252.81899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>266.54399999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>270.63299999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>273.42899999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>278.09199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>283.94200000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>299.49299999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>300.17099999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>310.45999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>322.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>343.95</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>348.803</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>369.964</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>369.99099999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>389.33100000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>407.21499999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>403.23899999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>415.93</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>418.83499999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>419.94400000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>432.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>437.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>433.89800000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>456.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>447.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>460.024</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>462.541</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>462.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>464.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>485.399</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>488.98</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>467.84199999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>494.93900000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>505.43599999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>488.62</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>531.68100000000004</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>557.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>560.61199999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>559.73800000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>581.35799999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>584.27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>603.70600000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>605.30799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>622.75800000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>601.99400000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>614.87900000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>628.78200000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>665.78499999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>644.52300000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>625.71900000000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>667.26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>639.85799999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>620.67700000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>630.88300000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>631.05399999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>627.85500000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>593.83900000000006</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>587.25900000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>575.96299999999997</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>566.21400000000006</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>567.173</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>554.56100000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>530.96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>514.93899999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>519.00199999999995</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>481.71300000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>475.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>486.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>467.98</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>448.262</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>442.04700000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>414.89100000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>409.32499999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>413.37700000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>385.58800000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>395.35399999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>384.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>374.61399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2BF7-4427-811F-29C8CB0FF951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 3 unpowered'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ray inv_d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 unpowered'!$F$2:$F$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>96.897099999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342.649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>357.53699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>371.78399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>404.666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406.99700000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>412.858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435.53699999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>464.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>473.35899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>453.36500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>457.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>439.25599999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>423.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>419.07100000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>408.262</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>411.29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>409.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>397.298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>398.78500000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>399.77699999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>404.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>416.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>405.26600000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>403.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>406.31099999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>405.43599999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>407.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>412.51799999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>399.29300000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>396.21300000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>379.28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>379.65499999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>333.82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>330.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>333.82600000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>341.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>349.04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>355.93599999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>359.47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>377.70100000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>381.01799999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>395.49400000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>409.17099999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>415.14699999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>422.65699999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>450.74900000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>457.19</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>483.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>501.94</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>504.49799999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>520.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>525.471</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>551.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>557.69799999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590.649</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>581.52099999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>589.11699999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>611.22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>683.91099999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>638.24400000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>672.86300000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>679.03700000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>665.83699999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>731.476</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>706.08500000000004</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>685.93100000000004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>740.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>772.57799999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>767.24699999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>751.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>724.38199999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>791.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>839.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>827.30700000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>826.79700000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>799.62800000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>845.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>877.23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>891.94</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>898.84799999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>791.81600000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>858.12599999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>859.17499999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>902.69799999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>958.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>931.86400000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>879.50900000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>941.07600000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>950.12300000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>964.39300000000003</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>932.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>795.05200000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>917.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>907.98400000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>895.85799999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>861.46400000000006</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>783.36900000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>785.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>756.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>784.529</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>774.64700000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>710.63499999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>695.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>709.83199999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>721.33399999999995</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>697.53499999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>643.39300000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>682.82399999999996</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>664.02700000000004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>617.553</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>626.44500000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>613.92899999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>637.03599999999994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>604.98400000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>598.33299999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>590.08699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2BF7-4427-811F-29C8CB0FF951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1869786527"/>
+        <c:axId val="1869782207"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1869786527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Orbit index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869782207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1869782207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> FPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1869786527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -12598,7 +16839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13155,7 +17396,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -16553,7 +20794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20187,6 +24428,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22291,509 +26572,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23309,7 +27087,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23952,6 +28749,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7262D8-23F4-C079-3B3E-D6584697FF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -24025,7 +28863,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -27853,7 +32691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1F2289-1ADE-4875-A98C-2E60B5E7C362}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -30294,6 +35132,2470 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89B3CFD-359C-4F33-B5C7-092A89050DC3}">
+  <dimension ref="A1:F121"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>129.98099999999999</v>
+      </c>
+      <c r="C2">
+        <v>236.68799999999999</v>
+      </c>
+      <c r="D2">
+        <v>107.84399999999999</v>
+      </c>
+      <c r="E2">
+        <v>126.709</v>
+      </c>
+      <c r="F2">
+        <v>96.897099999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>139.92599999999999</v>
+      </c>
+      <c r="C3">
+        <v>228.22399999999999</v>
+      </c>
+      <c r="D3">
+        <v>255.74199999999999</v>
+      </c>
+      <c r="E3">
+        <v>316.96199999999999</v>
+      </c>
+      <c r="F3">
+        <v>290.73599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>136.114</v>
+      </c>
+      <c r="C4">
+        <v>227.22900000000001</v>
+      </c>
+      <c r="D4">
+        <v>274.10899999999998</v>
+      </c>
+      <c r="E4">
+        <v>346.38299999999998</v>
+      </c>
+      <c r="F4">
+        <v>314.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>126.02800000000001</v>
+      </c>
+      <c r="C5">
+        <v>215.131</v>
+      </c>
+      <c r="D5">
+        <v>275.36399999999998</v>
+      </c>
+      <c r="E5">
+        <v>344.911</v>
+      </c>
+      <c r="F5">
+        <v>342.649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>111.66800000000001</v>
+      </c>
+      <c r="C6">
+        <v>202.87700000000001</v>
+      </c>
+      <c r="D6">
+        <v>266.82900000000001</v>
+      </c>
+      <c r="E6">
+        <v>263.20999999999998</v>
+      </c>
+      <c r="F6">
+        <v>357.53699999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>108.462</v>
+      </c>
+      <c r="C7">
+        <v>194.483</v>
+      </c>
+      <c r="D7">
+        <v>257.584</v>
+      </c>
+      <c r="E7">
+        <v>199.72200000000001</v>
+      </c>
+      <c r="F7">
+        <v>371.78399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>107.962</v>
+      </c>
+      <c r="C8">
+        <v>180.24700000000001</v>
+      </c>
+      <c r="D8">
+        <v>247.47399999999999</v>
+      </c>
+      <c r="E8">
+        <v>227.22900000000001</v>
+      </c>
+      <c r="F8">
+        <v>404.666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>107.80200000000001</v>
+      </c>
+      <c r="C9">
+        <v>171.72</v>
+      </c>
+      <c r="D9">
+        <v>238.23400000000001</v>
+      </c>
+      <c r="E9">
+        <v>245.87100000000001</v>
+      </c>
+      <c r="F9">
+        <v>406.99700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>104.88800000000001</v>
+      </c>
+      <c r="C10">
+        <v>166.07499999999999</v>
+      </c>
+      <c r="D10">
+        <v>222.916</v>
+      </c>
+      <c r="E10">
+        <v>262.77499999999998</v>
+      </c>
+      <c r="F10">
+        <v>412.858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>99.878500000000003</v>
+      </c>
+      <c r="C11">
+        <v>168.68199999999999</v>
+      </c>
+      <c r="D11">
+        <v>219.762</v>
+      </c>
+      <c r="E11">
+        <v>277.29000000000002</v>
+      </c>
+      <c r="F11">
+        <v>435.53699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>92.969700000000003</v>
+      </c>
+      <c r="C12">
+        <v>161.06</v>
+      </c>
+      <c r="D12">
+        <v>221.17699999999999</v>
+      </c>
+      <c r="E12">
+        <v>290.95</v>
+      </c>
+      <c r="F12">
+        <v>464.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>86.489400000000003</v>
+      </c>
+      <c r="C13">
+        <v>149.786</v>
+      </c>
+      <c r="D13">
+        <v>216.71799999999999</v>
+      </c>
+      <c r="E13">
+        <v>303.27699999999999</v>
+      </c>
+      <c r="F13">
+        <v>473.35899999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>81.127600000000001</v>
+      </c>
+      <c r="C14">
+        <v>140.78100000000001</v>
+      </c>
+      <c r="D14">
+        <v>214.999</v>
+      </c>
+      <c r="E14">
+        <v>298.40899999999999</v>
+      </c>
+      <c r="F14">
+        <v>453.36500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>76.546999999999997</v>
+      </c>
+      <c r="C15">
+        <v>133.66800000000001</v>
+      </c>
+      <c r="D15">
+        <v>224.911</v>
+      </c>
+      <c r="E15">
+        <v>294.96199999999999</v>
+      </c>
+      <c r="F15">
+        <v>457.16300000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>72.821399999999997</v>
+      </c>
+      <c r="C16">
+        <v>123.485</v>
+      </c>
+      <c r="D16">
+        <v>217.571</v>
+      </c>
+      <c r="E16">
+        <v>284.80799999999999</v>
+      </c>
+      <c r="F16">
+        <v>439.25599999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>71.045599999999993</v>
+      </c>
+      <c r="C17">
+        <v>117.214</v>
+      </c>
+      <c r="D17">
+        <v>210.404</v>
+      </c>
+      <c r="E17">
+        <v>280.08699999999999</v>
+      </c>
+      <c r="F17">
+        <v>423.91899999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>67.474800000000002</v>
+      </c>
+      <c r="C18">
+        <v>113.23099999999999</v>
+      </c>
+      <c r="D18">
+        <v>206.32</v>
+      </c>
+      <c r="E18">
+        <v>267.149</v>
+      </c>
+      <c r="F18">
+        <v>419.07100000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>64.274600000000007</v>
+      </c>
+      <c r="C19">
+        <v>110.879</v>
+      </c>
+      <c r="D19">
+        <v>204.50399999999999</v>
+      </c>
+      <c r="E19">
+        <v>268.37599999999998</v>
+      </c>
+      <c r="F19">
+        <v>408.262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>61.776200000000003</v>
+      </c>
+      <c r="C20">
+        <v>108.73399999999999</v>
+      </c>
+      <c r="D20">
+        <v>200.505</v>
+      </c>
+      <c r="E20">
+        <v>261.89699999999999</v>
+      </c>
+      <c r="F20">
+        <v>411.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>59.724499999999999</v>
+      </c>
+      <c r="C21">
+        <v>107.05800000000001</v>
+      </c>
+      <c r="D21">
+        <v>199.172</v>
+      </c>
+      <c r="E21">
+        <v>258.14299999999997</v>
+      </c>
+      <c r="F21">
+        <v>409.40899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>59.2562</v>
+      </c>
+      <c r="C22">
+        <v>105.54</v>
+      </c>
+      <c r="D22">
+        <v>194.97300000000001</v>
+      </c>
+      <c r="E22">
+        <v>259.238</v>
+      </c>
+      <c r="F22">
+        <v>397.298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>58.735199999999999</v>
+      </c>
+      <c r="C23">
+        <v>105.35299999999999</v>
+      </c>
+      <c r="D23">
+        <v>188.63900000000001</v>
+      </c>
+      <c r="E23">
+        <v>259.851</v>
+      </c>
+      <c r="F23">
+        <v>398.78500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>60.314599999999999</v>
+      </c>
+      <c r="C24">
+        <v>103.40600000000001</v>
+      </c>
+      <c r="D24">
+        <v>186.27699999999999</v>
+      </c>
+      <c r="E24">
+        <v>261.05900000000003</v>
+      </c>
+      <c r="F24">
+        <v>399.77699999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>61.093499999999999</v>
+      </c>
+      <c r="C25">
+        <v>104.045</v>
+      </c>
+      <c r="D25">
+        <v>189.12</v>
+      </c>
+      <c r="E25">
+        <v>257.70299999999997</v>
+      </c>
+      <c r="F25">
+        <v>404.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>63.981699999999996</v>
+      </c>
+      <c r="C26">
+        <v>103.947</v>
+      </c>
+      <c r="D26">
+        <v>192.00800000000001</v>
+      </c>
+      <c r="E26">
+        <v>233.26900000000001</v>
+      </c>
+      <c r="F26">
+        <v>416.23099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>66.6447</v>
+      </c>
+      <c r="C27">
+        <v>102.69799999999999</v>
+      </c>
+      <c r="D27">
+        <v>190.381</v>
+      </c>
+      <c r="E27">
+        <v>214.02099999999999</v>
+      </c>
+      <c r="F27">
+        <v>405.26600000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>68.799499999999995</v>
+      </c>
+      <c r="C28">
+        <v>105.54300000000001</v>
+      </c>
+      <c r="D28">
+        <v>192.22800000000001</v>
+      </c>
+      <c r="E28">
+        <v>203.071</v>
+      </c>
+      <c r="F28">
+        <v>403.44499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>70.680499999999995</v>
+      </c>
+      <c r="C29">
+        <v>110.818</v>
+      </c>
+      <c r="D29">
+        <v>184.07900000000001</v>
+      </c>
+      <c r="E29">
+        <v>197.56899999999999</v>
+      </c>
+      <c r="F29">
+        <v>406.31099999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>73.039599999999993</v>
+      </c>
+      <c r="C30">
+        <v>115.676</v>
+      </c>
+      <c r="D30">
+        <v>183.078</v>
+      </c>
+      <c r="E30">
+        <v>196.631</v>
+      </c>
+      <c r="F30">
+        <v>405.43599999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>73.052400000000006</v>
+      </c>
+      <c r="C31">
+        <v>119.68600000000001</v>
+      </c>
+      <c r="D31">
+        <v>181.82300000000001</v>
+      </c>
+      <c r="E31">
+        <v>199.881</v>
+      </c>
+      <c r="F31">
+        <v>407.12099999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>74.030199999999994</v>
+      </c>
+      <c r="C32">
+        <v>121.67400000000001</v>
+      </c>
+      <c r="D32">
+        <v>179.256</v>
+      </c>
+      <c r="E32">
+        <v>200.95</v>
+      </c>
+      <c r="F32">
+        <v>412.51799999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>76.618200000000002</v>
+      </c>
+      <c r="C33">
+        <v>121.56699999999999</v>
+      </c>
+      <c r="D33">
+        <v>173.09700000000001</v>
+      </c>
+      <c r="E33">
+        <v>201.01400000000001</v>
+      </c>
+      <c r="F33">
+        <v>399.29300000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>79.563500000000005</v>
+      </c>
+      <c r="C34">
+        <v>120.842</v>
+      </c>
+      <c r="D34">
+        <v>176.643</v>
+      </c>
+      <c r="E34">
+        <v>206.858</v>
+      </c>
+      <c r="F34">
+        <v>396.21300000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>81.797799999999995</v>
+      </c>
+      <c r="C35">
+        <v>121.824</v>
+      </c>
+      <c r="D35">
+        <v>176.31</v>
+      </c>
+      <c r="E35">
+        <v>205.80500000000001</v>
+      </c>
+      <c r="F35">
+        <v>379.28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>84.773099999999999</v>
+      </c>
+      <c r="C36">
+        <v>121.88200000000001</v>
+      </c>
+      <c r="D36">
+        <v>170.298</v>
+      </c>
+      <c r="E36">
+        <v>205.73099999999999</v>
+      </c>
+      <c r="F36">
+        <v>379.65499999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>85.588200000000001</v>
+      </c>
+      <c r="C37">
+        <v>122.98399999999999</v>
+      </c>
+      <c r="D37">
+        <v>167.27600000000001</v>
+      </c>
+      <c r="E37">
+        <v>211.61500000000001</v>
+      </c>
+      <c r="F37">
+        <v>355.88099999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>87.453000000000003</v>
+      </c>
+      <c r="C38">
+        <v>127.655</v>
+      </c>
+      <c r="D38">
+        <v>160.87799999999999</v>
+      </c>
+      <c r="E38">
+        <v>209.56</v>
+      </c>
+      <c r="F38">
+        <v>333.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>89.781000000000006</v>
+      </c>
+      <c r="C39">
+        <v>132.18199999999999</v>
+      </c>
+      <c r="D39">
+        <v>179.99299999999999</v>
+      </c>
+      <c r="E39">
+        <v>215.273</v>
+      </c>
+      <c r="F39">
+        <v>330.76799999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>92.833399999999997</v>
+      </c>
+      <c r="C40">
+        <v>136.05799999999999</v>
+      </c>
+      <c r="D40">
+        <v>180.94800000000001</v>
+      </c>
+      <c r="E40">
+        <v>225.79300000000001</v>
+      </c>
+      <c r="F40">
+        <v>333.82600000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>95.540999999999997</v>
+      </c>
+      <c r="C41">
+        <v>140.376</v>
+      </c>
+      <c r="D41">
+        <v>183.53899999999999</v>
+      </c>
+      <c r="E41">
+        <v>230.018</v>
+      </c>
+      <c r="F41">
+        <v>341.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>99.398099999999999</v>
+      </c>
+      <c r="C42">
+        <v>145.852</v>
+      </c>
+      <c r="D42">
+        <v>187.07400000000001</v>
+      </c>
+      <c r="E42">
+        <v>241.08199999999999</v>
+      </c>
+      <c r="F42">
+        <v>349.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>103.518</v>
+      </c>
+      <c r="C43">
+        <v>151.86600000000001</v>
+      </c>
+      <c r="D43">
+        <v>189.93700000000001</v>
+      </c>
+      <c r="E43">
+        <v>247.774</v>
+      </c>
+      <c r="F43">
+        <v>355.93599999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>110.003</v>
+      </c>
+      <c r="C44">
+        <v>161.309</v>
+      </c>
+      <c r="D44">
+        <v>193.45</v>
+      </c>
+      <c r="E44">
+        <v>252.81899999999999</v>
+      </c>
+      <c r="F44">
+        <v>359.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>117.664</v>
+      </c>
+      <c r="C45">
+        <v>169.29599999999999</v>
+      </c>
+      <c r="D45">
+        <v>196.55</v>
+      </c>
+      <c r="E45">
+        <v>266.54399999999998</v>
+      </c>
+      <c r="F45">
+        <v>377.70100000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>125.05800000000001</v>
+      </c>
+      <c r="C46">
+        <v>183.285</v>
+      </c>
+      <c r="D46">
+        <v>203.64699999999999</v>
+      </c>
+      <c r="E46">
+        <v>270.63299999999998</v>
+      </c>
+      <c r="F46">
+        <v>381.01799999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>134.999</v>
+      </c>
+      <c r="C47">
+        <v>195.58199999999999</v>
+      </c>
+      <c r="D47">
+        <v>201.12200000000001</v>
+      </c>
+      <c r="E47">
+        <v>273.42899999999997</v>
+      </c>
+      <c r="F47">
+        <v>395.49400000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>143.99199999999999</v>
+      </c>
+      <c r="C48">
+        <v>213.98</v>
+      </c>
+      <c r="D48">
+        <v>205.35</v>
+      </c>
+      <c r="E48">
+        <v>278.09199999999998</v>
+      </c>
+      <c r="F48">
+        <v>409.17099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>155.92400000000001</v>
+      </c>
+      <c r="C49">
+        <v>225.70500000000001</v>
+      </c>
+      <c r="D49">
+        <v>213.23</v>
+      </c>
+      <c r="E49">
+        <v>283.94200000000001</v>
+      </c>
+      <c r="F49">
+        <v>415.14699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>168.99600000000001</v>
+      </c>
+      <c r="C50">
+        <v>240.684</v>
+      </c>
+      <c r="D50">
+        <v>223.411</v>
+      </c>
+      <c r="E50">
+        <v>299.49299999999999</v>
+      </c>
+      <c r="F50">
+        <v>422.65699999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>173.202</v>
+      </c>
+      <c r="C51">
+        <v>268.19299999999998</v>
+      </c>
+      <c r="D51">
+        <v>228.41300000000001</v>
+      </c>
+      <c r="E51">
+        <v>300.17099999999999</v>
+      </c>
+      <c r="F51">
+        <v>450.74900000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>181.40100000000001</v>
+      </c>
+      <c r="C52">
+        <v>271.755</v>
+      </c>
+      <c r="D52">
+        <v>238.73400000000001</v>
+      </c>
+      <c r="E52">
+        <v>310.45999999999998</v>
+      </c>
+      <c r="F52">
+        <v>457.19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>189.07</v>
+      </c>
+      <c r="C53">
+        <v>301.92899999999997</v>
+      </c>
+      <c r="D53">
+        <v>247.239</v>
+      </c>
+      <c r="E53">
+        <v>322.88099999999997</v>
+      </c>
+      <c r="F53">
+        <v>483.58199999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>200.93</v>
+      </c>
+      <c r="C54">
+        <v>316.21199999999999</v>
+      </c>
+      <c r="D54">
+        <v>255.875</v>
+      </c>
+      <c r="E54">
+        <v>343.95</v>
+      </c>
+      <c r="F54">
+        <v>501.94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>209.47900000000001</v>
+      </c>
+      <c r="C55">
+        <v>338.21300000000002</v>
+      </c>
+      <c r="D55">
+        <v>266.57799999999997</v>
+      </c>
+      <c r="E55">
+        <v>348.803</v>
+      </c>
+      <c r="F55">
+        <v>504.49799999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>218.14500000000001</v>
+      </c>
+      <c r="C56">
+        <v>345.11200000000002</v>
+      </c>
+      <c r="D56">
+        <v>277.72300000000001</v>
+      </c>
+      <c r="E56">
+        <v>369.964</v>
+      </c>
+      <c r="F56">
+        <v>520.04999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>234.01900000000001</v>
+      </c>
+      <c r="C57">
+        <v>368.20800000000003</v>
+      </c>
+      <c r="D57">
+        <v>283.72699999999998</v>
+      </c>
+      <c r="E57">
+        <v>369.99099999999999</v>
+      </c>
+      <c r="F57">
+        <v>525.471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>238.12</v>
+      </c>
+      <c r="C58">
+        <v>386.15800000000002</v>
+      </c>
+      <c r="D58">
+        <v>300.512</v>
+      </c>
+      <c r="E58">
+        <v>389.33100000000002</v>
+      </c>
+      <c r="F58">
+        <v>551.16800000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>229.37200000000001</v>
+      </c>
+      <c r="C59">
+        <v>400.96300000000002</v>
+      </c>
+      <c r="D59">
+        <v>312.279</v>
+      </c>
+      <c r="E59">
+        <v>407.21499999999997</v>
+      </c>
+      <c r="F59">
+        <v>557.69799999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>246.553</v>
+      </c>
+      <c r="C60">
+        <v>396.738</v>
+      </c>
+      <c r="D60">
+        <v>317.41899999999998</v>
+      </c>
+      <c r="E60">
+        <v>403.23899999999998</v>
+      </c>
+      <c r="F60">
+        <v>590.649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>227.13200000000001</v>
+      </c>
+      <c r="C61">
+        <v>397.59899999999999</v>
+      </c>
+      <c r="D61">
+        <v>313.20800000000003</v>
+      </c>
+      <c r="E61">
+        <v>415.93</v>
+      </c>
+      <c r="F61">
+        <v>581.52099999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>221.84700000000001</v>
+      </c>
+      <c r="C62">
+        <v>414.97300000000001</v>
+      </c>
+      <c r="D62">
+        <v>322.35399999999998</v>
+      </c>
+      <c r="E62">
+        <v>418.83499999999998</v>
+      </c>
+      <c r="F62">
+        <v>589.11699999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>243.261</v>
+      </c>
+      <c r="C63">
+        <v>407.18299999999999</v>
+      </c>
+      <c r="D63">
+        <v>325.65899999999999</v>
+      </c>
+      <c r="E63">
+        <v>419.94400000000002</v>
+      </c>
+      <c r="F63">
+        <v>611.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>234.10300000000001</v>
+      </c>
+      <c r="C64">
+        <v>429.08</v>
+      </c>
+      <c r="D64">
+        <v>328.72500000000002</v>
+      </c>
+      <c r="E64">
+        <v>432.21699999999998</v>
+      </c>
+      <c r="F64">
+        <v>683.91099999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>232.95099999999999</v>
+      </c>
+      <c r="C65">
+        <v>422.524</v>
+      </c>
+      <c r="D65">
+        <v>334.08100000000002</v>
+      </c>
+      <c r="E65">
+        <v>437.88099999999997</v>
+      </c>
+      <c r="F65">
+        <v>638.24400000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>231.678</v>
+      </c>
+      <c r="C66">
+        <v>420.75900000000001</v>
+      </c>
+      <c r="D66">
+        <v>338.52</v>
+      </c>
+      <c r="E66">
+        <v>433.89800000000002</v>
+      </c>
+      <c r="F66">
+        <v>672.86300000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>234.11699999999999</v>
+      </c>
+      <c r="C67">
+        <v>428.79500000000002</v>
+      </c>
+      <c r="D67">
+        <v>334.59399999999999</v>
+      </c>
+      <c r="E67">
+        <v>456.47399999999999</v>
+      </c>
+      <c r="F67">
+        <v>679.03700000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>227.828</v>
+      </c>
+      <c r="C68">
+        <v>442.90699999999998</v>
+      </c>
+      <c r="D68">
+        <v>341.82</v>
+      </c>
+      <c r="E68">
+        <v>447.25599999999997</v>
+      </c>
+      <c r="F68">
+        <v>665.83699999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>229.559</v>
+      </c>
+      <c r="C69">
+        <v>432.47899999999998</v>
+      </c>
+      <c r="D69">
+        <v>351.49400000000003</v>
+      </c>
+      <c r="E69">
+        <v>460.024</v>
+      </c>
+      <c r="F69">
+        <v>731.476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>238.92500000000001</v>
+      </c>
+      <c r="C70">
+        <v>447.82</v>
+      </c>
+      <c r="D70">
+        <v>352.02699999999999</v>
+      </c>
+      <c r="E70">
+        <v>462.541</v>
+      </c>
+      <c r="F70">
+        <v>706.08500000000004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>228.71199999999999</v>
+      </c>
+      <c r="C71">
+        <v>459.93</v>
+      </c>
+      <c r="D71">
+        <v>362.94</v>
+      </c>
+      <c r="E71">
+        <v>462.59899999999999</v>
+      </c>
+      <c r="F71">
+        <v>685.93100000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>249.566</v>
+      </c>
+      <c r="C72">
+        <v>449.35899999999998</v>
+      </c>
+      <c r="D72">
+        <v>361.67899999999997</v>
+      </c>
+      <c r="E72">
+        <v>464.45400000000001</v>
+      </c>
+      <c r="F72">
+        <v>740.78800000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>253.01900000000001</v>
+      </c>
+      <c r="C73">
+        <v>464.76400000000001</v>
+      </c>
+      <c r="D73">
+        <v>380.93700000000001</v>
+      </c>
+      <c r="E73">
+        <v>485.399</v>
+      </c>
+      <c r="F73">
+        <v>772.57799999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>249.33699999999999</v>
+      </c>
+      <c r="C74">
+        <v>462.55500000000001</v>
+      </c>
+      <c r="D74">
+        <v>385.77199999999999</v>
+      </c>
+      <c r="E74">
+        <v>488.98</v>
+      </c>
+      <c r="F74">
+        <v>767.24699999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>260.154</v>
+      </c>
+      <c r="C75">
+        <v>485.416</v>
+      </c>
+      <c r="D75">
+        <v>377.90199999999999</v>
+      </c>
+      <c r="E75">
+        <v>467.84199999999998</v>
+      </c>
+      <c r="F75">
+        <v>751.38400000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>276.23200000000003</v>
+      </c>
+      <c r="C76">
+        <v>490.29399999999998</v>
+      </c>
+      <c r="D76">
+        <v>394.94499999999999</v>
+      </c>
+      <c r="E76">
+        <v>494.93900000000002</v>
+      </c>
+      <c r="F76">
+        <v>724.38199999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>254.22499999999999</v>
+      </c>
+      <c r="C77">
+        <v>490.23399999999998</v>
+      </c>
+      <c r="D77">
+        <v>387.39</v>
+      </c>
+      <c r="E77">
+        <v>505.43599999999998</v>
+      </c>
+      <c r="F77">
+        <v>791.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>261.16199999999998</v>
+      </c>
+      <c r="C78">
+        <v>505.06200000000001</v>
+      </c>
+      <c r="D78">
+        <v>423.089</v>
+      </c>
+      <c r="E78">
+        <v>488.62</v>
+      </c>
+      <c r="F78">
+        <v>839.33699999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>259.767</v>
+      </c>
+      <c r="C79">
+        <v>502.255</v>
+      </c>
+      <c r="D79">
+        <v>432.05900000000003</v>
+      </c>
+      <c r="E79">
+        <v>531.68100000000004</v>
+      </c>
+      <c r="F79">
+        <v>827.30700000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>280.322</v>
+      </c>
+      <c r="C80">
+        <v>502.476</v>
+      </c>
+      <c r="D80">
+        <v>433.38799999999998</v>
+      </c>
+      <c r="E80">
+        <v>557.61500000000001</v>
+      </c>
+      <c r="F80">
+        <v>826.79700000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>268.98599999999999</v>
+      </c>
+      <c r="C81">
+        <v>511.95100000000002</v>
+      </c>
+      <c r="D81">
+        <v>450.36200000000002</v>
+      </c>
+      <c r="E81">
+        <v>560.61199999999997</v>
+      </c>
+      <c r="F81">
+        <v>799.62800000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>274.69299999999998</v>
+      </c>
+      <c r="C82">
+        <v>518.11300000000006</v>
+      </c>
+      <c r="D82">
+        <v>459.12200000000001</v>
+      </c>
+      <c r="E82">
+        <v>559.73800000000006</v>
+      </c>
+      <c r="F82">
+        <v>845.52800000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>281.61500000000001</v>
+      </c>
+      <c r="C83">
+        <v>532.24800000000005</v>
+      </c>
+      <c r="D83">
+        <v>449.99400000000003</v>
+      </c>
+      <c r="E83">
+        <v>581.35799999999995</v>
+      </c>
+      <c r="F83">
+        <v>877.23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>304.06900000000002</v>
+      </c>
+      <c r="C84">
+        <v>553.66700000000003</v>
+      </c>
+      <c r="D84">
+        <v>471.45800000000003</v>
+      </c>
+      <c r="E84">
+        <v>584.27</v>
+      </c>
+      <c r="F84">
+        <v>891.94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>286.18400000000003</v>
+      </c>
+      <c r="C85">
+        <v>550.56799999999998</v>
+      </c>
+      <c r="D85">
+        <v>475.43799999999999</v>
+      </c>
+      <c r="E85">
+        <v>603.70600000000002</v>
+      </c>
+      <c r="F85">
+        <v>898.84799999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>302.392</v>
+      </c>
+      <c r="C86">
+        <v>582.97500000000002</v>
+      </c>
+      <c r="D86">
+        <v>453.197</v>
+      </c>
+      <c r="E86">
+        <v>605.30799999999999</v>
+      </c>
+      <c r="F86">
+        <v>791.81600000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>314.57799999999997</v>
+      </c>
+      <c r="C87">
+        <v>597.14300000000003</v>
+      </c>
+      <c r="D87">
+        <v>475.45600000000002</v>
+      </c>
+      <c r="E87">
+        <v>622.75800000000004</v>
+      </c>
+      <c r="F87">
+        <v>858.12599999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>312.06599999999997</v>
+      </c>
+      <c r="C88">
+        <v>577.19799999999998</v>
+      </c>
+      <c r="D88">
+        <v>492.87099999999998</v>
+      </c>
+      <c r="E88">
+        <v>601.99400000000003</v>
+      </c>
+      <c r="F88">
+        <v>859.17499999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>328.88499999999999</v>
+      </c>
+      <c r="C89">
+        <v>575.53099999999995</v>
+      </c>
+      <c r="D89">
+        <v>491.49299999999999</v>
+      </c>
+      <c r="E89">
+        <v>614.87900000000002</v>
+      </c>
+      <c r="F89">
+        <v>902.69799999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>355.62400000000002</v>
+      </c>
+      <c r="C90">
+        <v>627.06799999999998</v>
+      </c>
+      <c r="D90">
+        <v>495.83800000000002</v>
+      </c>
+      <c r="E90">
+        <v>628.78200000000004</v>
+      </c>
+      <c r="F90">
+        <v>958.46100000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>346.41699999999997</v>
+      </c>
+      <c r="C91">
+        <v>625.24199999999996</v>
+      </c>
+      <c r="D91">
+        <v>499.19299999999998</v>
+      </c>
+      <c r="E91">
+        <v>665.78499999999997</v>
+      </c>
+      <c r="F91">
+        <v>931.86400000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>301.214</v>
+      </c>
+      <c r="C92">
+        <v>587.41600000000005</v>
+      </c>
+      <c r="D92">
+        <v>475.79500000000002</v>
+      </c>
+      <c r="E92">
+        <v>644.52300000000002</v>
+      </c>
+      <c r="F92">
+        <v>879.50900000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>292.82900000000001</v>
+      </c>
+      <c r="C93">
+        <v>592.55100000000004</v>
+      </c>
+      <c r="D93">
+        <v>488.48500000000001</v>
+      </c>
+      <c r="E93">
+        <v>625.71900000000005</v>
+      </c>
+      <c r="F93">
+        <v>941.07600000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>283.88799999999998</v>
+      </c>
+      <c r="C94">
+        <v>626.87199999999996</v>
+      </c>
+      <c r="D94">
+        <v>509.16199999999998</v>
+      </c>
+      <c r="E94">
+        <v>667.26</v>
+      </c>
+      <c r="F94">
+        <v>950.12300000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>302.16500000000002</v>
+      </c>
+      <c r="C95">
+        <v>603.54700000000003</v>
+      </c>
+      <c r="D95">
+        <v>499.23099999999999</v>
+      </c>
+      <c r="E95">
+        <v>639.85799999999995</v>
+      </c>
+      <c r="F95">
+        <v>964.39300000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>307.87700000000001</v>
+      </c>
+      <c r="C96">
+        <v>589.25099999999998</v>
+      </c>
+      <c r="D96">
+        <v>492.84899999999999</v>
+      </c>
+      <c r="E96">
+        <v>620.67700000000002</v>
+      </c>
+      <c r="F96">
+        <v>932.15300000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>277.58699999999999</v>
+      </c>
+      <c r="C97">
+        <v>586.92399999999998</v>
+      </c>
+      <c r="D97">
+        <v>498.39600000000002</v>
+      </c>
+      <c r="E97">
+        <v>630.88300000000004</v>
+      </c>
+      <c r="F97">
+        <v>795.05200000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>276.96600000000001</v>
+      </c>
+      <c r="C98">
+        <v>586.154</v>
+      </c>
+      <c r="D98">
+        <v>463.428</v>
+      </c>
+      <c r="E98">
+        <v>631.05399999999997</v>
+      </c>
+      <c r="F98">
+        <v>917.40899999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>292.89499999999998</v>
+      </c>
+      <c r="C99">
+        <v>567.31399999999996</v>
+      </c>
+      <c r="D99">
+        <v>468.875</v>
+      </c>
+      <c r="E99">
+        <v>627.85500000000002</v>
+      </c>
+      <c r="F99">
+        <v>907.98400000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>266.3</v>
+      </c>
+      <c r="C100">
+        <v>554.274</v>
+      </c>
+      <c r="D100">
+        <v>463.19099999999997</v>
+      </c>
+      <c r="E100">
+        <v>593.83900000000006</v>
+      </c>
+      <c r="F100">
+        <v>895.85799999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>247.839</v>
+      </c>
+      <c r="C101">
+        <v>533.05999999999995</v>
+      </c>
+      <c r="D101">
+        <v>448.67399999999998</v>
+      </c>
+      <c r="E101">
+        <v>587.25900000000001</v>
+      </c>
+      <c r="F101">
+        <v>861.46400000000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>257.25900000000001</v>
+      </c>
+      <c r="C102">
+        <v>501.05399999999997</v>
+      </c>
+      <c r="D102">
+        <v>437.363</v>
+      </c>
+      <c r="E102">
+        <v>575.96299999999997</v>
+      </c>
+      <c r="F102">
+        <v>783.36900000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>243.13300000000001</v>
+      </c>
+      <c r="C103">
+        <v>480.98599999999999</v>
+      </c>
+      <c r="D103">
+        <v>424.59300000000002</v>
+      </c>
+      <c r="E103">
+        <v>566.21400000000006</v>
+      </c>
+      <c r="F103">
+        <v>785.12099999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>241.78</v>
+      </c>
+      <c r="C104">
+        <v>487.142</v>
+      </c>
+      <c r="D104">
+        <v>417.19299999999998</v>
+      </c>
+      <c r="E104">
+        <v>567.173</v>
+      </c>
+      <c r="F104">
+        <v>756.78099999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>233.09</v>
+      </c>
+      <c r="C105">
+        <v>470.02600000000001</v>
+      </c>
+      <c r="D105">
+        <v>412.15600000000001</v>
+      </c>
+      <c r="E105">
+        <v>554.56100000000004</v>
+      </c>
+      <c r="F105">
+        <v>784.529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>206.233</v>
+      </c>
+      <c r="C106">
+        <v>443.08</v>
+      </c>
+      <c r="D106">
+        <v>409.83300000000003</v>
+      </c>
+      <c r="E106">
+        <v>530.96</v>
+      </c>
+      <c r="F106">
+        <v>774.64700000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>215.36</v>
+      </c>
+      <c r="C107">
+        <v>421.15600000000001</v>
+      </c>
+      <c r="D107">
+        <v>380.62799999999999</v>
+      </c>
+      <c r="E107">
+        <v>514.93899999999996</v>
+      </c>
+      <c r="F107">
+        <v>710.63499999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>197.465</v>
+      </c>
+      <c r="C108">
+        <v>391.40199999999999</v>
+      </c>
+      <c r="D108">
+        <v>392.87299999999999</v>
+      </c>
+      <c r="E108">
+        <v>519.00199999999995</v>
+      </c>
+      <c r="F108">
+        <v>695.73099999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>188.14099999999999</v>
+      </c>
+      <c r="C109">
+        <v>370.935</v>
+      </c>
+      <c r="D109">
+        <v>376.53899999999999</v>
+      </c>
+      <c r="E109">
+        <v>481.71300000000002</v>
+      </c>
+      <c r="F109">
+        <v>709.83199999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>188.137</v>
+      </c>
+      <c r="C110">
+        <v>385.20499999999998</v>
+      </c>
+      <c r="D110">
+        <v>371.41800000000001</v>
+      </c>
+      <c r="E110">
+        <v>475.66699999999997</v>
+      </c>
+      <c r="F110">
+        <v>721.33399999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>185.86699999999999</v>
+      </c>
+      <c r="C111">
+        <v>356.35399999999998</v>
+      </c>
+      <c r="D111">
+        <v>349.64800000000002</v>
+      </c>
+      <c r="E111">
+        <v>486.13299999999998</v>
+      </c>
+      <c r="F111">
+        <v>697.53499999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>181.11600000000001</v>
+      </c>
+      <c r="C112">
+        <v>350.56900000000002</v>
+      </c>
+      <c r="D112">
+        <v>357.30399999999997</v>
+      </c>
+      <c r="E112">
+        <v>467.98</v>
+      </c>
+      <c r="F112">
+        <v>643.39300000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>174.762</v>
+      </c>
+      <c r="C113">
+        <v>343.23500000000001</v>
+      </c>
+      <c r="D113">
+        <v>352.09800000000001</v>
+      </c>
+      <c r="E113">
+        <v>448.262</v>
+      </c>
+      <c r="F113">
+        <v>682.82399999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>172.51900000000001</v>
+      </c>
+      <c r="C114">
+        <v>337.63400000000001</v>
+      </c>
+      <c r="D114">
+        <v>345.91699999999997</v>
+      </c>
+      <c r="E114">
+        <v>442.04700000000003</v>
+      </c>
+      <c r="F114">
+        <v>664.02700000000004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>165.887</v>
+      </c>
+      <c r="C115">
+        <v>325.80099999999999</v>
+      </c>
+      <c r="D115">
+        <v>334.87700000000001</v>
+      </c>
+      <c r="E115">
+        <v>414.89100000000002</v>
+      </c>
+      <c r="F115">
+        <v>617.553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>160.04300000000001</v>
+      </c>
+      <c r="C116">
+        <v>316.29199999999997</v>
+      </c>
+      <c r="D116">
+        <v>320.73700000000002</v>
+      </c>
+      <c r="E116">
+        <v>409.32499999999999</v>
+      </c>
+      <c r="F116">
+        <v>626.44500000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>157.477</v>
+      </c>
+      <c r="C117">
+        <v>307.846</v>
+      </c>
+      <c r="D117">
+        <v>311.69</v>
+      </c>
+      <c r="E117">
+        <v>413.37700000000001</v>
+      </c>
+      <c r="F117">
+        <v>613.92899999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>156.95099999999999</v>
+      </c>
+      <c r="C118">
+        <v>297.05200000000002</v>
+      </c>
+      <c r="D118">
+        <v>307.56400000000002</v>
+      </c>
+      <c r="E118">
+        <v>385.58800000000002</v>
+      </c>
+      <c r="F118">
+        <v>637.03599999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>151.072</v>
+      </c>
+      <c r="C119">
+        <v>284.97000000000003</v>
+      </c>
+      <c r="D119">
+        <v>303.01600000000002</v>
+      </c>
+      <c r="E119">
+        <v>395.35399999999998</v>
+      </c>
+      <c r="F119">
+        <v>604.98400000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>144.148</v>
+      </c>
+      <c r="C120">
+        <v>278.66000000000003</v>
+      </c>
+      <c r="D120">
+        <v>299.58199999999999</v>
+      </c>
+      <c r="E120">
+        <v>384.38499999999999</v>
+      </c>
+      <c r="F120">
+        <v>598.33299999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>137.73099999999999</v>
+      </c>
+      <c r="C121">
+        <v>270.58</v>
+      </c>
+      <c r="D121">
+        <v>293.17099999999999</v>
+      </c>
+      <c r="E121">
+        <v>374.61399999999998</v>
+      </c>
+      <c r="F121">
+        <v>590.08699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849FC0F-99D4-4FB0-9314-7F7798736417}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1EE598-2E14-47E1-B379-A1F674457C79}">
   <dimension ref="A1:Q124"/>
   <sheetViews>
@@ -36128,7 +43430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F23C397-71C0-422D-AA5B-C018E4690588}">
   <dimension ref="A1:Q122"/>
   <sheetViews>

--- a/Statistics/BVH_Performance.xlsx
+++ b/Statistics/BVH_Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Projects\Radiance\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C0B52-B0CE-4F2F-A3C5-51023D3F97D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B49FA2F-2C4E-4E88-9107-3E3217E94036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>SAH v1</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>WL 2 SPP SbP offset</t>
+  </si>
+  <si>
+    <t>Binned BVH</t>
   </si>
 </sst>
 </file>
@@ -20272,6 +20275,779 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C140-4A67-9C47-B4EB34F08BDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'unity.tri 3 MSPS'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binned BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 MSPS'!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'unity.tri 3 MSPS'!$K$2:$K$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>1783.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1546.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1595.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1508.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1313.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1296.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1386.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1413.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1358.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1295.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1267.1300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1267.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1226.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1153.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1163.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1111.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1093.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1076.33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1072.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1041.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1044.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1042.27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1039.81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1049.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1039.07</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1032.21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1029.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1017.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1009.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000.89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1007.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>992.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>989.73699999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>973.375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>952.05899999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>943.625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>940.07399999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>942.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>950.74</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>946.47900000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>991.07</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1024.23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1044.48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1086.74</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1164.08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1227.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1277.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1244.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1327.86</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1420.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1442.92</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1502.37</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1546.21</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1575.34</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1582.15</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1622.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1709.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1695.72</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1714.99</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1801.51</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1853.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1833.17</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1845.29</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1886.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1928.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1970.15</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2000.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2022.62</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2050.2600000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2106.89</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2159.86</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2180.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2210.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2256</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2305.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2336.1799999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2393.27</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2439.0500000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2494.17</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2528.19</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2545.52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2589.48</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2654.03</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2710.52</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2744.29</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2727.21</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2747.07</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2787.43</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2814.13</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2832.07</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2845.69</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2839.33</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2783.28</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2746.08</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2729.64</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2691.61</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2640.92</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2559.92</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2491.91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2445.04</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2388.0500000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2301.31</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2248.7199999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2143.19</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2012.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1892.85</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1822.47</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1863.41</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1877.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1841.11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1763.71</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1698.81</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1684.9</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1655.23</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1619.13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1586.02</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1564.88</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1536.53</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1548.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E83C-41A1-A7BB-93C155C1481B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -42237,13 +43013,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -48705,10 +49481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8750E5EE-F956-401B-AB0D-294E07FBDD80}">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48725,7 +49501,7 @@
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -48756,8 +49532,11 @@
       <c r="J1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -48788,8 +49567,11 @@
       <c r="J2">
         <v>1945.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>1783.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -48820,8 +49602,11 @@
       <c r="J3">
         <v>1875.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1546.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -48852,8 +49637,11 @@
       <c r="J4">
         <v>1917.86</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>1595.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -48884,8 +49672,11 @@
       <c r="J5">
         <v>1873.67</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1508.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -48916,8 +49707,11 @@
       <c r="J6">
         <v>1839.93</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1313.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -48948,8 +49742,11 @@
       <c r="J7">
         <v>1789.54</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1296.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -48980,8 +49777,11 @@
       <c r="J8">
         <v>1702.05</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>1386.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -49012,8 +49812,11 @@
       <c r="J9">
         <v>1616.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>1413.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -49044,8 +49847,11 @@
       <c r="J10">
         <v>1605.47</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>1358.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -49076,8 +49882,11 @@
       <c r="J11">
         <v>1572.68</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1295.79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -49108,8 +49917,11 @@
       <c r="J12">
         <v>1547.86</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>1267.1300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -49140,8 +49952,11 @@
       <c r="J13">
         <v>1513.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1267.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -49172,8 +49987,11 @@
       <c r="J14">
         <v>1472.55</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1226.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -49204,8 +50022,11 @@
       <c r="J15">
         <v>1430.18</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>1153.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -49236,8 +50057,11 @@
       <c r="J16">
         <v>1401.94</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1163.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -49268,8 +50092,11 @@
       <c r="J17">
         <v>1364.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1111.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -49300,8 +50127,11 @@
       <c r="J18">
         <v>1333.52</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1093.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -49332,8 +50162,11 @@
       <c r="J19">
         <v>1307.3900000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1076.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -49364,8 +50197,11 @@
       <c r="J20">
         <v>1285.26</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1072.9000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -49396,8 +50232,11 @@
       <c r="J21">
         <v>1266.4000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1041.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -49428,8 +50267,11 @@
       <c r="J22">
         <v>1242.3399999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1044.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -49460,8 +50302,11 @@
       <c r="J23">
         <v>1241.49</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1042.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -49492,8 +50337,11 @@
       <c r="J24">
         <v>1252.19</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>1039.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -49524,8 +50372,11 @@
       <c r="J25">
         <v>1265.18</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1049.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -49556,8 +50407,11 @@
       <c r="J26">
         <v>1252</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>1039.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -49588,8 +50442,11 @@
       <c r="J27">
         <v>1241.43</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>1032.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -49620,8 +50477,11 @@
       <c r="J28">
         <v>1234.07</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>1029.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -49652,8 +50512,11 @@
       <c r="J29">
         <v>1229.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>1017.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -49684,8 +50547,11 @@
       <c r="J30">
         <v>1220.08</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>1009.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -49716,8 +50582,11 @@
       <c r="J31">
         <v>1211.28</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>1000.89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -49748,8 +50617,11 @@
       <c r="J32">
         <v>1206.33</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>1007.37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -49780,8 +50652,11 @@
       <c r="J33">
         <v>1196.6199999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>992.13900000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -49812,8 +50687,11 @@
       <c r="J34">
         <v>1189.08</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>989.73699999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -49844,8 +50722,11 @@
       <c r="J35">
         <v>1172.0999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>973.375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -49876,8 +50757,11 @@
       <c r="J36">
         <v>1149.94</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>952.05899999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -49908,8 +50792,11 @@
       <c r="J37">
         <v>1130.94</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>943.625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -49940,8 +50827,11 @@
       <c r="J38">
         <v>1123.24</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>940.07399999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -49972,8 +50862,11 @@
       <c r="J39">
         <v>1124.17</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>942.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -50004,8 +50897,11 @@
       <c r="J40">
         <v>1136.19</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>950.74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -50036,8 +50932,11 @@
       <c r="J41">
         <v>1153.53</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>946.47900000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -50068,8 +50967,11 @@
       <c r="J42">
         <v>1182.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>991.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -50100,8 +51002,11 @@
       <c r="J43">
         <v>1214.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>1024.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -50132,8 +51037,11 @@
       <c r="J44">
         <v>1255.05</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>1044.48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -50164,8 +51072,11 @@
       <c r="J45">
         <v>1299.32</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>1086.74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -50196,8 +51107,11 @@
       <c r="J46">
         <v>1347.62</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -50228,8 +51142,11 @@
       <c r="J47">
         <v>1389.01</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>1164.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -50260,8 +51177,11 @@
       <c r="J48">
         <v>1441.42</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>1227.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -50292,8 +51212,11 @@
       <c r="J49">
         <v>1490.68</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>1277.1400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -50324,8 +51247,11 @@
       <c r="J50">
         <v>1535.82</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>1244.8499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -50356,8 +51282,11 @@
       <c r="J51">
         <v>1578.18</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>1327.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -50388,8 +51317,11 @@
       <c r="J52">
         <v>1630.26</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>1420.68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -50420,8 +51352,11 @@
       <c r="J53">
         <v>1691.41</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>1442.92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -50452,8 +51387,11 @@
       <c r="J54">
         <v>1765.65</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>1502.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -50484,8 +51422,11 @@
       <c r="J55">
         <v>1838.95</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>1546.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -50516,8 +51457,11 @@
       <c r="J56">
         <v>1890.45</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>1575.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -50548,8 +51492,11 @@
       <c r="J57">
         <v>1951.43</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>1582.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -50580,8 +51527,11 @@
       <c r="J58">
         <v>2016.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>1622.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -50612,8 +51562,11 @@
       <c r="J59">
         <v>2067.35</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>1709.43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -50644,8 +51597,11 @@
       <c r="J60">
         <v>2130.77</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>1695.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -50676,8 +51632,11 @@
       <c r="J61">
         <v>2168.4699999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>1714.99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -50708,8 +51667,11 @@
       <c r="J62">
         <v>2200.35</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>1801.51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -50740,8 +51702,11 @@
       <c r="J63">
         <v>2228.36</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>1853.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -50772,8 +51737,11 @@
       <c r="J64">
         <v>2255.83</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>1833.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -50804,8 +51772,11 @@
       <c r="J65">
         <v>2279.4899999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1845.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -50836,8 +51807,11 @@
       <c r="J66">
         <v>2296.84</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>1886.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -50868,8 +51842,11 @@
       <c r="J67">
         <v>2339.19</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>1928.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -50900,8 +51877,11 @@
       <c r="J68">
         <v>2371.36</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>1970.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -50932,8 +51912,11 @@
       <c r="J69">
         <v>2416.1999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>2000.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -50964,8 +51947,11 @@
       <c r="J70">
         <v>2446.0700000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>2022.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -50996,8 +51982,11 @@
       <c r="J71">
         <v>2498.96</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>2050.2600000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -51028,8 +52017,11 @@
       <c r="J72">
         <v>2548.37</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>2106.89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -51060,8 +52052,11 @@
       <c r="J73">
         <v>2595.9499999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>2159.86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -51092,8 +52087,11 @@
       <c r="J74">
         <v>2646.12</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>2180.8000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -51124,8 +52122,11 @@
       <c r="J75">
         <v>2683.45</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>2210.5100000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -51156,8 +52157,11 @@
       <c r="J76">
         <v>2730.15</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -51188,8 +52192,11 @@
       <c r="J77">
         <v>2764.07</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>2305.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -51220,8 +52227,11 @@
       <c r="J78">
         <v>2801.47</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>2336.1799999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -51252,8 +52262,11 @@
       <c r="J79">
         <v>2854.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>2393.27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -51284,8 +52297,11 @@
       <c r="J80">
         <v>2897.57</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>2439.0500000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -51316,8 +52332,11 @@
       <c r="J81">
         <v>2957.33</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>2494.17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -51348,8 +52367,11 @@
       <c r="J82">
         <v>3008.22</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>2528.19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -51380,8 +52402,11 @@
       <c r="J83">
         <v>3066.62</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>2545.52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -51412,8 +52437,11 @@
       <c r="J84">
         <v>3111.72</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>2589.48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -51444,8 +52472,11 @@
       <c r="J85">
         <v>3162</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>2654.03</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -51476,8 +52507,11 @@
       <c r="J86">
         <v>3201.41</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>2710.52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -51508,8 +52542,11 @@
       <c r="J87">
         <v>3248.15</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>2744.29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -51540,8 +52577,11 @@
       <c r="J88">
         <v>3288.24</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>2727.21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -51572,8 +52612,11 @@
       <c r="J89">
         <v>3313.54</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>2747.07</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -51604,8 +52647,11 @@
       <c r="J90">
         <v>3359.15</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>2787.43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -51636,8 +52682,11 @@
       <c r="J91">
         <v>3374.85</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>2814.13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -51668,8 +52717,11 @@
       <c r="J92">
         <v>3387.12</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>2832.07</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -51700,8 +52752,11 @@
       <c r="J93">
         <v>3389.02</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>2845.69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -51732,8 +52787,11 @@
       <c r="J94">
         <v>3378.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>2839.33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -51764,8 +52822,11 @@
       <c r="J95">
         <v>3344.89</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>2783.28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -51796,8 +52857,11 @@
       <c r="J96">
         <v>3316.24</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>2746.08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -51828,8 +52892,11 @@
       <c r="J97">
         <v>3276.01</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>2729.64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -51860,8 +52927,11 @@
       <c r="J98">
         <v>3212.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <v>2691.61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -51892,8 +52962,11 @@
       <c r="J99">
         <v>3147.47</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <v>2640.92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -51924,8 +52997,11 @@
       <c r="J100">
         <v>3078.44</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>2559.92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -51956,8 +53032,11 @@
       <c r="J101">
         <v>2999.06</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>2491.91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -51988,8 +53067,11 @@
       <c r="J102">
         <v>2934.82</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>2445.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -52020,8 +53102,11 @@
       <c r="J103">
         <v>2864.59</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>2388.0500000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -52052,8 +53137,11 @@
       <c r="J104">
         <v>2799.81</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>2301.31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -52084,8 +53172,11 @@
       <c r="J105">
         <v>2740.14</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>2248.7199999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -52116,8 +53207,11 @@
       <c r="J106">
         <v>2673.53</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>2143.19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -52148,8 +53242,11 @@
       <c r="J107">
         <v>2615.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>2012.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -52180,8 +53277,11 @@
       <c r="J108">
         <v>2549.9299999999998</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>1892.85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -52212,8 +53312,11 @@
       <c r="J109">
         <v>2495.19</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>1822.47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -52244,8 +53347,11 @@
       <c r="J110">
         <v>2448.3000000000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>1863.41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -52276,8 +53382,11 @@
       <c r="J111">
         <v>2404.09</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>1877.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -52308,8 +53417,11 @@
       <c r="J112">
         <v>2364.1799999999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>1841.11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -52340,8 +53452,11 @@
       <c r="J113">
         <v>2318.86</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <v>1763.71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -52372,8 +53487,11 @@
       <c r="J114">
         <v>2283.39</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>1698.81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -52404,8 +53522,11 @@
       <c r="J115">
         <v>2238.19</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <v>1684.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -52436,8 +53557,11 @@
       <c r="J116">
         <v>2204.27</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <v>1655.23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -52468,8 +53592,11 @@
       <c r="J117">
         <v>2166.41</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <v>1619.13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -52500,8 +53627,11 @@
       <c r="J118">
         <v>2128.31</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <v>1586.02</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -52532,8 +53662,11 @@
       <c r="J119">
         <v>2087.5500000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119">
+        <v>1564.88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -52564,8 +53697,11 @@
       <c r="J120">
         <v>2048.6999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <v>1536.53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -52595,6 +53731,9 @@
       </c>
       <c r="J121">
         <v>2017.69</v>
+      </c>
+      <c r="K121">
+        <v>1548.89</v>
       </c>
     </row>
   </sheetData>
@@ -55411,7 +56550,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEDFA27-F7CC-45D4-A74F-72C1203A2D70}">
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>

--- a/Statistics/BVH_Performance.xlsx
+++ b/Statistics/BVH_Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Projects\Radiance\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869BDBE3-6A05-433B-B3F4-7EDCECAE7A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F92BA17-4E48-4767-BA87-B0DAC65A5479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5432B80-60C3-4BA9-AB2E-A1ED8FBAF94F}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>Warp locality 2 SPP</t>
   </si>
   <si>
-    <t>WL 2 SPP SbP offset</t>
-  </si>
-  <si>
     <t>Binned BVH</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Const BVH V2</t>
+  </si>
+  <si>
+    <t>Warp Locality 2 SPP SbP offset</t>
   </si>
 </sst>
 </file>
@@ -4812,7 +4812,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WL 2 SPP SbP offset</c:v>
+                  <c:v>Warp Locality 2 SPP SbP offset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7160,7 +7160,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$I$1</c15:sqref>
@@ -7191,7 +7191,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$A$2:$A$121</c15:sqref>
@@ -7566,7 +7566,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$I$2:$I$121</c15:sqref>
@@ -7940,7 +7940,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C140-4A67-9C47-B4EB34F08BDB}"/>
                   </c:ext>
@@ -7953,7 +7953,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$K$1</c15:sqref>
@@ -7984,7 +7984,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$A$2:$A$121</c15:sqref>
@@ -8359,7 +8359,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$K$2:$K$121</c15:sqref>
@@ -8733,7 +8733,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-E83C-41A1-A7BB-93C155C1481B}"/>
                   </c:ext>
@@ -8746,7 +8746,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$L$1</c15:sqref>
@@ -8777,7 +8777,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$A$2:$A$121</c15:sqref>
@@ -9152,7 +9152,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$L$2:$L$121</c15:sqref>
@@ -9526,7 +9526,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-97CD-4A7A-9F0E-261555781BC7}"/>
                   </c:ext>
@@ -14543,7 +14543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WL 2 SPP SbP offset</c:v>
+                  <c:v>Warp Locality 2 SPP SbP offset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16891,7 +16891,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$I$124</c15:sqref>
@@ -16922,7 +16922,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$A$125:$A$244</c15:sqref>
@@ -17297,7 +17297,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$I$125:$I$244</c15:sqref>
@@ -17671,7 +17671,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-C57B-476E-B11C-2CCD19F91321}"/>
                   </c:ext>
@@ -17684,7 +17684,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$K$124</c15:sqref>
@@ -17715,7 +17715,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$A$125:$A$244</c15:sqref>
@@ -18090,7 +18090,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$K$125:$K$244</c15:sqref>
@@ -18464,7 +18464,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-C57B-476E-B11C-2CCD19F91321}"/>
                   </c:ext>
@@ -18477,7 +18477,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$L$124</c15:sqref>
@@ -18508,7 +18508,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$A$125:$A$244</c15:sqref>
@@ -18883,7 +18883,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'unity.tri MSPS'!$L$125:$L$244</c15:sqref>
@@ -19257,7 +19257,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-C57B-476E-B11C-2CCD19F91321}"/>
                   </c:ext>
@@ -19437,7 +19437,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -29054,8 +29054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8750E5EE-F956-401B-AB0D-294E07FBDD80}">
   <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="E99" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29069,7 +29069,7 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29102,16 +29102,16 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -34060,16 +34060,16 @@
         <v>15</v>
       </c>
       <c r="J124" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" t="s">
+        <v>17</v>
+      </c>
+      <c r="L124" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" t="s">
         <v>16</v>
-      </c>
-      <c r="K124" t="s">
-        <v>18</v>
-      </c>
-      <c r="L124" t="s">
-        <v>19</v>
-      </c>
-      <c r="M124" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
